--- a/datasets/Food Waste data & research - PUBLIC.xlsx
+++ b/datasets/Food Waste data & research - PUBLIC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="9405" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="9405" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="CONTENTS" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="801">
   <si>
     <t>Welcome to our Food Waste datasheet</t>
   </si>
@@ -937,9 +937,6 @@
     <t>ORIGINAL</t>
   </si>
   <si>
-    <t>% of wastage</t>
-  </si>
-  <si>
     <t>GHG emissions (Co2e) 2018</t>
   </si>
   <si>
@@ -2472,6 +2469,9 @@
   </si>
   <si>
     <t>landfill</t>
+  </si>
+  <si>
+    <t>Percent</t>
   </si>
 </sst>
 </file>
@@ -3254,7 +3254,9 @@
   </sheetPr>
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -3270,7 +3272,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="12.75">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -3278,13 +3280,13 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" ht="12.75">
       <c r="A3" s="3"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" ht="12.75">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -3294,13 +3296,13 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" ht="12.75">
       <c r="A5" s="3"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" ht="12.75">
       <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
@@ -3310,7 +3312,7 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" ht="12.75">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -3320,7 +3322,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" ht="12.75">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -3330,7 +3332,7 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" ht="12.75">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
@@ -3340,7 +3342,7 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" ht="12.75">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
@@ -3350,7 +3352,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" ht="12.75">
       <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
@@ -3360,7 +3362,7 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" ht="12.75">
       <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
@@ -3370,7 +3372,7 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" ht="12.75">
       <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
@@ -3380,19 +3382,19 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" ht="12.75">
       <c r="A14" s="3"/>
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" ht="12.75">
       <c r="A15" s="3"/>
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" ht="12.75">
       <c r="A16" s="3"/>
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
@@ -3568,8 +3570,8 @@
   <dimension ref="A1:C305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B173" sqref="B173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3603,14 +3605,14 @@
     </row>
     <row r="5" spans="1:3" ht="12.75">
       <c r="A5" s="22"/>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="63" t="s">
         <v>45</v>
       </c>
       <c r="C5" s="17"/>
     </row>
     <row r="6" spans="1:3" ht="12.75">
       <c r="A6" s="23"/>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="69" t="s">
         <v>46</v>
       </c>
       <c r="C6" s="24" t="s">
@@ -5619,11 +5621,13 @@
   </sheetPr>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:B22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
@@ -5636,7 +5640,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="12.75">
       <c r="A2" s="4"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5644,17 +5648,19 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" ht="12.75">
       <c r="A3" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>800</v>
+      </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" ht="12.75">
       <c r="A4" s="22" t="s">
         <v>281</v>
       </c>
@@ -5668,7 +5674,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" ht="12.75">
       <c r="A5" s="22" t="s">
         <v>282</v>
       </c>
@@ -5680,7 +5686,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="12.75">
       <c r="A6" s="7" t="s">
         <v>283</v>
       </c>
@@ -5692,7 +5698,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="12.75">
       <c r="A7" s="7" t="s">
         <v>284</v>
       </c>
@@ -5704,7 +5710,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="12.75">
       <c r="A8" s="7" t="s">
         <v>285</v>
       </c>
@@ -5717,7 +5723,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="12.75">
       <c r="A9" s="22" t="s">
         <v>286</v>
       </c>
@@ -5730,7 +5736,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="12.75">
       <c r="A10" s="4" t="s">
         <v>287</v>
       </c>
@@ -5743,7 +5749,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" ht="12.75">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -5751,7 +5757,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" ht="12.75">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -5759,7 +5765,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="12.75">
       <c r="A13" s="22" t="s">
         <v>288</v>
       </c>
@@ -5769,12 +5775,12 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" ht="12.75">
       <c r="A14" s="22" t="s">
         <v>264</v>
       </c>
-      <c r="B14" s="24" t="s">
-        <v>289</v>
+      <c r="B14" s="62" t="s">
+        <v>800</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="45" t="s">
@@ -5783,7 +5789,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" ht="12.75">
       <c r="A15" s="23" t="s">
         <v>265</v>
       </c>
@@ -5795,7 +5801,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" ht="12.75">
       <c r="A16" s="23" t="s">
         <v>266</v>
       </c>
@@ -5807,7 +5813,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="12.75">
       <c r="A17" s="23" t="s">
         <v>267</v>
       </c>
@@ -5819,7 +5825,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="12.75">
       <c r="A18" s="23" t="s">
         <v>268</v>
       </c>
@@ -5831,7 +5837,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" ht="12.75">
       <c r="A19" s="23" t="s">
         <v>269</v>
       </c>
@@ -5843,7 +5849,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" ht="12.75">
       <c r="A20" s="23" t="s">
         <v>270</v>
       </c>
@@ -5855,7 +5861,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="12.75">
       <c r="A21" s="23" t="s">
         <v>271</v>
       </c>
@@ -5867,7 +5873,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" ht="12.75">
       <c r="A22" s="23" t="s">
         <v>272</v>
       </c>
@@ -5879,7 +5885,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" ht="12.75">
       <c r="A23" s="16"/>
       <c r="B23" s="49">
         <f>SUM(B15:B22)</f>
@@ -5914,7 +5920,9 @@
   </sheetPr>
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -5923,10 +5931,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="B1" s="50" t="s">
         <v>290</v>
-      </c>
-      <c r="B1" s="50" t="s">
-        <v>291</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -5941,10 +5949,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B3" s="52" t="s">
         <v>292</v>
-      </c>
-      <c r="B3" s="52" t="s">
-        <v>293</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -5952,7 +5960,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B4" s="52">
         <v>12.4</v>
@@ -5974,7 +5982,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B6" s="52">
         <v>3.4</v>
@@ -5985,7 +5993,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B7" s="53">
         <v>3.3</v>
@@ -5996,7 +6004,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B8" s="52">
         <v>2.5</v>
@@ -6007,7 +6015,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B9" s="52">
         <v>1.2</v>
@@ -6018,7 +6026,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B10" s="52">
         <v>1</v>
@@ -6029,7 +6037,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B11" s="4">
         <v>0.97</v>
@@ -6040,7 +6048,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B12" s="4">
         <v>0.83</v>
@@ -6051,7 +6059,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B13" s="4">
         <v>0.8</v>
@@ -6062,7 +6070,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B14" s="54">
         <v>0.8</v>
@@ -6073,7 +6081,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B15" s="4">
         <v>0.72</v>
@@ -6095,7 +6103,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B17" s="4">
         <v>0.68</v>
@@ -6106,7 +6114,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B18" s="4">
         <v>0.64</v>
@@ -6117,7 +6125,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B19" s="4">
         <v>0.62</v>
@@ -6128,7 +6136,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B20" s="4">
         <v>0.51</v>
@@ -6139,7 +6147,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B21" s="4">
         <v>0.5</v>
@@ -6150,7 +6158,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B22" s="4">
         <v>0.45</v>
@@ -6296,7 +6304,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>29</v>
@@ -6307,7 +6315,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B43" s="14" t="s">
         <v>39</v>
@@ -6318,10 +6326,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B44" s="9" t="s">
         <v>313</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>314</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -6359,23 +6367,23 @@
   </sheetPr>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" customWidth="1"/>
     <col min="7" max="7" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="55" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B1" s="55"/>
       <c r="C1" s="56"/>
@@ -6395,28 +6403,28 @@
     </row>
     <row r="3" spans="1:7" ht="12.75">
       <c r="A3" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>794</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>795</v>
-      </c>
       <c r="C3" s="56" t="s">
+        <v>315</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>792</v>
+      </c>
+      <c r="E3" s="56" t="s">
         <v>316</v>
       </c>
-      <c r="D3" s="56" t="s">
-        <v>793</v>
-      </c>
-      <c r="E3" s="56" t="s">
+      <c r="F3" s="57" t="s">
         <v>317</v>
-      </c>
-      <c r="F3" s="57" t="s">
-        <v>318</v>
       </c>
       <c r="G3" s="56"/>
     </row>
     <row r="4" spans="1:7" ht="12.75">
       <c r="A4" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="7">
@@ -6435,10 +6443,10 @@
     </row>
     <row r="5" spans="1:7" ht="12.75">
       <c r="A5" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C5" s="4">
         <v>0.78</v>
@@ -6452,10 +6460,10 @@
     </row>
     <row r="6" spans="1:7" ht="12.75">
       <c r="A6" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C6" s="4">
         <v>0.53</v>
@@ -6467,7 +6475,7 @@
     </row>
     <row r="7" spans="1:7" ht="12.75">
       <c r="A7" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="7">
@@ -6486,10 +6494,10 @@
     </row>
     <row r="8" spans="1:7" ht="12.75">
       <c r="A8" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -6501,7 +6509,7 @@
     </row>
     <row r="9" spans="1:7" ht="12.75">
       <c r="A9" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="7">
@@ -6518,10 +6526,10 @@
     </row>
     <row r="10" spans="1:7" ht="12.75">
       <c r="A10" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C10" s="4">
         <v>1.5</v>
@@ -6533,10 +6541,10 @@
     </row>
     <row r="11" spans="1:7" ht="12.75">
       <c r="A11" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C11" s="4">
         <v>0.8</v>
@@ -6616,7 +6624,9 @@
   </sheetPr>
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -6632,23 +6642,23 @@
         <v>2018</v>
       </c>
       <c r="D1" s="61" t="s">
+        <v>321</v>
+      </c>
+      <c r="E1" s="61" t="s">
         <v>322</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="F1" s="36" t="s">
         <v>323</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="G1" s="61" t="s">
         <v>324</v>
-      </c>
-      <c r="G1" s="61" t="s">
-        <v>325</v>
       </c>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="63" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B2" s="64">
         <v>26000000</v>
@@ -6662,7 +6672,7 @@
         <v>0.23076923076923073</v>
       </c>
       <c r="F2" s="66" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G2" s="36" t="s">
         <v>20</v>
@@ -6674,7 +6684,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="63" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B3" s="68">
         <v>8.1999999999999993</v>
@@ -6688,7 +6698,7 @@
         <v>0.21951219512195108</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G3" s="36" t="s">
         <v>20</v>
@@ -6700,7 +6710,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="63" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B4" s="36">
         <v>132</v>
@@ -6716,7 +6726,7 @@
         <v>0.27272727272727271</v>
       </c>
       <c r="F4" s="40" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G4" s="36" t="s">
         <v>20</v>
@@ -6750,7 +6760,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="61" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B7" s="62"/>
       <c r="C7" s="62"/>
@@ -6761,16 +6771,10 @@
       <c r="H7" s="62"/>
       <c r="I7" s="62"/>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="62"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
+    <row r="8" spans="1:9" s="62" customFormat="1">
+      <c r="A8" s="36" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="36" t="s">
@@ -6799,9 +6803,6 @@
       <c r="I10" s="62"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="36" t="s">
-        <v>335</v>
-      </c>
       <c r="B11" s="62"/>
       <c r="C11" s="62"/>
       <c r="D11" s="62"/>
@@ -6824,13 +6825,13 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="63" t="s">
+        <v>335</v>
+      </c>
+      <c r="B13" s="36" t="s">
         <v>336</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="C13" s="36" t="s">
         <v>337</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>338</v>
       </c>
       <c r="D13" s="62"/>
       <c r="E13" s="62"/>
@@ -6841,7 +6842,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="63" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B14" s="70">
         <v>18</v>
@@ -6858,7 +6859,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="63" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B15" s="71">
         <v>40</v>
@@ -6875,7 +6876,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="63" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B16" s="70">
         <v>60</v>
@@ -6903,7 +6904,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="63" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B18" s="62"/>
       <c r="C18" s="62"/>
@@ -7017,7 +7018,7 @@
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:H219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -7032,7 +7033,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1">
       <c r="A1" s="73" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B1" s="74"/>
       <c r="C1" s="74"/>
@@ -7047,9 +7048,9 @@
       <c r="L1" s="80"/>
       <c r="M1" s="81"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" ht="12.75">
       <c r="A2" s="82" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B2" s="83"/>
       <c r="C2" s="83"/>
@@ -7064,48 +7065,48 @@
       <c r="L2" s="85"/>
       <c r="M2" s="86"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" ht="38.25">
       <c r="A3" s="87" t="s">
+        <v>343</v>
+      </c>
+      <c r="B3" s="88" t="s">
         <v>344</v>
       </c>
-      <c r="B3" s="88" t="s">
+      <c r="C3" s="88" t="s">
         <v>345</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="D3" s="89" t="s">
         <v>346</v>
       </c>
-      <c r="D3" s="89" t="s">
+      <c r="E3" s="87" t="s">
         <v>347</v>
       </c>
-      <c r="E3" s="87" t="s">
+      <c r="F3" s="87" t="s">
         <v>348</v>
       </c>
-      <c r="F3" s="87" t="s">
+      <c r="G3" s="87" t="s">
         <v>349</v>
       </c>
-      <c r="G3" s="87" t="s">
+      <c r="H3" s="87" t="s">
         <v>350</v>
       </c>
-      <c r="H3" s="87" t="s">
+      <c r="I3" s="90" t="s">
         <v>351</v>
       </c>
-      <c r="I3" s="90" t="s">
+      <c r="J3" s="90" t="s">
         <v>352</v>
       </c>
-      <c r="J3" s="90" t="s">
+      <c r="K3" s="90" t="s">
         <v>353</v>
       </c>
-      <c r="K3" s="90" t="s">
+      <c r="L3" s="91" t="s">
         <v>354</v>
       </c>
-      <c r="L3" s="91" t="s">
+      <c r="M3" s="92"/>
+    </row>
+    <row r="4" spans="1:13" ht="12.75">
+      <c r="A4" s="93" t="s">
         <v>355</v>
-      </c>
-      <c r="M3" s="92"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="93" t="s">
-        <v>356</v>
       </c>
       <c r="B4" s="94">
         <f t="shared" ref="B4:H4" si="0">AVERAGE(B6:B219)</f>
@@ -7141,7 +7142,7 @@
       <c r="L4" s="98"/>
       <c r="M4" s="31"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" ht="12.75">
       <c r="A5" s="93"/>
       <c r="B5" s="94"/>
       <c r="C5" s="99">
@@ -7165,9 +7166,9 @@
       <c r="L5" s="98"/>
       <c r="M5" s="31"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" ht="12.75">
       <c r="A6" s="93" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B6" s="100">
         <f t="shared" ref="B6:B219" si="1">C6+E6+G6</f>
@@ -7192,22 +7193,22 @@
         <v>1051783</v>
       </c>
       <c r="I6" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J6" s="96">
         <v>4</v>
       </c>
       <c r="K6" s="97" t="s">
+        <v>358</v>
+      </c>
+      <c r="L6" s="98" t="s">
         <v>359</v>
       </c>
-      <c r="L6" s="98" t="s">
+      <c r="M6" s="31"/>
+    </row>
+    <row r="7" spans="1:13" ht="12.75">
+      <c r="A7" s="93" t="s">
         <v>360</v>
-      </c>
-      <c r="M6" s="31"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="93" t="s">
-        <v>361</v>
       </c>
       <c r="B7" s="100">
         <f t="shared" si="1"/>
@@ -7232,22 +7233,22 @@
         <v>79651</v>
       </c>
       <c r="I7" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J7" s="96">
         <v>8</v>
       </c>
       <c r="K7" s="97" t="s">
+        <v>361</v>
+      </c>
+      <c r="L7" s="98" t="s">
         <v>362</v>
       </c>
-      <c r="L7" s="98" t="s">
+      <c r="M7" s="31"/>
+    </row>
+    <row r="8" spans="1:13" ht="12.75">
+      <c r="A8" s="93" t="s">
         <v>363</v>
-      </c>
-      <c r="M7" s="31"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="93" t="s">
-        <v>364</v>
       </c>
       <c r="B8" s="100">
         <f t="shared" si="1"/>
@@ -7272,22 +7273,22 @@
         <v>1190335</v>
       </c>
       <c r="I8" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J8" s="96">
         <v>12</v>
       </c>
       <c r="K8" s="97" t="s">
+        <v>364</v>
+      </c>
+      <c r="L8" s="98" t="s">
         <v>365</v>
       </c>
-      <c r="L8" s="98" t="s">
+      <c r="M8" s="31"/>
+    </row>
+    <row r="9" spans="1:13" ht="12.75">
+      <c r="A9" s="93" t="s">
         <v>366</v>
-      </c>
-      <c r="M8" s="31"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="93" t="s">
-        <v>367</v>
       </c>
       <c r="B9" s="100">
         <f t="shared" si="1"/>
@@ -7312,22 +7313,22 @@
         <v>1971</v>
       </c>
       <c r="I9" s="95" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J9" s="96">
         <v>20</v>
       </c>
       <c r="K9" s="97" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L9" s="98" t="s">
+        <v>368</v>
+      </c>
+      <c r="M9" s="31"/>
+    </row>
+    <row r="10" spans="1:13" ht="12.75">
+      <c r="A10" s="93" t="s">
         <v>369</v>
-      </c>
-      <c r="M9" s="31"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="93" t="s">
-        <v>370</v>
       </c>
       <c r="B10" s="100">
         <f t="shared" si="1"/>
@@ -7352,22 +7353,22 @@
         <v>879908</v>
       </c>
       <c r="I10" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J10" s="96">
         <v>24</v>
       </c>
       <c r="K10" s="97" t="s">
+        <v>370</v>
+      </c>
+      <c r="L10" s="98" t="s">
         <v>371</v>
       </c>
-      <c r="L10" s="98" t="s">
+      <c r="M10" s="31"/>
+    </row>
+    <row r="11" spans="1:13" ht="12.75">
+      <c r="A11" s="93" t="s">
         <v>372</v>
-      </c>
-      <c r="M10" s="31"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="93" t="s">
-        <v>373</v>
       </c>
       <c r="B11" s="100">
         <f t="shared" si="1"/>
@@ -7392,22 +7393,22 @@
         <v>2483</v>
       </c>
       <c r="I11" s="95" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J11" s="96">
         <v>28</v>
       </c>
       <c r="K11" s="97" t="s">
+        <v>373</v>
+      </c>
+      <c r="L11" s="98" t="s">
         <v>374</v>
       </c>
-      <c r="L11" s="98" t="s">
+      <c r="M11" s="31"/>
+    </row>
+    <row r="12" spans="1:13" ht="12.75">
+      <c r="A12" s="93" t="s">
         <v>375</v>
-      </c>
-      <c r="M11" s="31"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="93" t="s">
-        <v>376</v>
       </c>
       <c r="B12" s="100">
         <f t="shared" si="1"/>
@@ -7432,22 +7433,22 @@
         <v>1238100</v>
       </c>
       <c r="I12" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J12" s="96">
         <v>32</v>
       </c>
       <c r="K12" s="97" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L12" s="98" t="s">
+        <v>376</v>
+      </c>
+      <c r="M12" s="31"/>
+    </row>
+    <row r="13" spans="1:13" ht="12.75">
+      <c r="A13" s="93" t="s">
         <v>377</v>
-      </c>
-      <c r="M12" s="31"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="93" t="s">
-        <v>378</v>
       </c>
       <c r="B13" s="100">
         <f t="shared" si="1"/>
@@ -7472,22 +7473,22 @@
         <v>81775</v>
       </c>
       <c r="I13" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J13" s="96">
         <v>51</v>
       </c>
       <c r="K13" s="97" t="s">
+        <v>378</v>
+      </c>
+      <c r="L13" s="98" t="s">
         <v>379</v>
       </c>
-      <c r="L13" s="98" t="s">
+      <c r="M13" s="31"/>
+    </row>
+    <row r="14" spans="1:13" ht="12.75">
+      <c r="A14" s="93" t="s">
         <v>380</v>
-      </c>
-      <c r="M13" s="31"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="93" t="s">
-        <v>381</v>
       </c>
       <c r="B14" s="100">
         <f t="shared" si="1"/>
@@ -7512,22 +7513,22 @@
         <v>2718</v>
       </c>
       <c r="I14" s="95" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J14" s="96">
         <v>533</v>
       </c>
       <c r="K14" s="97" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L14" s="98" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="M14" s="31"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" ht="12.75">
       <c r="A15" s="93" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B15" s="100">
         <f t="shared" si="1"/>
@@ -7552,22 +7553,22 @@
         <v>546340</v>
       </c>
       <c r="I15" s="95" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J15" s="96">
         <v>36</v>
       </c>
       <c r="K15" s="97" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="L15" s="102" t="s">
         <v>26</v>
       </c>
       <c r="M15" s="31"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" ht="12.75">
       <c r="A16" s="93" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B16" s="100">
         <f t="shared" si="1"/>
@@ -7592,22 +7593,22 @@
         <v>254191</v>
       </c>
       <c r="I16" s="95" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J16" s="96">
         <v>40</v>
       </c>
       <c r="K16" s="97" t="s">
+        <v>385</v>
+      </c>
+      <c r="L16" s="98" t="s">
         <v>386</v>
       </c>
-      <c r="L16" s="98" t="s">
+      <c r="M16" s="31"/>
+    </row>
+    <row r="17" spans="1:13" ht="12.75">
+      <c r="A17" s="93" t="s">
         <v>387</v>
-      </c>
-      <c r="M16" s="31"/>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="93" t="s">
-        <v>388</v>
       </c>
       <c r="B17" s="100">
         <f t="shared" si="1"/>
@@ -7632,22 +7633,22 @@
         <v>277800</v>
       </c>
       <c r="I17" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J17" s="96">
         <v>31</v>
       </c>
       <c r="K17" s="97" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L17" s="98" t="s">
+        <v>388</v>
+      </c>
+      <c r="M17" s="31"/>
+    </row>
+    <row r="18" spans="1:13" ht="12.75">
+      <c r="A18" s="93" t="s">
         <v>389</v>
-      </c>
-      <c r="M17" s="31"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="93" t="s">
-        <v>390</v>
       </c>
       <c r="B18" s="100">
         <f t="shared" si="1"/>
@@ -7672,22 +7673,22 @@
         <v>9960</v>
       </c>
       <c r="I18" s="95" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J18" s="96">
         <v>44</v>
       </c>
       <c r="K18" s="97" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L18" s="98" t="s">
+        <v>390</v>
+      </c>
+      <c r="M18" s="31"/>
+    </row>
+    <row r="19" spans="1:13" ht="12.75">
+      <c r="A19" s="93" t="s">
         <v>391</v>
-      </c>
-      <c r="M18" s="31"/>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="93" t="s">
-        <v>392</v>
       </c>
       <c r="B19" s="100">
         <f t="shared" si="1"/>
@@ -7712,22 +7713,22 @@
         <v>41966</v>
       </c>
       <c r="I19" s="95" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J19" s="96">
         <v>48</v>
       </c>
       <c r="K19" s="97" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L19" s="98" t="s">
+        <v>392</v>
+      </c>
+      <c r="M19" s="31"/>
+    </row>
+    <row r="20" spans="1:13" ht="12.75">
+      <c r="A20" s="93" t="s">
         <v>393</v>
-      </c>
-      <c r="M19" s="31"/>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="93" t="s">
-        <v>394</v>
       </c>
       <c r="B20" s="100">
         <f t="shared" si="1"/>
@@ -7752,22 +7753,22 @@
         <v>544436</v>
       </c>
       <c r="I20" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J20" s="96">
         <v>50</v>
       </c>
       <c r="K20" s="97" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L20" s="98" t="s">
+        <v>394</v>
+      </c>
+      <c r="M20" s="31"/>
+    </row>
+    <row r="21" spans="1:13" ht="12.75">
+      <c r="A21" s="93" t="s">
         <v>395</v>
-      </c>
-      <c r="M20" s="31"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="93" t="s">
-        <v>396</v>
       </c>
       <c r="B21" s="100">
         <f t="shared" si="1"/>
@@ -7792,22 +7793,22 @@
         <v>7339</v>
       </c>
       <c r="I21" s="95" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J21" s="96">
         <v>52</v>
       </c>
       <c r="K21" s="97" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L21" s="98" t="s">
+        <v>396</v>
+      </c>
+      <c r="M21" s="31"/>
+    </row>
+    <row r="22" spans="1:13" ht="12.75">
+      <c r="A22" s="93" t="s">
         <v>397</v>
-      </c>
-      <c r="M21" s="31"/>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="93" t="s">
-        <v>398</v>
       </c>
       <c r="B22" s="100">
         <f t="shared" si="1"/>
@@ -7832,22 +7833,22 @@
         <v>261341</v>
       </c>
       <c r="I22" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J22" s="96">
         <v>112</v>
       </c>
       <c r="K22" s="97" t="s">
+        <v>398</v>
+      </c>
+      <c r="L22" s="98" t="s">
         <v>399</v>
       </c>
-      <c r="L22" s="98" t="s">
+      <c r="M22" s="31"/>
+    </row>
+    <row r="23" spans="1:13" ht="12.75">
+      <c r="A23" s="93" t="s">
         <v>400</v>
-      </c>
-      <c r="M22" s="31"/>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="93" t="s">
-        <v>401</v>
       </c>
       <c r="B23" s="100">
         <f t="shared" si="1"/>
@@ -7872,22 +7873,22 @@
         <v>227371</v>
       </c>
       <c r="I23" s="95" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J23" s="96">
         <v>56</v>
       </c>
       <c r="K23" s="97" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L23" s="98" t="s">
+        <v>402</v>
+      </c>
+      <c r="M23" s="31"/>
+    </row>
+    <row r="24" spans="1:13" ht="12.75">
+      <c r="A24" s="93" t="s">
         <v>403</v>
-      </c>
-      <c r="M23" s="31"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="93" t="s">
-        <v>404</v>
       </c>
       <c r="B24" s="100">
         <f t="shared" si="1"/>
@@ -7912,22 +7913,22 @@
         <v>10794</v>
       </c>
       <c r="I24" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J24" s="96">
         <v>84</v>
       </c>
       <c r="K24" s="97" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L24" s="98" t="s">
+        <v>404</v>
+      </c>
+      <c r="M24" s="31"/>
+    </row>
+    <row r="25" spans="1:13" ht="12.75">
+      <c r="A25" s="93" t="s">
         <v>405</v>
-      </c>
-      <c r="M24" s="31"/>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="93" t="s">
-        <v>406</v>
       </c>
       <c r="B25" s="100">
         <f t="shared" si="1"/>
@@ -7952,22 +7953,22 @@
         <v>326280</v>
       </c>
       <c r="I25" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J25" s="96">
         <v>204</v>
       </c>
       <c r="K25" s="97" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L25" s="98" t="s">
+        <v>406</v>
+      </c>
+      <c r="M25" s="31"/>
+    </row>
+    <row r="26" spans="1:13" ht="12.75">
+      <c r="A26" s="93" t="s">
         <v>407</v>
-      </c>
-      <c r="M25" s="31"/>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="93" t="s">
-        <v>408</v>
       </c>
       <c r="B26" s="100">
         <f t="shared" si="1"/>
@@ -7992,22 +7993,22 @@
         <v>1598</v>
       </c>
       <c r="I26" s="95" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J26" s="96">
         <v>60</v>
       </c>
       <c r="K26" s="97" t="s">
+        <v>408</v>
+      </c>
+      <c r="L26" s="98" t="s">
         <v>409</v>
       </c>
-      <c r="L26" s="98" t="s">
+      <c r="M26" s="31"/>
+    </row>
+    <row r="27" spans="1:13" ht="12.75">
+      <c r="A27" s="93" t="s">
         <v>410</v>
-      </c>
-      <c r="M26" s="31"/>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="93" t="s">
-        <v>411</v>
       </c>
       <c r="B27" s="100">
         <f t="shared" si="1"/>
@@ -8032,22 +8033,22 @@
         <v>21098</v>
       </c>
       <c r="I27" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J27" s="96">
         <v>64</v>
       </c>
       <c r="K27" s="97" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L27" s="98" t="s">
+        <v>411</v>
+      </c>
+      <c r="M27" s="31"/>
+    </row>
+    <row r="28" spans="1:13" ht="12.75">
+      <c r="A28" s="93" t="s">
         <v>412</v>
-      </c>
-      <c r="M27" s="31"/>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="93" t="s">
-        <v>413</v>
       </c>
       <c r="B28" s="100">
         <f t="shared" si="1"/>
@@ -8072,22 +8073,22 @@
         <v>318315</v>
       </c>
       <c r="I28" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J28" s="96">
         <v>68</v>
       </c>
       <c r="K28" s="97" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L28" s="98" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="M28" s="31"/>
     </row>
     <row r="29" spans="1:13" ht="12.75">
       <c r="A29" s="93" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B29" s="100">
         <f t="shared" si="1"/>
@@ -8112,22 +8113,22 @@
         <v>91266</v>
       </c>
       <c r="I29" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J29" s="96">
         <v>70</v>
       </c>
       <c r="K29" s="97" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L29" s="98" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M29" s="31"/>
     </row>
     <row r="30" spans="1:13" ht="12.75">
       <c r="A30" s="93" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B30" s="100">
         <f t="shared" si="1"/>
@@ -8152,22 +8153,22 @@
         <v>63693</v>
       </c>
       <c r="I30" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J30" s="96">
         <v>72</v>
       </c>
       <c r="K30" s="97" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L30" s="98" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="M30" s="31"/>
     </row>
     <row r="31" spans="1:13" ht="12.75">
       <c r="A31" s="93" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B31" s="100">
         <f t="shared" si="1"/>
@@ -8192,22 +8193,22 @@
         <v>5835112</v>
       </c>
       <c r="I31" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J31" s="96">
         <v>76</v>
       </c>
       <c r="K31" s="97" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L31" s="98" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="M31" s="31"/>
     </row>
     <row r="32" spans="1:13" ht="12.75">
       <c r="A32" s="93" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B32" s="100">
         <f t="shared" si="1"/>
@@ -8232,22 +8233,22 @@
         <v>767</v>
       </c>
       <c r="I32" s="95" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J32" s="96">
         <v>92</v>
       </c>
       <c r="K32" s="97" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L32" s="98" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M32" s="31"/>
     </row>
     <row r="33" spans="1:13" ht="12.75">
       <c r="A33" s="93" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B33" s="100">
         <f t="shared" si="1"/>
@@ -8272,22 +8273,22 @@
         <v>11080</v>
       </c>
       <c r="I33" s="95" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J33" s="96">
         <v>96</v>
       </c>
       <c r="K33" s="97" t="s">
+        <v>422</v>
+      </c>
+      <c r="L33" s="98" t="s">
         <v>423</v>
-      </c>
-      <c r="L33" s="98" t="s">
-        <v>424</v>
       </c>
       <c r="M33" s="31"/>
     </row>
     <row r="34" spans="1:13" ht="12.75">
       <c r="A34" s="93" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B34" s="100">
         <f t="shared" si="1"/>
@@ -8312,22 +8313,22 @@
         <v>193539</v>
       </c>
       <c r="I34" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J34" s="96">
         <v>100</v>
       </c>
       <c r="K34" s="97" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L34" s="98" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="M34" s="31"/>
     </row>
     <row r="35" spans="1:13" ht="12.75">
       <c r="A35" s="93" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B35" s="100">
         <f t="shared" si="1"/>
@@ -8352,22 +8353,22 @@
         <v>561848</v>
       </c>
       <c r="I35" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J35" s="96">
         <v>854</v>
       </c>
       <c r="K35" s="97" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L35" s="98" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="M35" s="31"/>
     </row>
     <row r="36" spans="1:13" ht="12.75">
       <c r="A36" s="93" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B36" s="100">
         <f t="shared" si="1"/>
@@ -8392,22 +8393,22 @@
         <v>318799</v>
       </c>
       <c r="I36" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J36" s="96">
         <v>108</v>
       </c>
       <c r="K36" s="97" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L36" s="98" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="M36" s="31"/>
     </row>
     <row r="37" spans="1:13" ht="12.75">
       <c r="A37" s="93" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B37" s="100">
         <f t="shared" si="1"/>
@@ -8432,22 +8433,22 @@
         <v>15204</v>
       </c>
       <c r="I37" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J37" s="96">
         <v>132</v>
       </c>
       <c r="K37" s="97" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L37" s="98" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M37" s="31"/>
     </row>
     <row r="38" spans="1:13" ht="12.75">
       <c r="A38" s="93" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B38" s="100">
         <f t="shared" si="1"/>
@@ -8472,22 +8473,22 @@
         <v>455820</v>
       </c>
       <c r="I38" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J38" s="96">
         <v>116</v>
       </c>
       <c r="K38" s="97" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L38" s="98" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M38" s="31"/>
     </row>
     <row r="39" spans="1:13" ht="12.75">
       <c r="A39" s="93" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B39" s="100">
         <f t="shared" si="1"/>
@@ -8512,22 +8513,22 @@
         <v>715433</v>
       </c>
       <c r="I39" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J39" s="96">
         <v>120</v>
       </c>
       <c r="K39" s="97" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L39" s="98" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="M39" s="31"/>
     </row>
     <row r="40" spans="1:13" ht="12.75">
       <c r="A40" s="93" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B40" s="100">
         <f t="shared" si="1"/>
@@ -8552,22 +8553,22 @@
         <v>956615</v>
       </c>
       <c r="I40" s="95" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J40" s="96">
         <v>124</v>
       </c>
       <c r="K40" s="97" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="L40" s="98" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M40" s="31"/>
     </row>
     <row r="41" spans="1:13" ht="12.75">
       <c r="A41" s="93" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B41" s="100">
         <f t="shared" si="1"/>
@@ -8592,22 +8593,22 @@
         <v>1660</v>
       </c>
       <c r="I41" s="95" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J41" s="96">
         <v>136</v>
       </c>
       <c r="K41" s="97" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L41" s="98" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="M41" s="31"/>
     </row>
     <row r="42" spans="1:13" ht="12.75">
       <c r="A42" s="93" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B42" s="100">
         <f t="shared" si="1"/>
@@ -8632,22 +8633,22 @@
         <v>131196</v>
       </c>
       <c r="I42" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J42" s="96">
         <v>140</v>
       </c>
       <c r="K42" s="97" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L42" s="98" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="M42" s="31"/>
     </row>
     <row r="43" spans="1:13" ht="12.75">
       <c r="A43" s="93" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B43" s="100">
         <f t="shared" si="1"/>
@@ -8672,22 +8673,22 @@
         <v>440901</v>
       </c>
       <c r="I43" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J43" s="96">
         <v>148</v>
       </c>
       <c r="K43" s="97" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L43" s="98" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="M43" s="31"/>
     </row>
     <row r="44" spans="1:13" ht="12.75">
       <c r="A44" s="93" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B44" s="100">
         <f t="shared" si="1"/>
@@ -8712,22 +8713,22 @@
         <v>484611</v>
       </c>
       <c r="I44" s="95" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J44" s="96">
         <v>152</v>
       </c>
       <c r="K44" s="97" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L44" s="98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="M44" s="31"/>
     </row>
     <row r="45" spans="1:13" ht="12.75">
       <c r="A45" s="93" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B45" s="100">
         <f t="shared" si="1"/>
@@ -8752,22 +8753,22 @@
         <v>65377741</v>
       </c>
       <c r="I45" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J45" s="96">
         <v>156</v>
       </c>
       <c r="K45" s="97" t="s">
+        <v>445</v>
+      </c>
+      <c r="L45" s="98" t="s">
         <v>446</v>
-      </c>
-      <c r="L45" s="98" t="s">
-        <v>447</v>
       </c>
       <c r="M45" s="31"/>
     </row>
     <row r="46" spans="1:13" ht="12.75">
       <c r="A46" s="93" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B46" s="100">
         <f t="shared" si="1"/>
@@ -8792,22 +8793,22 @@
         <v>190147</v>
       </c>
       <c r="I46" s="95" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J46" s="96">
         <v>344</v>
       </c>
       <c r="K46" s="97" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L46" s="98" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="M46" s="31"/>
     </row>
     <row r="47" spans="1:13" ht="12.75">
       <c r="A47" s="93" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B47" s="100">
         <f t="shared" si="1"/>
@@ -8832,22 +8833,22 @@
         <v>16375</v>
       </c>
       <c r="I47" s="95" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J47" s="96">
         <v>446</v>
       </c>
       <c r="K47" s="97" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L47" s="98" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="M47" s="31"/>
     </row>
     <row r="48" spans="1:13" ht="12.75">
       <c r="A48" s="93" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B48" s="100">
         <f t="shared" si="1"/>
@@ -8872,22 +8873,22 @@
         <v>1391787</v>
       </c>
       <c r="I48" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J48" s="96">
         <v>170</v>
       </c>
       <c r="K48" s="97" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L48" s="98" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="M48" s="31"/>
     </row>
     <row r="49" spans="1:13" ht="12.75">
       <c r="A49" s="93" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B49" s="100">
         <f t="shared" si="1"/>
@@ -8912,22 +8913,22 @@
         <v>23526</v>
       </c>
       <c r="I49" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J49" s="96">
         <v>174</v>
       </c>
       <c r="K49" s="97" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L49" s="98" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="M49" s="31"/>
     </row>
     <row r="50" spans="1:13" ht="12.75">
       <c r="A50" s="93" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B50" s="100">
         <f t="shared" si="1"/>
@@ -8952,22 +8953,22 @@
         <v>148760</v>
       </c>
       <c r="I50" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J50" s="96">
         <v>178</v>
       </c>
       <c r="K50" s="97" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L50" s="98" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="M50" s="31"/>
     </row>
     <row r="51" spans="1:13" ht="12.75">
       <c r="A51" s="93" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B51" s="100">
         <f t="shared" si="1"/>
@@ -8992,22 +8993,22 @@
         <v>139556</v>
       </c>
       <c r="I51" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J51" s="96">
         <v>188</v>
       </c>
       <c r="K51" s="97" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L51" s="98" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="M51" s="31"/>
     </row>
     <row r="52" spans="1:13" ht="12.75">
       <c r="A52" s="93" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B52" s="100">
         <f t="shared" si="1"/>
@@ -9032,22 +9033,22 @@
         <v>711012</v>
       </c>
       <c r="I52" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J52" s="96">
         <v>384</v>
       </c>
       <c r="K52" s="97" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L52" s="98" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M52" s="31"/>
     </row>
     <row r="53" spans="1:13" ht="12.75">
       <c r="A53" s="93" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B53" s="100">
         <f t="shared" si="1"/>
@@ -9072,22 +9073,22 @@
         <v>105613</v>
       </c>
       <c r="I53" s="95" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J53" s="96">
         <v>191</v>
       </c>
       <c r="K53" s="97" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L53" s="98" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M53" s="31"/>
     </row>
     <row r="54" spans="1:13" ht="12.75">
       <c r="A54" s="93" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B54" s="100">
         <f t="shared" si="1"/>
@@ -9112,22 +9113,22 @@
         <v>313349</v>
       </c>
       <c r="I54" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J54" s="96">
         <v>192</v>
       </c>
       <c r="K54" s="97" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L54" s="98" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M54" s="31"/>
     </row>
     <row r="55" spans="1:13" ht="12.75">
       <c r="A55" s="93" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B55" s="100">
         <f t="shared" si="1"/>
@@ -9152,22 +9153,22 @@
         <v>4178</v>
       </c>
       <c r="I55" s="95" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J55" s="96">
         <v>531</v>
       </c>
       <c r="K55" s="97" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L55" s="98" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="M55" s="31"/>
     </row>
     <row r="56" spans="1:13" ht="12.75">
       <c r="A56" s="93" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B56" s="100">
         <f t="shared" si="1"/>
@@ -9192,22 +9193,22 @@
         <v>30649</v>
       </c>
       <c r="I56" s="95" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J56" s="96">
         <v>196</v>
       </c>
       <c r="K56" s="97" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L56" s="98" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="M56" s="31"/>
     </row>
     <row r="57" spans="1:13" ht="12.75">
       <c r="A57" s="93" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B57" s="100">
         <f t="shared" si="1"/>
@@ -9232,22 +9233,22 @@
         <v>273327</v>
       </c>
       <c r="I57" s="95" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J57" s="96">
         <v>203</v>
       </c>
       <c r="K57" s="97" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L57" s="98" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="M57" s="31"/>
     </row>
     <row r="58" spans="1:13" ht="12.75">
       <c r="A58" s="93" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B58" s="100">
         <f t="shared" si="1"/>
@@ -9272,22 +9273,22 @@
         <v>709621</v>
       </c>
       <c r="I58" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J58" s="96">
         <v>408</v>
       </c>
       <c r="K58" s="97" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L58" s="98" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="M58" s="31"/>
     </row>
     <row r="59" spans="1:13" ht="12.75">
       <c r="A59" s="93" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B59" s="100">
         <f t="shared" si="1"/>
@@ -9312,22 +9313,22 @@
         <v>2399593</v>
       </c>
       <c r="I59" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J59" s="96">
         <v>180</v>
       </c>
       <c r="K59" s="97" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L59" s="98" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="M59" s="31"/>
     </row>
     <row r="60" spans="1:13" ht="12.75">
       <c r="A60" s="93" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B60" s="100">
         <f t="shared" si="1"/>
@@ -9352,22 +9353,22 @@
         <v>119134</v>
       </c>
       <c r="I60" s="95" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J60" s="96">
         <v>208</v>
       </c>
       <c r="K60" s="97" t="s">
+        <v>476</v>
+      </c>
+      <c r="L60" s="98" t="s">
         <v>477</v>
-      </c>
-      <c r="L60" s="98" t="s">
-        <v>478</v>
       </c>
       <c r="M60" s="31"/>
     </row>
     <row r="61" spans="1:13" ht="12.75">
       <c r="A61" s="93" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B61" s="100">
         <f t="shared" si="1"/>
@@ -9392,22 +9393,22 @@
         <v>26918</v>
       </c>
       <c r="I61" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J61" s="96">
         <v>262</v>
       </c>
       <c r="K61" s="97" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L61" s="98" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="M61" s="31"/>
     </row>
     <row r="62" spans="1:13" ht="12.75">
       <c r="A62" s="93" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B62" s="100">
         <f t="shared" si="1"/>
@@ -9432,22 +9433,22 @@
         <v>1985</v>
       </c>
       <c r="I62" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J62" s="96">
         <v>212</v>
       </c>
       <c r="K62" s="97" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L62" s="98" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="M62" s="31"/>
     </row>
     <row r="63" spans="1:13" ht="12.75">
       <c r="A63" s="93" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B63" s="100">
         <f t="shared" si="1"/>
@@ -9472,22 +9473,22 @@
         <v>296913</v>
       </c>
       <c r="I63" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J63" s="96">
         <v>214</v>
       </c>
       <c r="K63" s="97" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L63" s="98" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="M63" s="31"/>
     </row>
     <row r="64" spans="1:13" ht="12.75">
       <c r="A64" s="93" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B64" s="100">
         <f t="shared" si="1"/>
@@ -9512,22 +9513,22 @@
         <v>480349</v>
       </c>
       <c r="I64" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J64" s="96">
         <v>218</v>
       </c>
       <c r="K64" s="97" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L64" s="98" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="M64" s="31"/>
     </row>
     <row r="65" spans="1:13" ht="12.75">
       <c r="A65" s="93" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B65" s="100">
         <f t="shared" si="1"/>
@@ -9552,22 +9553,22 @@
         <v>2775538</v>
       </c>
       <c r="I65" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J65" s="96">
         <v>818</v>
       </c>
       <c r="K65" s="97" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L65" s="98" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="M65" s="31"/>
     </row>
     <row r="66" spans="1:13" ht="12.75">
       <c r="A66" s="93" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B66" s="100">
         <f t="shared" si="1"/>
@@ -9592,22 +9593,22 @@
         <v>178430</v>
       </c>
       <c r="I66" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J66" s="96">
         <v>222</v>
       </c>
       <c r="K66" s="97" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L66" s="98" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="M66" s="31"/>
     </row>
     <row r="67" spans="1:13" ht="12.75">
       <c r="A67" s="93" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B67" s="100">
         <f t="shared" si="1"/>
@@ -9632,22 +9633,22 @@
         <v>37491</v>
       </c>
       <c r="I67" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J67" s="96">
         <v>226</v>
       </c>
       <c r="K67" s="97" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L67" s="98" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="M67" s="31"/>
     </row>
     <row r="68" spans="1:13" ht="12.75">
       <c r="A68" s="93" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B68" s="100">
         <f t="shared" si="1"/>
@@ -9672,22 +9673,22 @@
         <v>96688</v>
       </c>
       <c r="I68" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J68" s="96">
         <v>232</v>
       </c>
       <c r="K68" s="97" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L68" s="98" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="M68" s="31"/>
     </row>
     <row r="69" spans="1:13" ht="12.75">
       <c r="A69" s="93" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B69" s="100">
         <f t="shared" si="1"/>
@@ -9712,22 +9713,22 @@
         <v>22013</v>
       </c>
       <c r="I69" s="95" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J69" s="96">
         <v>233</v>
       </c>
       <c r="K69" s="97" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="L69" s="98" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="M69" s="31"/>
     </row>
     <row r="70" spans="1:13" ht="12.75">
       <c r="A70" s="93" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B70" s="100">
         <f t="shared" si="1"/>
@@ -9752,22 +9753,22 @@
         <v>31743</v>
       </c>
       <c r="I70" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J70" s="96">
         <v>748</v>
       </c>
       <c r="K70" s="97" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L70" s="98" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="M70" s="31"/>
     </row>
     <row r="71" spans="1:13" ht="12.75">
       <c r="A71" s="93" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B71" s="100">
         <f t="shared" si="1"/>
@@ -9792,22 +9793,22 @@
         <v>3098760</v>
       </c>
       <c r="I71" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J71" s="96">
         <v>231</v>
       </c>
       <c r="K71" s="97" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L71" s="98" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M71" s="31"/>
     </row>
     <row r="72" spans="1:13" ht="12.75">
       <c r="A72" s="93" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B72" s="100">
         <f t="shared" si="1"/>
@@ -9832,22 +9833,22 @@
         <v>1245</v>
       </c>
       <c r="I72" s="95" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J72" s="96">
         <v>234</v>
       </c>
       <c r="K72" s="97" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="L72" s="98" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="M72" s="31"/>
     </row>
     <row r="73" spans="1:13" ht="12.75">
       <c r="A73" s="93" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B73" s="100">
         <f t="shared" si="1"/>
@@ -9872,22 +9873,22 @@
         <v>24607</v>
       </c>
       <c r="I73" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J73" s="96">
         <v>242</v>
       </c>
       <c r="K73" s="97" t="s">
+        <v>503</v>
+      </c>
+      <c r="L73" s="98" t="s">
         <v>504</v>
-      </c>
-      <c r="L73" s="98" t="s">
-        <v>505</v>
       </c>
       <c r="M73" s="31"/>
     </row>
     <row r="74" spans="1:13" ht="12.75">
       <c r="A74" s="93" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B74" s="100">
         <f t="shared" si="1"/>
@@ -9912,16 +9913,16 @@
         <v>128927</v>
       </c>
       <c r="I74" s="95" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J74" s="96">
         <v>246</v>
       </c>
       <c r="K74" s="97" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="L74" s="98" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="M74" s="31"/>
     </row>
@@ -9952,22 +9953,22 @@
         <v>1594579</v>
       </c>
       <c r="I75" s="95" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J75" s="96">
         <v>250</v>
       </c>
       <c r="K75" s="97" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L75" s="98" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="M75" s="31"/>
     </row>
     <row r="76" spans="1:13" ht="12.75">
       <c r="A76" s="93" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B76" s="100">
         <f t="shared" si="1"/>
@@ -9992,22 +9993,22 @@
         <v>7142</v>
       </c>
       <c r="I76" s="95" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J76" s="96">
         <v>258</v>
       </c>
       <c r="K76" s="97" t="s">
+        <v>509</v>
+      </c>
+      <c r="L76" s="98" t="s">
         <v>510</v>
-      </c>
-      <c r="L76" s="98" t="s">
-        <v>511</v>
       </c>
       <c r="M76" s="31"/>
     </row>
     <row r="77" spans="1:13" ht="12.75">
       <c r="A77" s="93" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B77" s="100">
         <f t="shared" si="1"/>
@@ -10032,22 +10033,22 @@
         <v>60068</v>
       </c>
       <c r="I77" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J77" s="96">
         <v>266</v>
       </c>
       <c r="K77" s="97" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L77" s="98" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="M77" s="31"/>
     </row>
     <row r="78" spans="1:13" ht="12.75">
       <c r="A78" s="93" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B78" s="100">
         <f t="shared" si="1"/>
@@ -10072,22 +10073,22 @@
         <v>64909</v>
       </c>
       <c r="I78" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J78" s="96">
         <v>270</v>
       </c>
       <c r="K78" s="97" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L78" s="98" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="M78" s="31"/>
     </row>
     <row r="79" spans="1:13" ht="12.75">
       <c r="A79" s="93" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B79" s="100">
         <f t="shared" si="1"/>
@@ -10112,22 +10113,22 @@
         <v>110504</v>
       </c>
       <c r="I79" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J79" s="96">
         <v>268</v>
       </c>
       <c r="K79" s="97" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L79" s="98" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="M79" s="31"/>
     </row>
     <row r="80" spans="1:13" ht="12.75">
       <c r="A80" s="93" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B80" s="100">
         <f t="shared" si="1"/>
@@ -10152,22 +10153,22 @@
         <v>1718433</v>
       </c>
       <c r="I80" s="95" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J80" s="96">
         <v>276</v>
       </c>
       <c r="K80" s="97" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L80" s="98" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="M80" s="31"/>
     </row>
     <row r="81" spans="1:13" ht="12.75">
       <c r="A81" s="93" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B81" s="100">
         <f t="shared" si="1"/>
@@ -10192,22 +10193,22 @@
         <v>840996</v>
       </c>
       <c r="I81" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J81" s="96">
         <v>288</v>
       </c>
       <c r="K81" s="97" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L81" s="98" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="M81" s="31"/>
     </row>
     <row r="82" spans="1:13" ht="12.75">
       <c r="A82" s="93" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B82" s="100">
         <f t="shared" si="1"/>
@@ -10232,22 +10233,22 @@
         <v>862</v>
       </c>
       <c r="I82" s="95" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J82" s="96">
         <v>292</v>
       </c>
       <c r="K82" s="97" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L82" s="98" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="M82" s="31"/>
     </row>
     <row r="83" spans="1:13" ht="12.75">
       <c r="A83" s="93" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B83" s="100">
         <f t="shared" si="1"/>
@@ -10272,22 +10273,22 @@
         <v>267812</v>
       </c>
       <c r="I83" s="95" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J83" s="96">
         <v>300</v>
       </c>
       <c r="K83" s="97" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L83" s="98" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="M83" s="31"/>
     </row>
     <row r="84" spans="1:13" ht="12.75">
       <c r="A84" s="93" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B84" s="100">
         <f t="shared" si="1"/>
@@ -10312,22 +10313,22 @@
         <v>1450</v>
       </c>
       <c r="I84" s="95" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J84" s="96">
         <v>304</v>
       </c>
       <c r="K84" s="97" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="L84" s="98" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="M84" s="31"/>
     </row>
     <row r="85" spans="1:13" ht="12.75">
       <c r="A85" s="93" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B85" s="100">
         <f t="shared" si="1"/>
@@ -10352,22 +10353,22 @@
         <v>3097</v>
       </c>
       <c r="I85" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J85" s="96">
         <v>308</v>
       </c>
       <c r="K85" s="97" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L85" s="98" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="M85" s="31"/>
     </row>
     <row r="86" spans="1:13" ht="12.75">
       <c r="A86" s="93" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B86" s="100">
         <f t="shared" si="1"/>
@@ -10392,22 +10393,22 @@
         <v>4278</v>
       </c>
       <c r="I86" s="95" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J86" s="96">
         <v>316</v>
       </c>
       <c r="K86" s="97" t="s">
+        <v>529</v>
+      </c>
+      <c r="L86" s="98" t="s">
         <v>530</v>
-      </c>
-      <c r="L86" s="98" t="s">
-        <v>531</v>
       </c>
       <c r="M86" s="31"/>
     </row>
     <row r="87" spans="1:13" ht="12.75">
       <c r="A87" s="93" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B87" s="100">
         <f t="shared" si="1"/>
@@ -10432,22 +10433,22 @@
         <v>486095</v>
       </c>
       <c r="I87" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J87" s="96">
         <v>320</v>
       </c>
       <c r="K87" s="97" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L87" s="98" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="M87" s="31"/>
     </row>
     <row r="88" spans="1:13" ht="12.75">
       <c r="A88" s="93" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B88" s="100">
         <f t="shared" si="1"/>
@@ -10472,22 +10473,22 @@
         <v>353099</v>
       </c>
       <c r="I88" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J88" s="96">
         <v>324</v>
       </c>
       <c r="K88" s="97" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L88" s="98" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="M88" s="31"/>
     </row>
     <row r="89" spans="1:13" ht="12.75">
       <c r="A89" s="93" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B89" s="100">
         <f t="shared" si="1"/>
@@ -10512,22 +10513,22 @@
         <v>53109</v>
       </c>
       <c r="I89" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J89" s="96">
         <v>624</v>
       </c>
       <c r="K89" s="97" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L89" s="98" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="M89" s="31"/>
     </row>
     <row r="90" spans="1:13" ht="12.75">
       <c r="A90" s="93" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B90" s="100">
         <f t="shared" si="1"/>
@@ -10552,22 +10553,22 @@
         <v>21643</v>
       </c>
       <c r="I90" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J90" s="96">
         <v>328</v>
       </c>
       <c r="K90" s="97" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L90" s="98" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="M90" s="31"/>
     </row>
     <row r="91" spans="1:13" ht="12.75">
       <c r="A91" s="93" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B91" s="100">
         <f t="shared" si="1"/>
@@ -10592,22 +10593,22 @@
         <v>311403</v>
       </c>
       <c r="I91" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J91" s="96">
         <v>332</v>
       </c>
       <c r="K91" s="97" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L91" s="98" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="M91" s="31"/>
     </row>
     <row r="92" spans="1:13" ht="12.75">
       <c r="A92" s="93" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B92" s="100">
         <f t="shared" si="1"/>
@@ -10632,22 +10633,22 @@
         <v>269461</v>
       </c>
       <c r="I92" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J92" s="96">
         <v>340</v>
       </c>
       <c r="K92" s="97" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L92" s="98" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="M92" s="31"/>
     </row>
     <row r="93" spans="1:13" ht="12.75">
       <c r="A93" s="93" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B93" s="100">
         <f t="shared" si="1"/>
@@ -10672,22 +10673,22 @@
         <v>247642</v>
       </c>
       <c r="I93" s="95" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J93" s="96">
         <v>348</v>
       </c>
       <c r="K93" s="97" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L93" s="98" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M93" s="31"/>
     </row>
     <row r="94" spans="1:13" ht="12.75">
       <c r="A94" s="93" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B94" s="100">
         <f t="shared" si="1"/>
@@ -10712,22 +10713,22 @@
         <v>8668</v>
       </c>
       <c r="I94" s="95" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J94" s="96">
         <v>352</v>
       </c>
       <c r="K94" s="97" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="L94" s="98" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="M94" s="31"/>
     </row>
     <row r="95" spans="1:13" ht="12.75">
       <c r="A95" s="93" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B95" s="100">
         <f t="shared" si="1"/>
@@ -10752,22 +10753,22 @@
         <v>37778821</v>
       </c>
       <c r="I95" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J95" s="96">
         <v>356</v>
       </c>
       <c r="K95" s="97" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L95" s="98" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M95" s="31"/>
     </row>
     <row r="96" spans="1:13" ht="12.75">
       <c r="A96" s="93" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B96" s="100">
         <f t="shared" si="1"/>
@@ -10792,22 +10793,22 @@
         <v>7482277</v>
       </c>
       <c r="I96" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J96" s="96">
         <v>360</v>
       </c>
       <c r="K96" s="97" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L96" s="98" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="M96" s="31"/>
     </row>
     <row r="97" spans="1:13" ht="12.75">
       <c r="A97" s="93" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B97" s="100">
         <f t="shared" si="1"/>
@@ -10832,22 +10833,22 @@
         <v>2292410</v>
       </c>
       <c r="I97" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J97" s="96">
         <v>364</v>
       </c>
       <c r="K97" s="97" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L97" s="98" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="M97" s="31"/>
     </row>
     <row r="98" spans="1:13" ht="12.75">
       <c r="A98" s="93" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B98" s="100">
         <f t="shared" si="1"/>
@@ -10872,22 +10873,22 @@
         <v>1086840</v>
       </c>
       <c r="I98" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J98" s="96">
         <v>368</v>
       </c>
       <c r="K98" s="97" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L98" s="98" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="M98" s="31"/>
     </row>
     <row r="99" spans="1:13" ht="12.75">
       <c r="A99" s="93" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B99" s="100">
         <f t="shared" si="1"/>
@@ -10912,22 +10913,22 @@
         <v>274135</v>
       </c>
       <c r="I99" s="95" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J99" s="96">
         <v>372</v>
       </c>
       <c r="K99" s="97" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="L99" s="98" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="M99" s="31"/>
     </row>
     <row r="100" spans="1:13" ht="12.75">
       <c r="A100" s="93" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B100" s="100">
         <f t="shared" si="1"/>
@@ -10952,22 +10953,22 @@
         <v>2163</v>
       </c>
       <c r="I100" s="95" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J100" s="96">
         <v>833</v>
       </c>
       <c r="K100" s="97" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="L100" s="98" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="M100" s="31"/>
     </row>
     <row r="101" spans="1:13" ht="12.75">
       <c r="A101" s="93" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B101" s="100">
         <f t="shared" si="1"/>
@@ -10992,22 +10993,22 @@
         <v>233752</v>
       </c>
       <c r="I101" s="95" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J101" s="96">
         <v>376</v>
       </c>
       <c r="K101" s="97" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L101" s="98" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M101" s="31"/>
     </row>
     <row r="102" spans="1:13" ht="12.75">
       <c r="A102" s="93" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B102" s="100">
         <f t="shared" si="1"/>
@@ -11032,22 +11033,22 @@
         <v>1548291</v>
       </c>
       <c r="I102" s="95" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J102" s="96">
         <v>380</v>
       </c>
       <c r="K102" s="97" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L102" s="98" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="M102" s="31"/>
     </row>
     <row r="103" spans="1:13" ht="12.75">
       <c r="A103" s="93" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B103" s="100">
         <f t="shared" si="1"/>
@@ -11072,22 +11073,22 @@
         <v>81515</v>
       </c>
       <c r="I103" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J103" s="96">
         <v>388</v>
       </c>
       <c r="K103" s="97" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L103" s="98" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M103" s="31"/>
     </row>
     <row r="104" spans="1:13" ht="12.75">
       <c r="A104" s="93" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B104" s="100">
         <f t="shared" si="1"/>
@@ -11112,22 +11113,22 @@
         <v>1870735</v>
       </c>
       <c r="I104" s="95" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J104" s="96">
         <v>392</v>
       </c>
       <c r="K104" s="97" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L104" s="98" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="M104" s="31"/>
     </row>
     <row r="105" spans="1:13" ht="12.75">
       <c r="A105" s="93" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B105" s="100">
         <f t="shared" si="1"/>
@@ -11152,22 +11153,22 @@
         <v>279293</v>
       </c>
       <c r="I105" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J105" s="96">
         <v>400</v>
       </c>
       <c r="K105" s="97" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L105" s="98" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="M105" s="31"/>
     </row>
     <row r="106" spans="1:13" ht="12.75">
       <c r="A106" s="93" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B106" s="100">
         <f t="shared" si="1"/>
@@ -11192,22 +11193,22 @@
         <v>512910</v>
       </c>
       <c r="I106" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J106" s="96">
         <v>398</v>
       </c>
       <c r="K106" s="97" t="s">
+        <v>567</v>
+      </c>
+      <c r="L106" s="98" t="s">
         <v>568</v>
-      </c>
-      <c r="L106" s="98" t="s">
-        <v>569</v>
       </c>
       <c r="M106" s="31"/>
     </row>
     <row r="107" spans="1:13" ht="12.75">
       <c r="A107" s="93" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B107" s="100">
         <f t="shared" si="1"/>
@@ -11232,22 +11233,22 @@
         <v>1637020</v>
       </c>
       <c r="I107" s="95" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J107" s="96">
         <v>404</v>
       </c>
       <c r="K107" s="97" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L107" s="98" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="M107" s="31"/>
     </row>
     <row r="108" spans="1:13" ht="12.75">
       <c r="A108" s="93" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B108" s="100">
         <f t="shared" si="1"/>
@@ -11272,22 +11273,22 @@
         <v>3251</v>
       </c>
       <c r="I108" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J108" s="96">
         <v>296</v>
       </c>
       <c r="K108" s="97" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L108" s="98" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="M108" s="31"/>
     </row>
     <row r="109" spans="1:13" ht="12.75">
       <c r="A109" s="93" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B109" s="100">
         <f t="shared" si="1"/>
@@ -11312,22 +11313,22 @@
         <v>107577</v>
       </c>
       <c r="I109" s="95" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J109" s="96">
         <v>414</v>
       </c>
       <c r="K109" s="97" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L109" s="98" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="M109" s="31"/>
     </row>
     <row r="110" spans="1:13" ht="12.75">
       <c r="A110" s="93" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B110" s="100">
         <f t="shared" si="1"/>
@@ -11352,22 +11353,22 @@
         <v>177387</v>
       </c>
       <c r="I110" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J110" s="96">
         <v>417</v>
       </c>
       <c r="K110" s="97" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L110" s="98" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="M110" s="31"/>
     </row>
     <row r="111" spans="1:13" ht="12.75">
       <c r="A111" s="93" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B111" s="100">
         <f t="shared" si="1"/>
@@ -11392,22 +11393,22 @@
         <v>198223</v>
       </c>
       <c r="I111" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J111" s="96">
         <v>418</v>
       </c>
       <c r="K111" s="97" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L111" s="98" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="M111" s="31"/>
     </row>
     <row r="112" spans="1:13" ht="12.75">
       <c r="A112" s="93" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B112" s="100">
         <f t="shared" si="1"/>
@@ -11432,22 +11433,22 @@
         <v>48755</v>
       </c>
       <c r="I112" s="95" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J112" s="96">
         <v>428</v>
       </c>
       <c r="K112" s="97" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="L112" s="98" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="M112" s="31"/>
     </row>
     <row r="113" spans="1:13" ht="12.75">
       <c r="A113" s="93" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B113" s="100">
         <f t="shared" si="1"/>
@@ -11472,22 +11473,22 @@
         <v>189547</v>
       </c>
       <c r="I113" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J113" s="96">
         <v>422</v>
       </c>
       <c r="K113" s="97" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L113" s="98" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M113" s="31"/>
     </row>
     <row r="114" spans="1:13" ht="12.75">
       <c r="A114" s="93" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B114" s="100">
         <f t="shared" si="1"/>
@@ -11512,22 +11513,22 @@
         <v>58760</v>
       </c>
       <c r="I114" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J114" s="96">
         <v>426</v>
       </c>
       <c r="K114" s="97" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L114" s="98" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="M114" s="31"/>
     </row>
     <row r="115" spans="1:13" ht="12.75">
       <c r="A115" s="93" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B115" s="100">
         <f t="shared" si="1"/>
@@ -11552,22 +11553,22 @@
         <v>136510</v>
       </c>
       <c r="I115" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J115" s="96">
         <v>430</v>
       </c>
       <c r="K115" s="97" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L115" s="98" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="M115" s="31"/>
     </row>
     <row r="116" spans="1:13" ht="12.75">
       <c r="A116" s="93" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B116" s="100">
         <f t="shared" si="1"/>
@@ -11592,22 +11593,22 @@
         <v>187385</v>
       </c>
       <c r="I116" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J116" s="96">
         <v>434</v>
       </c>
       <c r="K116" s="97" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L116" s="98" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="M116" s="31"/>
     </row>
     <row r="117" spans="1:13" ht="12.75">
       <c r="A117" s="93" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B117" s="100">
         <f t="shared" si="1"/>
@@ -11632,22 +11633,22 @@
         <v>972</v>
       </c>
       <c r="I117" s="95" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J117" s="96">
         <v>438</v>
       </c>
       <c r="K117" s="97" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L117" s="98" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="M117" s="31"/>
     </row>
     <row r="118" spans="1:13" ht="12.75">
       <c r="A118" s="93" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B118" s="100">
         <f t="shared" si="1"/>
@@ -11672,22 +11673,22 @@
         <v>70564</v>
       </c>
       <c r="I118" s="95" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J118" s="96">
         <v>440</v>
       </c>
       <c r="K118" s="97" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="L118" s="98" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="M118" s="31"/>
     </row>
     <row r="119" spans="1:13" ht="12.75">
       <c r="A119" s="93" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B119" s="100">
         <f t="shared" si="1"/>
@@ -11712,22 +11713,22 @@
         <v>12868</v>
       </c>
       <c r="I119" s="95" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J119" s="96">
         <v>442</v>
       </c>
       <c r="K119" s="97" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L119" s="98" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="M119" s="31"/>
     </row>
     <row r="120" spans="1:13" ht="12.75">
       <c r="A120" s="93" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B120" s="100">
         <f t="shared" si="1"/>
@@ -11752,22 +11753,22 @@
         <v>745649</v>
       </c>
       <c r="I120" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J120" s="96">
         <v>450</v>
       </c>
       <c r="K120" s="97" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L120" s="98" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="M120" s="31"/>
     </row>
     <row r="121" spans="1:13" ht="12.75">
       <c r="A121" s="93" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B121" s="100">
         <f t="shared" si="1"/>
@@ -11792,22 +11793,22 @@
         <v>515048</v>
       </c>
       <c r="I121" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J121" s="96">
         <v>454</v>
       </c>
       <c r="K121" s="97" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L121" s="98" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="M121" s="31"/>
     </row>
     <row r="122" spans="1:13" ht="12.75">
       <c r="A122" s="93" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B122" s="100">
         <f t="shared" si="1"/>
@@ -11832,22 +11833,22 @@
         <v>2861537</v>
       </c>
       <c r="I122" s="95" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J122" s="96">
         <v>458</v>
       </c>
       <c r="K122" s="97" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L122" s="98" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="M122" s="31"/>
     </row>
     <row r="123" spans="1:13" ht="12.75">
       <c r="A123" s="93" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B123" s="100">
         <f t="shared" si="1"/>
@@ -11872,22 +11873,22 @@
         <v>14681</v>
       </c>
       <c r="I123" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J123" s="96">
         <v>462</v>
       </c>
       <c r="K123" s="97" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L123" s="98" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="M123" s="31"/>
     </row>
     <row r="124" spans="1:13" ht="12.75">
       <c r="A124" s="93" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B124" s="100">
         <f t="shared" si="1"/>
@@ -11912,22 +11913,22 @@
         <v>543506</v>
       </c>
       <c r="I124" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J124" s="96">
         <v>466</v>
       </c>
       <c r="K124" s="97" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L124" s="98" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="M124" s="31"/>
     </row>
     <row r="125" spans="1:13" ht="12.75">
       <c r="A125" s="93" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B125" s="100">
         <f t="shared" si="1"/>
@@ -11952,22 +11953,22 @@
         <v>11261</v>
       </c>
       <c r="I125" s="95" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J125" s="96">
         <v>470</v>
       </c>
       <c r="K125" s="97" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L125" s="98" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="M125" s="31"/>
     </row>
     <row r="126" spans="1:13" ht="12.75">
       <c r="A126" s="93" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B126" s="100">
         <f t="shared" si="1"/>
@@ -11992,22 +11993,22 @@
         <v>1626</v>
       </c>
       <c r="I126" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J126" s="96">
         <v>584</v>
       </c>
       <c r="K126" s="97" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L126" s="98" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="M126" s="31"/>
     </row>
     <row r="127" spans="1:13" ht="12.75">
       <c r="A127" s="93" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B127" s="100">
         <f t="shared" si="1"/>
@@ -12032,22 +12033,22 @@
         <v>125127</v>
       </c>
       <c r="I127" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J127" s="96">
         <v>478</v>
       </c>
       <c r="K127" s="97" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L127" s="98" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="M127" s="31"/>
     </row>
     <row r="128" spans="1:13" ht="12.75">
       <c r="A128" s="93" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B128" s="100">
         <f t="shared" si="1"/>
@@ -12072,22 +12073,22 @@
         <v>32467</v>
       </c>
       <c r="I128" s="95" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J128" s="96">
         <v>480</v>
       </c>
       <c r="K128" s="97" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L128" s="98" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="M128" s="31"/>
     </row>
     <row r="129" spans="1:13" ht="12.75">
       <c r="A129" s="93" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B129" s="100">
         <f t="shared" si="1"/>
@@ -12112,22 +12113,22 @@
         <v>3527217</v>
       </c>
       <c r="I129" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J129" s="96">
         <v>484</v>
       </c>
       <c r="K129" s="97" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L129" s="98" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="M129" s="31"/>
     </row>
     <row r="130" spans="1:13" ht="12.75">
       <c r="A130" s="93" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B130" s="100">
         <f t="shared" si="1"/>
@@ -12152,22 +12153,22 @@
         <v>3146</v>
       </c>
       <c r="I130" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J130" s="96">
         <v>583</v>
       </c>
       <c r="K130" s="97" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L130" s="98" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="M130" s="31"/>
     </row>
     <row r="131" spans="1:13" ht="12.75">
       <c r="A131" s="93" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B131" s="100">
         <f t="shared" si="1"/>
@@ -12192,22 +12193,22 @@
         <v>997</v>
       </c>
       <c r="I131" s="95" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J131" s="96">
         <v>492</v>
       </c>
       <c r="K131" s="97" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L131" s="98" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="M131" s="31"/>
     </row>
     <row r="132" spans="1:13" ht="12.75">
       <c r="A132" s="93" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B132" s="100">
         <f t="shared" si="1"/>
@@ -12232,22 +12233,22 @@
         <v>89171</v>
       </c>
       <c r="I132" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J132" s="96">
         <v>496</v>
       </c>
       <c r="K132" s="97" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L132" s="98" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="M132" s="31"/>
     </row>
     <row r="133" spans="1:13" ht="12.75">
       <c r="A133" s="93" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B133" s="100">
         <f t="shared" si="1"/>
@@ -12272,22 +12273,22 @@
         <v>17363</v>
       </c>
       <c r="I133" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J133" s="96">
         <v>499</v>
       </c>
       <c r="K133" s="97" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L133" s="98" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="M133" s="31"/>
     </row>
     <row r="134" spans="1:13" ht="12.75">
       <c r="A134" s="93" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B134" s="100">
         <f t="shared" si="1"/>
@@ -12312,22 +12313,22 @@
         <v>1008375</v>
       </c>
       <c r="I134" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J134" s="96">
         <v>504</v>
       </c>
       <c r="K134" s="97" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L134" s="98" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="M134" s="31"/>
     </row>
     <row r="135" spans="1:13" ht="12.75">
       <c r="A135" s="93" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B135" s="100">
         <f t="shared" si="1"/>
@@ -12352,22 +12353,22 @@
         <v>839561</v>
       </c>
       <c r="I135" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J135" s="96">
         <v>508</v>
       </c>
       <c r="K135" s="97" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L135" s="98" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="M135" s="31"/>
     </row>
     <row r="136" spans="1:13" ht="12.75">
       <c r="A136" s="93" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B136" s="100">
         <f t="shared" si="1"/>
@@ -12392,22 +12393,22 @@
         <v>1494251</v>
       </c>
       <c r="I136" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J136" s="96">
         <v>104</v>
       </c>
       <c r="K136" s="97" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L136" s="98" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="M136" s="31"/>
     </row>
     <row r="137" spans="1:13" ht="12.75">
       <c r="A137" s="93" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B137" s="100">
         <f t="shared" si="1"/>
@@ -12432,22 +12433,22 @@
         <v>68968</v>
       </c>
       <c r="I137" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J137" s="96">
         <v>516</v>
       </c>
       <c r="K137" s="97" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L137" s="98" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="M137" s="31"/>
     </row>
     <row r="138" spans="1:13" ht="12.75">
       <c r="A138" s="93" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B138" s="100">
         <f t="shared" si="1"/>
@@ -12472,22 +12473,22 @@
         <v>276</v>
       </c>
       <c r="I138" s="95" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J138" s="96">
         <v>520</v>
       </c>
       <c r="K138" s="97" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L138" s="98" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="M138" s="31"/>
     </row>
     <row r="139" spans="1:13" ht="12.75">
       <c r="A139" s="93" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B139" s="100">
         <f t="shared" si="1"/>
@@ -12512,22 +12513,22 @@
         <v>790975</v>
       </c>
       <c r="I139" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J139" s="96">
         <v>524</v>
       </c>
       <c r="K139" s="97" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L139" s="98" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="M139" s="31"/>
     </row>
     <row r="140" spans="1:13" ht="12.75">
       <c r="A140" s="93" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B140" s="100">
         <f t="shared" si="1"/>
@@ -12552,22 +12553,22 @@
         <v>437180</v>
       </c>
       <c r="I140" s="95" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J140" s="96">
         <v>528</v>
       </c>
       <c r="K140" s="97" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L140" s="98" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="M140" s="31"/>
     </row>
     <row r="141" spans="1:13" ht="12.75">
       <c r="A141" s="93" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B141" s="100">
         <f t="shared" si="1"/>
@@ -12592,22 +12593,22 @@
         <v>7231</v>
       </c>
       <c r="I141" s="95" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J141" s="96">
         <v>540</v>
       </c>
       <c r="K141" s="97" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="L141" s="98" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="M141" s="31"/>
     </row>
     <row r="142" spans="1:13" ht="12.75">
       <c r="A142" s="93" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B142" s="100">
         <f t="shared" si="1"/>
@@ -12632,22 +12633,22 @@
         <v>122306</v>
       </c>
       <c r="I142" s="95" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J142" s="96">
         <v>554</v>
       </c>
       <c r="K142" s="97" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="L142" s="98" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="M142" s="31"/>
     </row>
     <row r="143" spans="1:13" ht="12.75">
       <c r="A143" s="93" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B143" s="100">
         <f t="shared" si="1"/>
@@ -12672,22 +12673,22 @@
         <v>180970</v>
       </c>
       <c r="I143" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J143" s="96">
         <v>558</v>
       </c>
       <c r="K143" s="97" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L143" s="98" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="M143" s="31"/>
     </row>
     <row r="144" spans="1:13" ht="12.75">
       <c r="A144" s="93" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B144" s="100">
         <f t="shared" si="1"/>
@@ -12712,22 +12713,22 @@
         <v>644496</v>
       </c>
       <c r="I144" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J144" s="96">
         <v>562</v>
       </c>
       <c r="K144" s="97" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L144" s="98" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="M144" s="31"/>
     </row>
     <row r="145" spans="1:13" ht="12.75">
       <c r="A145" s="93" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B145" s="100">
         <f t="shared" si="1"/>
@@ -12752,22 +12753,22 @@
         <v>5556257</v>
       </c>
       <c r="I145" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J145" s="96">
         <v>566</v>
       </c>
       <c r="K145" s="97" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L145" s="98" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="M145" s="31"/>
     </row>
     <row r="146" spans="1:13" ht="12.75">
       <c r="A146" s="93" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B146" s="100">
         <f t="shared" si="1"/>
@@ -12792,22 +12793,22 @@
         <v>57605</v>
       </c>
       <c r="I146" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J146" s="96">
         <v>807</v>
       </c>
       <c r="K146" s="97" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L146" s="98" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="M146" s="31"/>
     </row>
     <row r="147" spans="1:13" ht="12.75">
       <c r="A147" s="93" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B147" s="100">
         <f t="shared" si="1"/>
@@ -12832,22 +12833,22 @@
         <v>1463</v>
       </c>
       <c r="I147" s="95" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J147" s="96">
         <v>580</v>
       </c>
       <c r="K147" s="97" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L147" s="98" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="M147" s="31"/>
     </row>
     <row r="148" spans="1:13" ht="12.75">
       <c r="A148" s="93" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B148" s="100">
         <f t="shared" si="1"/>
@@ -12872,22 +12873,22 @@
         <v>26685</v>
       </c>
       <c r="I148" s="95" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J148" s="96">
         <v>578</v>
       </c>
       <c r="K148" s="97" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="L148" s="98" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="M148" s="31"/>
     </row>
     <row r="149" spans="1:13" ht="12.75">
       <c r="A149" s="93" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B149" s="100">
         <f t="shared" si="1"/>
@@ -12912,22 +12913,22 @@
         <v>127213</v>
       </c>
       <c r="I149" s="95" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J149" s="96">
         <v>512</v>
       </c>
       <c r="K149" s="97" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L149" s="98" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="M149" s="31"/>
     </row>
     <row r="150" spans="1:13" ht="12.75">
       <c r="A150" s="93" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B150" s="100">
         <f t="shared" si="1"/>
@@ -12952,22 +12953,22 @@
         <v>5987614</v>
       </c>
       <c r="I150" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J150" s="96">
         <v>586</v>
       </c>
       <c r="K150" s="97" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L150" s="98" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="M150" s="31"/>
     </row>
     <row r="151" spans="1:13" ht="12.75">
       <c r="A151" s="93" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B151" s="100">
         <f t="shared" si="1"/>
@@ -12992,22 +12993,22 @@
         <v>460</v>
       </c>
       <c r="I151" s="95" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J151" s="96">
         <v>585</v>
       </c>
       <c r="K151" s="97" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L151" s="98" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="M151" s="31"/>
     </row>
     <row r="152" spans="1:13" ht="12.75">
       <c r="A152" s="93" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B152" s="100">
         <f t="shared" si="1"/>
@@ -13032,22 +13033,22 @@
         <v>108582</v>
       </c>
       <c r="I152" s="95" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J152" s="96">
         <v>591</v>
       </c>
       <c r="K152" s="97" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L152" s="98" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="M152" s="31"/>
     </row>
     <row r="153" spans="1:13" ht="12.75">
       <c r="A153" s="93" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B153" s="100">
         <f t="shared" si="1"/>
@@ -13072,22 +13073,22 @@
         <v>242642</v>
       </c>
       <c r="I153" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J153" s="96">
         <v>598</v>
       </c>
       <c r="K153" s="97" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="L153" s="98" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="M153" s="31"/>
     </row>
     <row r="154" spans="1:13" ht="12.75">
       <c r="A154" s="93" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B154" s="100">
         <f t="shared" si="1"/>
@@ -13112,22 +13113,22 @@
         <v>194770</v>
       </c>
       <c r="I154" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J154" s="96">
         <v>600</v>
       </c>
       <c r="K154" s="97" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L154" s="98" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="M154" s="31"/>
     </row>
     <row r="155" spans="1:13" ht="12.75">
       <c r="A155" s="93" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B155" s="100">
         <f t="shared" si="1"/>
@@ -13152,22 +13153,22 @@
         <v>898853</v>
       </c>
       <c r="I155" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J155" s="96">
         <v>604</v>
       </c>
       <c r="K155" s="97" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L155" s="98" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="M155" s="31"/>
     </row>
     <row r="156" spans="1:13" ht="12.75">
       <c r="A156" s="93" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B156" s="100">
         <f t="shared" si="1"/>
@@ -13192,22 +13193,22 @@
         <v>2989216</v>
       </c>
       <c r="I156" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J156" s="96">
         <v>608</v>
       </c>
       <c r="K156" s="97" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L156" s="98" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="M156" s="31"/>
     </row>
     <row r="157" spans="1:13" ht="12.75">
       <c r="A157" s="93" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B157" s="100">
         <f t="shared" si="1"/>
@@ -13232,22 +13233,22 @@
         <v>968807</v>
       </c>
       <c r="I157" s="95" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J157" s="96">
         <v>616</v>
       </c>
       <c r="K157" s="97" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L157" s="98" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="M157" s="31"/>
     </row>
     <row r="158" spans="1:13" ht="12.75">
       <c r="A158" s="93" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B158" s="100">
         <f t="shared" si="1"/>
@@ -13272,22 +13273,22 @@
         <v>261488</v>
       </c>
       <c r="I158" s="95" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J158" s="96">
         <v>620</v>
       </c>
       <c r="K158" s="97" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L158" s="98" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="M158" s="31"/>
     </row>
     <row r="159" spans="1:13" ht="12.75">
       <c r="A159" s="93" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B159" s="100">
         <f t="shared" si="1"/>
@@ -13312,22 +13313,22 @@
         <v>75008</v>
       </c>
       <c r="I159" s="95" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J159" s="96">
         <v>630</v>
       </c>
       <c r="K159" s="97" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L159" s="98" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="M159" s="31"/>
     </row>
     <row r="160" spans="1:13" ht="12.75">
       <c r="A160" s="93" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B160" s="100">
         <f t="shared" si="1"/>
@@ -13352,22 +13353,22 @@
         <v>72418</v>
       </c>
       <c r="I160" s="95" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J160" s="96">
         <v>634</v>
       </c>
       <c r="K160" s="97" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L160" s="98" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="M160" s="31"/>
     </row>
     <row r="161" spans="1:13" ht="12.75">
       <c r="A161" s="93" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B161" s="100">
         <f t="shared" si="1"/>
@@ -13392,22 +13393,22 @@
         <v>1309852</v>
       </c>
       <c r="I161" s="95" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J161" s="96">
         <v>410</v>
       </c>
       <c r="K161" s="97" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L161" s="98" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="M161" s="31"/>
     </row>
     <row r="162" spans="1:13" ht="12.75">
       <c r="A162" s="93" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B162" s="100">
         <f t="shared" si="1"/>
@@ -13432,22 +13433,22 @@
         <v>111789</v>
       </c>
       <c r="I162" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J162" s="96">
         <v>498</v>
       </c>
       <c r="K162" s="97" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L162" s="98" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="M162" s="31"/>
     </row>
     <row r="163" spans="1:13" ht="12.75">
       <c r="A163" s="93" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B163" s="100">
         <f t="shared" si="1"/>
@@ -13472,22 +13473,22 @@
         <v>495161</v>
       </c>
       <c r="I163" s="95" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J163" s="96">
         <v>642</v>
       </c>
       <c r="K163" s="97" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L163" s="98" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="M163" s="31"/>
     </row>
     <row r="164" spans="1:13" ht="12.75">
       <c r="A164" s="93" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B164" s="100">
         <f t="shared" si="1"/>
@@ -13512,22 +13513,22 @@
         <v>4033088</v>
       </c>
       <c r="I164" s="95" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J164" s="96">
         <v>643</v>
       </c>
       <c r="K164" s="97" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L164" s="98" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="M164" s="31"/>
     </row>
     <row r="165" spans="1:13" ht="12.75">
       <c r="A165" s="93" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B165" s="100">
         <f t="shared" si="1"/>
@@ -13552,22 +13553,22 @@
         <v>349112</v>
       </c>
       <c r="I165" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J165" s="96">
         <v>646</v>
       </c>
       <c r="K165" s="97" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L165" s="98" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="M165" s="31"/>
     </row>
     <row r="166" spans="1:13" ht="12.75">
       <c r="A166" s="93" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B166" s="100">
         <f t="shared" si="1"/>
@@ -13592,22 +13593,22 @@
         <v>1350</v>
       </c>
       <c r="I166" s="95" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J166" s="96">
         <v>659</v>
       </c>
       <c r="K166" s="97" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L166" s="98" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="M166" s="31"/>
     </row>
     <row r="167" spans="1:13" ht="12.75">
       <c r="A167" s="93" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B167" s="100">
         <f t="shared" si="1"/>
@@ -13632,22 +13633,22 @@
         <v>5054</v>
       </c>
       <c r="I167" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J167" s="96">
         <v>662</v>
       </c>
       <c r="K167" s="97" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L167" s="98" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="M167" s="31"/>
     </row>
     <row r="168" spans="1:13" ht="12.75">
       <c r="A168" s="93" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B168" s="100">
         <f t="shared" si="1"/>
@@ -13672,22 +13673,22 @@
         <v>972</v>
       </c>
       <c r="I168" s="95" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J168" s="96">
         <v>663</v>
       </c>
       <c r="K168" s="97" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L168" s="98" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="M168" s="31"/>
     </row>
     <row r="169" spans="1:13" ht="12.75">
       <c r="A169" s="93" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B169" s="100">
         <f t="shared" si="1"/>
@@ -13712,22 +13713,22 @@
         <v>3058</v>
       </c>
       <c r="I169" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J169" s="96">
         <v>670</v>
       </c>
       <c r="K169" s="97" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L169" s="98" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="M169" s="31"/>
     </row>
     <row r="170" spans="1:13" ht="12.75">
       <c r="A170" s="93" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B170" s="100">
         <f t="shared" si="1"/>
@@ -13752,22 +13753,22 @@
         <v>5449</v>
       </c>
       <c r="I170" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J170" s="96">
         <v>882</v>
       </c>
       <c r="K170" s="97" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="L170" s="98" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="M170" s="31"/>
     </row>
     <row r="171" spans="1:13" ht="12.75">
       <c r="A171" s="93" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B171" s="100">
         <f t="shared" si="1"/>
@@ -13792,22 +13793,22 @@
         <v>867</v>
       </c>
       <c r="I171" s="95" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J171" s="96">
         <v>674</v>
       </c>
       <c r="K171" s="97" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L171" s="98" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="M171" s="31"/>
     </row>
     <row r="172" spans="1:13" ht="12.75">
       <c r="A172" s="93" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B172" s="100">
         <f t="shared" si="1"/>
@@ -13832,22 +13833,22 @@
         <v>5947</v>
       </c>
       <c r="I172" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J172" s="96">
         <v>678</v>
       </c>
       <c r="K172" s="97" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L172" s="98" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="M172" s="31"/>
     </row>
     <row r="173" spans="1:13" ht="12.75">
       <c r="A173" s="93" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B173" s="100">
         <f t="shared" si="1"/>
@@ -13872,22 +13873,22 @@
         <v>876260</v>
       </c>
       <c r="I173" s="95" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J173" s="96">
         <v>682</v>
       </c>
       <c r="K173" s="97" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L173" s="98" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="M173" s="31"/>
     </row>
     <row r="174" spans="1:13" ht="12.75">
       <c r="A174" s="93" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B174" s="100">
         <f t="shared" si="1"/>
@@ -13912,22 +13913,22 @@
         <v>450564</v>
       </c>
       <c r="I174" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J174" s="96">
         <v>686</v>
       </c>
       <c r="K174" s="97" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L174" s="98" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="M174" s="31"/>
     </row>
     <row r="175" spans="1:13" ht="12.75">
       <c r="A175" s="93" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B175" s="100">
         <f t="shared" si="1"/>
@@ -13952,22 +13953,22 @@
         <v>52633</v>
       </c>
       <c r="I175" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J175" s="96">
         <v>688</v>
       </c>
       <c r="K175" s="97" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L175" s="98" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="M175" s="31"/>
     </row>
     <row r="176" spans="1:13" ht="12.75">
       <c r="A176" s="93" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B176" s="100">
         <f t="shared" si="1"/>
@@ -13992,22 +13993,22 @@
         <v>2498</v>
       </c>
       <c r="I176" s="95" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J176" s="96">
         <v>690</v>
       </c>
       <c r="K176" s="97" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L176" s="98" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="M176" s="31"/>
     </row>
     <row r="177" spans="1:13" ht="12.75">
       <c r="A177" s="93" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B177" s="100">
         <f t="shared" si="1"/>
@@ -14032,22 +14033,22 @@
         <v>216020</v>
       </c>
       <c r="I177" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J177" s="96">
         <v>694</v>
       </c>
       <c r="K177" s="97" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L177" s="98" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="M177" s="31"/>
     </row>
     <row r="178" spans="1:13" ht="12.75">
       <c r="A178" s="93" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B178" s="100">
         <f t="shared" si="1"/>
@@ -14072,22 +14073,22 @@
         <v>148418</v>
       </c>
       <c r="I178" s="95" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J178" s="96">
         <v>702</v>
       </c>
       <c r="K178" s="97" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L178" s="98" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="M178" s="31"/>
     </row>
     <row r="179" spans="1:13" ht="12.75">
       <c r="A179" s="93" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B179" s="100">
         <f t="shared" si="1"/>
@@ -14112,22 +14113,22 @@
         <v>1084</v>
       </c>
       <c r="I179" s="95" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J179" s="96">
         <v>534</v>
       </c>
       <c r="K179" s="97" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L179" s="98" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="M179" s="31"/>
     </row>
     <row r="180" spans="1:13" ht="12.75">
       <c r="A180" s="93" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B180" s="100">
         <f t="shared" si="1"/>
@@ -14152,22 +14153,22 @@
         <v>139538</v>
       </c>
       <c r="I180" s="95" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J180" s="96">
         <v>703</v>
       </c>
       <c r="K180" s="97" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L180" s="98" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="M180" s="31"/>
     </row>
     <row r="181" spans="1:13" ht="12.75">
       <c r="A181" s="93" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B181" s="100">
         <f t="shared" si="1"/>
@@ -14192,22 +14193,22 @@
         <v>41741</v>
       </c>
       <c r="I181" s="95" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J181" s="96">
         <v>705</v>
       </c>
       <c r="K181" s="97" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L181" s="98" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="M181" s="31"/>
     </row>
     <row r="182" spans="1:13" ht="12.75">
       <c r="A182" s="93" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B182" s="100">
         <f t="shared" si="1"/>
@@ -14232,22 +14233,22 @@
         <v>18519</v>
       </c>
       <c r="I182" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J182" s="96">
         <v>90</v>
       </c>
       <c r="K182" s="97" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="L182" s="98" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="M182" s="31"/>
     </row>
     <row r="183" spans="1:13" ht="12.75">
       <c r="A183" s="93" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B183" s="100">
         <f t="shared" si="1"/>
@@ -14272,22 +14273,22 @@
         <v>426966</v>
       </c>
       <c r="I183" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J183" s="96">
         <v>706</v>
       </c>
       <c r="K183" s="97" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L183" s="98" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="M183" s="31"/>
     </row>
     <row r="184" spans="1:13" ht="12.75">
       <c r="A184" s="93" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B184" s="100">
         <f t="shared" si="1"/>
@@ -14312,22 +14313,22 @@
         <v>1619024</v>
       </c>
       <c r="I184" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J184" s="96">
         <v>710</v>
       </c>
       <c r="K184" s="97" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L184" s="98" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="M184" s="31"/>
     </row>
     <row r="185" spans="1:13" ht="12.75">
       <c r="A185" s="93" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B185" s="100">
         <f t="shared" si="1"/>
@@ -14352,22 +14353,22 @@
         <v>305846</v>
       </c>
       <c r="I185" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J185" s="96">
         <v>728</v>
       </c>
       <c r="K185" s="97" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L185" s="98" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="M185" s="31"/>
     </row>
     <row r="186" spans="1:13" ht="12.75">
       <c r="A186" s="93" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B186" s="100">
         <f t="shared" si="1"/>
@@ -14392,22 +14393,22 @@
         <v>1195080</v>
       </c>
       <c r="I186" s="95" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J186" s="96">
         <v>724</v>
       </c>
       <c r="K186" s="97" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L186" s="98" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="M186" s="31"/>
     </row>
     <row r="187" spans="1:13" ht="12.75">
       <c r="A187" s="93" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B187" s="100">
         <f t="shared" si="1"/>
@@ -14432,22 +14433,22 @@
         <v>589559</v>
       </c>
       <c r="I187" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J187" s="96">
         <v>144</v>
       </c>
       <c r="K187" s="97" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L187" s="98" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="M187" s="31"/>
     </row>
     <row r="188" spans="1:13" ht="12.75">
       <c r="A188" s="93" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B188" s="100">
         <f t="shared" si="1"/>
@@ -14472,22 +14473,22 @@
         <v>137726</v>
       </c>
       <c r="I188" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J188" s="96">
         <v>275</v>
       </c>
       <c r="K188" s="97" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L188" s="98" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="M188" s="31"/>
     </row>
     <row r="189" spans="1:13" ht="12.75">
       <c r="A189" s="93" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B189" s="100">
         <f t="shared" si="1"/>
@@ -14512,22 +14513,22 @@
         <v>1183703</v>
       </c>
       <c r="I189" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J189" s="96">
         <v>729</v>
       </c>
       <c r="K189" s="97" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L189" s="98" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="M189" s="31"/>
     </row>
     <row r="190" spans="1:13" ht="12.75">
       <c r="A190" s="93" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B190" s="100">
         <f t="shared" si="1"/>
@@ -14552,22 +14553,22 @@
         <v>16075</v>
       </c>
       <c r="I190" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J190" s="96">
         <v>740</v>
       </c>
       <c r="K190" s="97" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L190" s="98" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="M190" s="31"/>
     </row>
     <row r="191" spans="1:13" ht="12.75">
       <c r="A191" s="93" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B191" s="100">
         <f t="shared" si="1"/>
@@ -14592,22 +14593,22 @@
         <v>205746</v>
       </c>
       <c r="I191" s="95" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J191" s="96">
         <v>752</v>
       </c>
       <c r="K191" s="97" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="L191" s="98" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="M191" s="31"/>
     </row>
     <row r="192" spans="1:13" ht="12.75">
       <c r="A192" s="93" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B192" s="100">
         <f t="shared" si="1"/>
@@ -14632,22 +14633,22 @@
         <v>343656</v>
       </c>
       <c r="I192" s="95" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J192" s="96">
         <v>756</v>
       </c>
       <c r="K192" s="97" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L192" s="98" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="M192" s="31"/>
     </row>
     <row r="193" spans="1:13" ht="12.75">
       <c r="A193" s="93" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B193" s="100">
         <f t="shared" si="1"/>
@@ -14672,22 +14673,22 @@
         <v>471955</v>
       </c>
       <c r="I193" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J193" s="96">
         <v>760</v>
       </c>
       <c r="K193" s="97" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L193" s="98" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="M193" s="31"/>
     </row>
     <row r="194" spans="1:13" ht="12.75">
       <c r="A194" s="93" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B194" s="100">
         <f t="shared" si="1"/>
@@ -14712,22 +14713,22 @@
         <v>257708</v>
       </c>
       <c r="I194" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J194" s="96">
         <v>762</v>
       </c>
       <c r="K194" s="97" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L194" s="98" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="M194" s="31"/>
     </row>
     <row r="195" spans="1:13" ht="12.75">
       <c r="A195" s="93" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B195" s="100">
         <f t="shared" si="1"/>
@@ -14752,22 +14753,22 @@
         <v>1925014</v>
       </c>
       <c r="I195" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J195" s="96">
         <v>764</v>
       </c>
       <c r="K195" s="97" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L195" s="98" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="M195" s="31"/>
     </row>
     <row r="196" spans="1:13" ht="12.75">
       <c r="A196" s="93" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B196" s="100">
         <f t="shared" si="1"/>
@@ -14792,22 +14793,22 @@
         <v>35752</v>
       </c>
       <c r="I196" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J196" s="96">
         <v>626</v>
       </c>
       <c r="K196" s="97" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L196" s="98" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="M196" s="31"/>
     </row>
     <row r="197" spans="1:13" ht="12.75">
       <c r="A197" s="93" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B197" s="100">
         <f t="shared" si="1"/>
@@ -14832,22 +14833,22 @@
         <v>223463</v>
       </c>
       <c r="I197" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J197" s="96">
         <v>768</v>
       </c>
       <c r="K197" s="97" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L197" s="98" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="M197" s="31"/>
     </row>
     <row r="198" spans="1:13" ht="12.75">
       <c r="A198" s="93" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B198" s="100">
         <f t="shared" si="1"/>
@@ -14872,22 +14873,22 @@
         <v>2889</v>
       </c>
       <c r="I198" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J198" s="96">
         <v>776</v>
       </c>
       <c r="K198" s="97" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="L198" s="98" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="M198" s="31"/>
     </row>
     <row r="199" spans="1:13" ht="12.75">
       <c r="A199" s="93" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B199" s="100">
         <f t="shared" si="1"/>
@@ -14912,22 +14913,22 @@
         <v>35671</v>
       </c>
       <c r="I199" s="95" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J199" s="96">
         <v>780</v>
       </c>
       <c r="K199" s="97" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L199" s="98" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="M199" s="31"/>
     </row>
     <row r="200" spans="1:13" ht="12.75">
       <c r="A200" s="93" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B200" s="100">
         <f t="shared" si="1"/>
@@ -14952,22 +14953,22 @@
         <v>323336</v>
       </c>
       <c r="I200" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J200" s="96">
         <v>788</v>
       </c>
       <c r="K200" s="97" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L200" s="98" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="M200" s="31"/>
     </row>
     <row r="201" spans="1:13" ht="12.75">
       <c r="A201" s="93" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B201" s="100">
         <f t="shared" si="1"/>
@@ -14992,22 +14993,22 @@
         <v>2306668</v>
       </c>
       <c r="I201" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J201" s="96">
         <v>792</v>
       </c>
       <c r="K201" s="97" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L201" s="98" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="M201" s="31"/>
     </row>
     <row r="202" spans="1:13" ht="12.75">
       <c r="A202" s="93" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B202" s="100">
         <f t="shared" si="1"/>
@@ -15032,22 +15033,22 @@
         <v>164288</v>
       </c>
       <c r="I202" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J202" s="96">
         <v>795</v>
       </c>
       <c r="K202" s="97" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L202" s="98" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="M202" s="31"/>
     </row>
     <row r="203" spans="1:13" ht="12.75">
       <c r="A203" s="93" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B203" s="100">
         <f t="shared" si="1"/>
@@ -15072,22 +15073,22 @@
         <v>977</v>
       </c>
       <c r="I203" s="95" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J203" s="96">
         <v>796</v>
       </c>
       <c r="K203" s="97" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L203" s="98" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="M203" s="31"/>
     </row>
     <row r="204" spans="1:13" ht="12.75">
       <c r="A204" s="93" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B204" s="100">
         <f t="shared" si="1"/>
@@ -15112,22 +15113,22 @@
         <v>321</v>
       </c>
       <c r="I204" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J204" s="96">
         <v>798</v>
       </c>
       <c r="K204" s="97" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="L204" s="98" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="M204" s="31"/>
     </row>
     <row r="205" spans="1:13" ht="12.75">
       <c r="A205" s="93" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B205" s="100">
         <f t="shared" si="1"/>
@@ -15152,22 +15153,22 @@
         <v>1223969</v>
       </c>
       <c r="I205" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J205" s="96">
         <v>800</v>
       </c>
       <c r="K205" s="97" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L205" s="98" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="M205" s="31"/>
     </row>
     <row r="206" spans="1:13" ht="12.75">
       <c r="A206" s="93" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B206" s="100">
         <f t="shared" si="1"/>
@@ -15192,22 +15193,22 @@
         <v>1216338</v>
       </c>
       <c r="I206" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J206" s="96">
         <v>804</v>
       </c>
       <c r="K206" s="97" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L206" s="98" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="M206" s="31"/>
     </row>
     <row r="207" spans="1:13" ht="12.75">
       <c r="A207" s="93" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B207" s="100">
         <f t="shared" si="1"/>
@@ -15232,22 +15233,22 @@
         <v>249836</v>
       </c>
       <c r="I207" s="95" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J207" s="96">
         <v>784</v>
       </c>
       <c r="K207" s="97" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L207" s="98" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="M207" s="31"/>
     </row>
     <row r="208" spans="1:13" ht="12.75">
       <c r="A208" s="103" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B208" s="104">
         <f t="shared" si="1"/>
@@ -15272,22 +15273,22 @@
         <v>1114248</v>
       </c>
       <c r="I208" s="106" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J208" s="107">
         <v>826</v>
       </c>
       <c r="K208" s="103" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="L208" s="108" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="M208" s="109"/>
     </row>
     <row r="209" spans="1:13" ht="12.75">
       <c r="A209" s="93" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B209" s="100">
         <f t="shared" si="1"/>
@@ -15312,22 +15313,22 @@
         <v>1603740</v>
       </c>
       <c r="I209" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J209" s="96">
         <v>834</v>
       </c>
       <c r="K209" s="97" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L209" s="98" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="M209" s="31"/>
     </row>
     <row r="210" spans="1:13" ht="12.75">
       <c r="A210" s="93" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B210" s="100">
         <f t="shared" si="1"/>
@@ -15352,22 +15353,22 @@
         <v>20934827</v>
       </c>
       <c r="I210" s="95" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J210" s="96">
         <v>840</v>
       </c>
       <c r="K210" s="97" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="L210" s="98" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="M210" s="31"/>
     </row>
     <row r="211" spans="1:13" ht="12.75">
       <c r="A211" s="93" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B211" s="100">
         <f t="shared" si="1"/>
@@ -15392,22 +15393,22 @@
         <v>2675</v>
       </c>
       <c r="I211" s="95" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J211" s="96">
         <v>850</v>
       </c>
       <c r="K211" s="97" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L211" s="98" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="M211" s="31"/>
     </row>
     <row r="212" spans="1:13" ht="12.75">
       <c r="A212" s="93" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B212" s="100">
         <f t="shared" si="1"/>
@@ -15432,22 +15433,22 @@
         <v>88517</v>
       </c>
       <c r="I212" s="95" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J212" s="96">
         <v>858</v>
       </c>
       <c r="K212" s="97" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L212" s="98" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="M212" s="31"/>
     </row>
     <row r="213" spans="1:13" ht="12.75">
       <c r="A213" s="93" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B213" s="100">
         <f t="shared" si="1"/>
@@ -15472,22 +15473,22 @@
         <v>911881</v>
       </c>
       <c r="I213" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J213" s="96">
         <v>860</v>
       </c>
       <c r="K213" s="97" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L213" s="98" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="M213" s="31"/>
     </row>
     <row r="214" spans="1:13" ht="12.75">
       <c r="A214" s="93" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B214" s="100">
         <f t="shared" si="1"/>
@@ -15512,22 +15513,22 @@
         <v>8292</v>
       </c>
       <c r="I214" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J214" s="96">
         <v>548</v>
       </c>
       <c r="K214" s="97" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="L214" s="98" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="M214" s="31"/>
     </row>
     <row r="215" spans="1:13" ht="12.75">
       <c r="A215" s="93" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B215" s="100">
         <f t="shared" si="1"/>
@@ -15552,22 +15553,22 @@
         <v>788407</v>
       </c>
       <c r="I215" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J215" s="96">
         <v>862</v>
       </c>
       <c r="K215" s="97" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L215" s="98" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="M215" s="31"/>
     </row>
     <row r="216" spans="1:13" ht="12.75">
       <c r="A216" s="93" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B216" s="100">
         <f t="shared" si="1"/>
@@ -15592,22 +15593,22 @@
         <v>2666991</v>
       </c>
       <c r="I216" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J216" s="96">
         <v>704</v>
       </c>
       <c r="K216" s="97" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L216" s="98" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="M216" s="31"/>
     </row>
     <row r="217" spans="1:13" ht="12.75">
       <c r="A217" s="93" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B217" s="100">
         <f t="shared" si="1"/>
@@ -15632,22 +15633,22 @@
         <v>806270</v>
       </c>
       <c r="I217" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J217" s="96">
         <v>887</v>
       </c>
       <c r="K217" s="97" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L217" s="98" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="M217" s="31"/>
     </row>
     <row r="218" spans="1:13" ht="12.75">
       <c r="A218" s="93" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B218" s="100">
         <f t="shared" si="1"/>
@@ -15672,22 +15673,22 @@
         <v>493822</v>
       </c>
       <c r="I218" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J218" s="96">
         <v>894</v>
       </c>
       <c r="K218" s="97" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L218" s="98" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="M218" s="31"/>
     </row>
     <row r="219" spans="1:13" ht="12.75">
       <c r="A219" s="93" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B219" s="100">
         <f t="shared" si="1"/>
@@ -15712,16 +15713,16 @@
         <v>404920</v>
       </c>
       <c r="I219" s="95" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J219" s="96">
         <v>716</v>
       </c>
       <c r="K219" s="97" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L219" s="98" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="M219" s="31"/>
     </row>

--- a/datasets/Food Waste data & research - PUBLIC.xlsx
+++ b/datasets/Food Waste data & research - PUBLIC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="9405" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="9405" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="CONTENTS" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,15 @@
     <sheet name="UK - most landfill or incinerat" sheetId="6" r:id="rId6"/>
     <sheet name="GOOD NEWS " sheetId="7" r:id="rId7"/>
     <sheet name="food waste by country" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet2" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="805">
   <si>
     <t>Welcome to our Food Waste datasheet</t>
   </si>
@@ -2472,6 +2474,18 @@
   </si>
   <si>
     <t>Percent</t>
+  </si>
+  <si>
+    <t>combined figures</t>
+  </si>
+  <si>
+    <t>Household estimate</t>
+  </si>
+  <si>
+    <t>Retail estimate</t>
+  </si>
+  <si>
+    <t>Food service estimate</t>
   </si>
 </sst>
 </file>
@@ -3415,6 +3429,18 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
@@ -6624,8 +6650,8 @@
   </sheetPr>
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -7015,10 +7041,10 @@
   <dimension ref="A1:M220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B201" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:H219"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6:H219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -7145,20 +7171,11 @@
     <row r="5" spans="1:13" ht="12.75">
       <c r="A5" s="93"/>
       <c r="B5" s="94"/>
-      <c r="C5" s="99">
-        <f>SUM(C4/$B$4)</f>
-        <v>0.66481167538881103</v>
-      </c>
+      <c r="C5" s="99"/>
       <c r="D5" s="94"/>
-      <c r="E5" s="99">
-        <f>SUM(E4/$B$4)</f>
-        <v>0.11922311491118155</v>
-      </c>
+      <c r="E5" s="99"/>
       <c r="F5" s="94"/>
-      <c r="G5" s="99">
-        <f>SUM(G4/$B$4)</f>
-        <v>0.21596520970000738</v>
-      </c>
+      <c r="G5" s="99"/>
       <c r="H5" s="94"/>
       <c r="I5" s="95"/>
       <c r="J5" s="96"/>
@@ -15747,4 +15764,5884 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M216"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="38.25">
+      <c r="A1" s="87" t="s">
+        <v>343</v>
+      </c>
+      <c r="B1" s="88" t="s">
+        <v>344</v>
+      </c>
+      <c r="C1" s="88" t="s">
+        <v>345</v>
+      </c>
+      <c r="D1" s="89" t="s">
+        <v>346</v>
+      </c>
+      <c r="E1" s="87" t="s">
+        <v>347</v>
+      </c>
+      <c r="F1" s="87" t="s">
+        <v>348</v>
+      </c>
+      <c r="G1" s="87" t="s">
+        <v>349</v>
+      </c>
+      <c r="H1" s="87" t="s">
+        <v>350</v>
+      </c>
+      <c r="I1" s="90" t="s">
+        <v>351</v>
+      </c>
+      <c r="J1" s="90" t="s">
+        <v>352</v>
+      </c>
+      <c r="K1" s="90" t="s">
+        <v>353</v>
+      </c>
+      <c r="L1" s="91" t="s">
+        <v>354</v>
+      </c>
+      <c r="M1" s="92"/>
+    </row>
+    <row r="2" spans="1:13" ht="38.25">
+      <c r="A2" s="87" t="s">
+        <v>343</v>
+      </c>
+      <c r="B2" s="88" t="s">
+        <v>801</v>
+      </c>
+      <c r="C2" s="88" t="s">
+        <v>802</v>
+      </c>
+      <c r="D2" s="89" t="s">
+        <v>802</v>
+      </c>
+      <c r="E2" s="87" t="s">
+        <v>803</v>
+      </c>
+      <c r="F2" s="87" t="s">
+        <v>803</v>
+      </c>
+      <c r="G2" s="87" t="s">
+        <v>804</v>
+      </c>
+      <c r="H2" s="87" t="s">
+        <v>804</v>
+      </c>
+      <c r="I2" s="90" t="s">
+        <v>351</v>
+      </c>
+      <c r="J2" s="90" t="s">
+        <v>352</v>
+      </c>
+      <c r="K2" s="90" t="s">
+        <v>353</v>
+      </c>
+      <c r="L2" s="91" t="s">
+        <v>354</v>
+      </c>
+      <c r="M2" s="92"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="93" t="s">
+        <v>356</v>
+      </c>
+      <c r="B3" s="100">
+        <f t="shared" ref="B3:B216" si="0">C3+E3+G3</f>
+        <v>126</v>
+      </c>
+      <c r="C3" s="100">
+        <v>82</v>
+      </c>
+      <c r="D3" s="101">
+        <v>3109153</v>
+      </c>
+      <c r="E3" s="100">
+        <v>16</v>
+      </c>
+      <c r="F3" s="101">
+        <v>594982</v>
+      </c>
+      <c r="G3" s="100">
+        <v>28</v>
+      </c>
+      <c r="H3" s="101">
+        <v>1051783</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="93" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4" s="100">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="C4" s="100">
+        <v>83</v>
+      </c>
+      <c r="D4" s="101">
+        <v>238492</v>
+      </c>
+      <c r="E4" s="100">
+        <v>16</v>
+      </c>
+      <c r="F4" s="101">
+        <v>45058</v>
+      </c>
+      <c r="G4" s="100">
+        <v>28</v>
+      </c>
+      <c r="H4" s="101">
+        <v>79651</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="93" t="s">
+        <v>363</v>
+      </c>
+      <c r="B5" s="100">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="C5" s="100">
+        <v>91</v>
+      </c>
+      <c r="D5" s="101">
+        <v>3918529</v>
+      </c>
+      <c r="E5" s="100">
+        <v>16</v>
+      </c>
+      <c r="F5" s="101">
+        <v>673360</v>
+      </c>
+      <c r="G5" s="100">
+        <v>28</v>
+      </c>
+      <c r="H5" s="101">
+        <v>1190335</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="93" t="s">
+        <v>366</v>
+      </c>
+      <c r="B6" s="100">
+        <f t="shared" si="0"/>
+        <v>123</v>
+      </c>
+      <c r="C6" s="100">
+        <v>84</v>
+      </c>
+      <c r="D6" s="101">
+        <v>6497</v>
+      </c>
+      <c r="E6" s="100">
+        <v>13</v>
+      </c>
+      <c r="F6" s="101">
+        <v>988</v>
+      </c>
+      <c r="G6" s="100">
+        <v>26</v>
+      </c>
+      <c r="H6" s="101">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="93" t="s">
+        <v>369</v>
+      </c>
+      <c r="B7" s="100">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="C7" s="100">
+        <v>100</v>
+      </c>
+      <c r="D7" s="101">
+        <v>3169523</v>
+      </c>
+      <c r="E7" s="100">
+        <v>16</v>
+      </c>
+      <c r="F7" s="101">
+        <v>497755</v>
+      </c>
+      <c r="G7" s="100">
+        <v>28</v>
+      </c>
+      <c r="H7" s="101">
+        <v>879908</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="93" t="s">
+        <v>372</v>
+      </c>
+      <c r="B8" s="100">
+        <f t="shared" si="0"/>
+        <v>113</v>
+      </c>
+      <c r="C8" s="100">
+        <v>74</v>
+      </c>
+      <c r="D8" s="101">
+        <v>7178</v>
+      </c>
+      <c r="E8" s="100">
+        <v>13</v>
+      </c>
+      <c r="F8" s="101">
+        <v>1244</v>
+      </c>
+      <c r="G8" s="100">
+        <v>26</v>
+      </c>
+      <c r="H8" s="101">
+        <v>2483</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="93" t="s">
+        <v>375</v>
+      </c>
+      <c r="B9" s="100">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
+      <c r="C9" s="100">
+        <v>72</v>
+      </c>
+      <c r="D9" s="101">
+        <v>3243563</v>
+      </c>
+      <c r="E9" s="100">
+        <v>16</v>
+      </c>
+      <c r="F9" s="101">
+        <v>700380</v>
+      </c>
+      <c r="G9" s="100">
+        <v>28</v>
+      </c>
+      <c r="H9" s="101">
+        <v>1238100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="93" t="s">
+        <v>377</v>
+      </c>
+      <c r="B10" s="100">
+        <f t="shared" si="0"/>
+        <v>137</v>
+      </c>
+      <c r="C10" s="100">
+        <v>93</v>
+      </c>
+      <c r="D10" s="101">
+        <v>275195</v>
+      </c>
+      <c r="E10" s="100">
+        <v>16</v>
+      </c>
+      <c r="F10" s="101">
+        <v>46259</v>
+      </c>
+      <c r="G10" s="100">
+        <v>28</v>
+      </c>
+      <c r="H10" s="101">
+        <v>81775</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="93" t="s">
+        <v>380</v>
+      </c>
+      <c r="B11" s="100">
+        <f t="shared" si="0"/>
+        <v>113</v>
+      </c>
+      <c r="C11" s="100">
+        <v>74</v>
+      </c>
+      <c r="D11" s="101">
+        <v>7858</v>
+      </c>
+      <c r="E11" s="100">
+        <v>13</v>
+      </c>
+      <c r="F11" s="101">
+        <v>1362</v>
+      </c>
+      <c r="G11" s="100">
+        <v>26</v>
+      </c>
+      <c r="H11" s="101">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="93" t="s">
+        <v>306</v>
+      </c>
+      <c r="B12" s="100">
+        <f t="shared" si="0"/>
+        <v>133</v>
+      </c>
+      <c r="C12" s="100">
+        <v>102</v>
+      </c>
+      <c r="D12" s="101">
+        <v>2563110</v>
+      </c>
+      <c r="E12" s="100">
+        <v>9</v>
+      </c>
+      <c r="F12" s="101">
+        <v>238248</v>
+      </c>
+      <c r="G12" s="100">
+        <v>22</v>
+      </c>
+      <c r="H12" s="101">
+        <v>546340</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="93" t="s">
+        <v>384</v>
+      </c>
+      <c r="B13" s="100">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="C13" s="100">
+        <v>39</v>
+      </c>
+      <c r="D13" s="101">
+        <v>349249</v>
+      </c>
+      <c r="E13" s="100">
+        <v>9</v>
+      </c>
+      <c r="F13" s="101">
+        <v>77289</v>
+      </c>
+      <c r="G13" s="100">
+        <v>28</v>
+      </c>
+      <c r="H13" s="101">
+        <v>254191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="93" t="s">
+        <v>387</v>
+      </c>
+      <c r="B14" s="100">
+        <f t="shared" si="0"/>
+        <v>137</v>
+      </c>
+      <c r="C14" s="100">
+        <v>93</v>
+      </c>
+      <c r="D14" s="101">
+        <v>934872</v>
+      </c>
+      <c r="E14" s="100">
+        <v>16</v>
+      </c>
+      <c r="F14" s="101">
+        <v>157148</v>
+      </c>
+      <c r="G14" s="100">
+        <v>28</v>
+      </c>
+      <c r="H14" s="101">
+        <v>277800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="93" t="s">
+        <v>389</v>
+      </c>
+      <c r="B15" s="100">
+        <f t="shared" si="0"/>
+        <v>113</v>
+      </c>
+      <c r="C15" s="100">
+        <v>74</v>
+      </c>
+      <c r="D15" s="101">
+        <v>28792</v>
+      </c>
+      <c r="E15" s="100">
+        <v>13</v>
+      </c>
+      <c r="F15" s="101">
+        <v>4990</v>
+      </c>
+      <c r="G15" s="100">
+        <v>26</v>
+      </c>
+      <c r="H15" s="101">
+        <v>9960</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="93" t="s">
+        <v>391</v>
+      </c>
+      <c r="B16" s="100">
+        <f t="shared" si="0"/>
+        <v>171</v>
+      </c>
+      <c r="C16" s="100">
+        <v>132</v>
+      </c>
+      <c r="D16" s="101">
+        <v>216161</v>
+      </c>
+      <c r="E16" s="100">
+        <v>13</v>
+      </c>
+      <c r="F16" s="101">
+        <v>21026</v>
+      </c>
+      <c r="G16" s="100">
+        <v>26</v>
+      </c>
+      <c r="H16" s="101">
+        <v>41966</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="93" t="s">
+        <v>393</v>
+      </c>
+      <c r="B17" s="100">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="C17" s="100">
+        <v>65</v>
+      </c>
+      <c r="D17" s="101">
+        <v>10618233</v>
+      </c>
+      <c r="E17" s="100">
+        <v>16</v>
+      </c>
+      <c r="F17" s="101">
+        <v>2550080</v>
+      </c>
+      <c r="G17" s="100">
+        <v>3</v>
+      </c>
+      <c r="H17" s="101">
+        <v>544436</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="93" t="s">
+        <v>395</v>
+      </c>
+      <c r="B18" s="100">
+        <f t="shared" si="0"/>
+        <v>113</v>
+      </c>
+      <c r="C18" s="100">
+        <v>74</v>
+      </c>
+      <c r="D18" s="101">
+        <v>21215</v>
+      </c>
+      <c r="E18" s="100">
+        <v>13</v>
+      </c>
+      <c r="F18" s="101">
+        <v>3677</v>
+      </c>
+      <c r="G18" s="100">
+        <v>26</v>
+      </c>
+      <c r="H18" s="101">
+        <v>7339</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="93" t="s">
+        <v>397</v>
+      </c>
+      <c r="B19" s="100">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+      <c r="C19" s="100">
+        <v>68</v>
+      </c>
+      <c r="D19" s="101">
+        <v>646356</v>
+      </c>
+      <c r="E19" s="100">
+        <v>16</v>
+      </c>
+      <c r="F19" s="101">
+        <v>147838</v>
+      </c>
+      <c r="G19" s="100">
+        <v>28</v>
+      </c>
+      <c r="H19" s="101">
+        <v>261341</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="93" t="s">
+        <v>400</v>
+      </c>
+      <c r="B20" s="100">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="C20" s="100">
+        <v>50</v>
+      </c>
+      <c r="D20" s="101">
+        <v>576036</v>
+      </c>
+      <c r="E20" s="100">
+        <v>10</v>
+      </c>
+      <c r="F20" s="101">
+        <v>112100</v>
+      </c>
+      <c r="G20" s="100">
+        <v>20</v>
+      </c>
+      <c r="H20" s="101">
+        <v>227371</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="93" t="s">
+        <v>403</v>
+      </c>
+      <c r="B21" s="100">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="C21" s="100">
+        <v>53</v>
+      </c>
+      <c r="D21" s="101">
+        <v>20564</v>
+      </c>
+      <c r="E21" s="100">
+        <v>16</v>
+      </c>
+      <c r="F21" s="101">
+        <v>6106</v>
+      </c>
+      <c r="G21" s="100">
+        <v>28</v>
+      </c>
+      <c r="H21" s="101">
+        <v>10794</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="93" t="s">
+        <v>405</v>
+      </c>
+      <c r="B22" s="100">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="C22" s="100">
+        <v>100</v>
+      </c>
+      <c r="D22" s="101">
+        <v>1175297</v>
+      </c>
+      <c r="E22" s="100">
+        <v>16</v>
+      </c>
+      <c r="F22" s="101">
+        <v>184573</v>
+      </c>
+      <c r="G22" s="100">
+        <v>28</v>
+      </c>
+      <c r="H22" s="101">
+        <v>326280</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="93" t="s">
+        <v>407</v>
+      </c>
+      <c r="B23" s="100">
+        <f t="shared" si="0"/>
+        <v>113</v>
+      </c>
+      <c r="C23" s="100">
+        <v>74</v>
+      </c>
+      <c r="D23" s="101">
+        <v>4606</v>
+      </c>
+      <c r="E23" s="100">
+        <v>13</v>
+      </c>
+      <c r="F23" s="101">
+        <v>801</v>
+      </c>
+      <c r="G23" s="100">
+        <v>26</v>
+      </c>
+      <c r="H23" s="101">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="93" t="s">
+        <v>410</v>
+      </c>
+      <c r="B24" s="100">
+        <f t="shared" si="0"/>
+        <v>123</v>
+      </c>
+      <c r="C24" s="100">
+        <v>79</v>
+      </c>
+      <c r="D24" s="101">
+        <v>60000</v>
+      </c>
+      <c r="E24" s="100">
+        <v>16</v>
+      </c>
+      <c r="F24" s="101">
+        <v>11935</v>
+      </c>
+      <c r="G24" s="100">
+        <v>28</v>
+      </c>
+      <c r="H24" s="101">
+        <v>21098</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="93" t="s">
+        <v>412</v>
+      </c>
+      <c r="B25" s="100">
+        <f t="shared" si="0"/>
+        <v>124</v>
+      </c>
+      <c r="C25" s="100">
+        <v>80</v>
+      </c>
+      <c r="D25" s="101">
+        <v>922012</v>
+      </c>
+      <c r="E25" s="100">
+        <v>16</v>
+      </c>
+      <c r="F25" s="101">
+        <v>180068</v>
+      </c>
+      <c r="G25" s="100">
+        <v>28</v>
+      </c>
+      <c r="H25" s="101">
+        <v>318315</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="93" t="s">
+        <v>414</v>
+      </c>
+      <c r="B26" s="100">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="C26" s="100">
+        <v>83</v>
+      </c>
+      <c r="D26" s="101">
+        <v>273269</v>
+      </c>
+      <c r="E26" s="100">
+        <v>16</v>
+      </c>
+      <c r="F26" s="101">
+        <v>51628</v>
+      </c>
+      <c r="G26" s="100">
+        <v>28</v>
+      </c>
+      <c r="H26" s="101">
+        <v>91266</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="93" t="s">
+        <v>416</v>
+      </c>
+      <c r="B27" s="100">
+        <f t="shared" si="0"/>
+        <v>136</v>
+      </c>
+      <c r="C27" s="100">
+        <v>92</v>
+      </c>
+      <c r="D27" s="101">
+        <v>211802</v>
+      </c>
+      <c r="E27" s="100">
+        <v>16</v>
+      </c>
+      <c r="F27" s="101">
+        <v>36030</v>
+      </c>
+      <c r="G27" s="100">
+        <v>28</v>
+      </c>
+      <c r="H27" s="101">
+        <v>63693</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="93" t="s">
+        <v>298</v>
+      </c>
+      <c r="B28" s="100">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="C28" s="100">
+        <v>60</v>
+      </c>
+      <c r="D28" s="101">
+        <v>12578308</v>
+      </c>
+      <c r="E28" s="100">
+        <v>16</v>
+      </c>
+      <c r="F28" s="101">
+        <v>3300862</v>
+      </c>
+      <c r="G28" s="100">
+        <v>28</v>
+      </c>
+      <c r="H28" s="101">
+        <v>5835112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="93" t="s">
+        <v>419</v>
+      </c>
+      <c r="B29" s="100">
+        <f t="shared" si="0"/>
+        <v>113</v>
+      </c>
+      <c r="C29" s="100">
+        <v>74</v>
+      </c>
+      <c r="D29" s="101">
+        <v>2218</v>
+      </c>
+      <c r="E29" s="100">
+        <v>13</v>
+      </c>
+      <c r="F29" s="101">
+        <v>384</v>
+      </c>
+      <c r="G29" s="100">
+        <v>26</v>
+      </c>
+      <c r="H29" s="101">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="93" t="s">
+        <v>421</v>
+      </c>
+      <c r="B30" s="100">
+        <f t="shared" si="0"/>
+        <v>119</v>
+      </c>
+      <c r="C30" s="100">
+        <v>80</v>
+      </c>
+      <c r="D30" s="101">
+        <v>34739</v>
+      </c>
+      <c r="E30" s="100">
+        <v>13</v>
+      </c>
+      <c r="F30" s="101">
+        <v>5551</v>
+      </c>
+      <c r="G30" s="100">
+        <v>26</v>
+      </c>
+      <c r="H30" s="101">
+        <v>11080</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="93" t="s">
+        <v>424</v>
+      </c>
+      <c r="B31" s="100">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+      <c r="C31" s="100">
+        <v>68</v>
+      </c>
+      <c r="D31" s="101">
+        <v>478667</v>
+      </c>
+      <c r="E31" s="100">
+        <v>16</v>
+      </c>
+      <c r="F31" s="101">
+        <v>109483</v>
+      </c>
+      <c r="G31" s="100">
+        <v>28</v>
+      </c>
+      <c r="H31" s="101">
+        <v>193539</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="93" t="s">
+        <v>426</v>
+      </c>
+      <c r="B32" s="100">
+        <f t="shared" si="0"/>
+        <v>147</v>
+      </c>
+      <c r="C32" s="100">
+        <v>103</v>
+      </c>
+      <c r="D32" s="101">
+        <v>2086893</v>
+      </c>
+      <c r="E32" s="100">
+        <v>16</v>
+      </c>
+      <c r="F32" s="101">
+        <v>317831</v>
+      </c>
+      <c r="G32" s="100">
+        <v>28</v>
+      </c>
+      <c r="H32" s="101">
+        <v>561848</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="93" t="s">
+        <v>428</v>
+      </c>
+      <c r="B33" s="100">
+        <f t="shared" si="0"/>
+        <v>147</v>
+      </c>
+      <c r="C33" s="100">
+        <v>103</v>
+      </c>
+      <c r="D33" s="101">
+        <v>1184127</v>
+      </c>
+      <c r="E33" s="100">
+        <v>16</v>
+      </c>
+      <c r="F33" s="101">
+        <v>180341</v>
+      </c>
+      <c r="G33" s="100">
+        <v>28</v>
+      </c>
+      <c r="H33" s="101">
+        <v>318799</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="93" t="s">
+        <v>430</v>
+      </c>
+      <c r="B34" s="100">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="C34" s="100">
+        <v>100</v>
+      </c>
+      <c r="D34" s="101">
+        <v>54765</v>
+      </c>
+      <c r="E34" s="100">
+        <v>16</v>
+      </c>
+      <c r="F34" s="101">
+        <v>8601</v>
+      </c>
+      <c r="G34" s="100">
+        <v>28</v>
+      </c>
+      <c r="H34" s="101">
+        <v>15204</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="93" t="s">
+        <v>432</v>
+      </c>
+      <c r="B35" s="100">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="C35" s="100">
+        <v>86</v>
+      </c>
+      <c r="D35" s="101">
+        <v>1423397</v>
+      </c>
+      <c r="E35" s="100">
+        <v>16</v>
+      </c>
+      <c r="F35" s="101">
+        <v>257853</v>
+      </c>
+      <c r="G35" s="100">
+        <v>28</v>
+      </c>
+      <c r="H35" s="101">
+        <v>455820</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="93" t="s">
+        <v>434</v>
+      </c>
+      <c r="B36" s="100">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="C36" s="100">
+        <v>100</v>
+      </c>
+      <c r="D36" s="101">
+        <v>2577064</v>
+      </c>
+      <c r="E36" s="100">
+        <v>16</v>
+      </c>
+      <c r="F36" s="101">
+        <v>404713</v>
+      </c>
+      <c r="G36" s="100">
+        <v>28</v>
+      </c>
+      <c r="H36" s="101">
+        <v>715433</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="93" t="s">
+        <v>303</v>
+      </c>
+      <c r="B37" s="100">
+        <f t="shared" si="0"/>
+        <v>118</v>
+      </c>
+      <c r="C37" s="100">
+        <v>79</v>
+      </c>
+      <c r="D37" s="101">
+        <v>2938321</v>
+      </c>
+      <c r="E37" s="100">
+        <v>13</v>
+      </c>
+      <c r="F37" s="101">
+        <v>479284</v>
+      </c>
+      <c r="G37" s="100">
+        <v>26</v>
+      </c>
+      <c r="H37" s="101">
+        <v>956615</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="93" t="s">
+        <v>437</v>
+      </c>
+      <c r="B38" s="100">
+        <f t="shared" si="0"/>
+        <v>113</v>
+      </c>
+      <c r="C38" s="100">
+        <v>74</v>
+      </c>
+      <c r="D38" s="101">
+        <v>4797</v>
+      </c>
+      <c r="E38" s="100">
+        <v>13</v>
+      </c>
+      <c r="F38" s="101">
+        <v>831</v>
+      </c>
+      <c r="G38" s="100">
+        <v>26</v>
+      </c>
+      <c r="H38" s="101">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="93" t="s">
+        <v>439</v>
+      </c>
+      <c r="B39" s="100">
+        <f t="shared" si="0"/>
+        <v>147</v>
+      </c>
+      <c r="C39" s="100">
+        <v>103</v>
+      </c>
+      <c r="D39" s="101">
+        <v>487305</v>
+      </c>
+      <c r="E39" s="100">
+        <v>16</v>
+      </c>
+      <c r="F39" s="101">
+        <v>74216</v>
+      </c>
+      <c r="G39" s="100">
+        <v>28</v>
+      </c>
+      <c r="H39" s="101">
+        <v>131196</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="93" t="s">
+        <v>441</v>
+      </c>
+      <c r="B40" s="100">
+        <f t="shared" si="0"/>
+        <v>147</v>
+      </c>
+      <c r="C40" s="100">
+        <v>103</v>
+      </c>
+      <c r="D40" s="101">
+        <v>1637656</v>
+      </c>
+      <c r="E40" s="100">
+        <v>16</v>
+      </c>
+      <c r="F40" s="101">
+        <v>249413</v>
+      </c>
+      <c r="G40" s="100">
+        <v>28</v>
+      </c>
+      <c r="H40" s="101">
+        <v>440901</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="93" t="s">
+        <v>443</v>
+      </c>
+      <c r="B41" s="100">
+        <f t="shared" si="0"/>
+        <v>113</v>
+      </c>
+      <c r="C41" s="100">
+        <v>74</v>
+      </c>
+      <c r="D41" s="101">
+        <v>1400946</v>
+      </c>
+      <c r="E41" s="100">
+        <v>13</v>
+      </c>
+      <c r="F41" s="101">
+        <v>242800</v>
+      </c>
+      <c r="G41" s="100">
+        <v>26</v>
+      </c>
+      <c r="H41" s="101">
+        <v>484611</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="93" t="s">
+        <v>293</v>
+      </c>
+      <c r="B42" s="100">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="C42" s="100">
+        <v>64</v>
+      </c>
+      <c r="D42" s="101">
+        <v>91646213</v>
+      </c>
+      <c r="E42" s="100">
+        <v>16</v>
+      </c>
+      <c r="F42" s="101">
+        <v>22424705</v>
+      </c>
+      <c r="G42" s="100">
+        <v>46</v>
+      </c>
+      <c r="H42" s="101">
+        <v>65377741</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="93" t="s">
+        <v>447</v>
+      </c>
+      <c r="B43" s="100">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="C43" s="100">
+        <v>71</v>
+      </c>
+      <c r="D43" s="101">
+        <v>530985</v>
+      </c>
+      <c r="E43" s="100">
+        <v>13</v>
+      </c>
+      <c r="F43" s="101">
+        <v>95267</v>
+      </c>
+      <c r="G43" s="100">
+        <v>26</v>
+      </c>
+      <c r="H43" s="101">
+        <v>190147</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="93" t="s">
+        <v>449</v>
+      </c>
+      <c r="B44" s="100">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="C44" s="100">
+        <v>71</v>
+      </c>
+      <c r="D44" s="101">
+        <v>45728</v>
+      </c>
+      <c r="E44" s="100">
+        <v>13</v>
+      </c>
+      <c r="F44" s="101">
+        <v>8204</v>
+      </c>
+      <c r="G44" s="100">
+        <v>26</v>
+      </c>
+      <c r="H44" s="101">
+        <v>16375</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="93" t="s">
+        <v>451</v>
+      </c>
+      <c r="B45" s="100">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="C45" s="100">
+        <v>70</v>
+      </c>
+      <c r="D45" s="101">
+        <v>3545499</v>
+      </c>
+      <c r="E45" s="100">
+        <v>16</v>
+      </c>
+      <c r="F45" s="101">
+        <v>787320</v>
+      </c>
+      <c r="G45" s="100">
+        <v>28</v>
+      </c>
+      <c r="H45" s="101">
+        <v>1391787</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="93" t="s">
+        <v>453</v>
+      </c>
+      <c r="B46" s="100">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="C46" s="100">
+        <v>100</v>
+      </c>
+      <c r="D46" s="101">
+        <v>84742</v>
+      </c>
+      <c r="E46" s="100">
+        <v>16</v>
+      </c>
+      <c r="F46" s="101">
+        <v>13308</v>
+      </c>
+      <c r="G46" s="100">
+        <v>28</v>
+      </c>
+      <c r="H46" s="101">
+        <v>23526</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="93" t="s">
+        <v>455</v>
+      </c>
+      <c r="B47" s="100">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="C47" s="100">
+        <v>100</v>
+      </c>
+      <c r="D47" s="101">
+        <v>535851</v>
+      </c>
+      <c r="E47" s="100">
+        <v>16</v>
+      </c>
+      <c r="F47" s="101">
+        <v>84152</v>
+      </c>
+      <c r="G47" s="100">
+        <v>28</v>
+      </c>
+      <c r="H47" s="101">
+        <v>148760</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="93" t="s">
+        <v>457</v>
+      </c>
+      <c r="B48" s="100">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
+      <c r="C48" s="100">
+        <v>72</v>
+      </c>
+      <c r="D48" s="101">
+        <v>365609</v>
+      </c>
+      <c r="E48" s="100">
+        <v>16</v>
+      </c>
+      <c r="F48" s="101">
+        <v>78946</v>
+      </c>
+      <c r="G48" s="100">
+        <v>28</v>
+      </c>
+      <c r="H48" s="101">
+        <v>139556</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="93" t="s">
+        <v>459</v>
+      </c>
+      <c r="B49" s="100">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="C49" s="100">
+        <v>100</v>
+      </c>
+      <c r="D49" s="101">
+        <v>2561140</v>
+      </c>
+      <c r="E49" s="100">
+        <v>16</v>
+      </c>
+      <c r="F49" s="101">
+        <v>402212</v>
+      </c>
+      <c r="G49" s="100">
+        <v>28</v>
+      </c>
+      <c r="H49" s="101">
+        <v>711012</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="93" t="s">
+        <v>461</v>
+      </c>
+      <c r="B50" s="100">
+        <f t="shared" si="0"/>
+        <v>123</v>
+      </c>
+      <c r="C50" s="100">
+        <v>84</v>
+      </c>
+      <c r="D50" s="101">
+        <v>348070</v>
+      </c>
+      <c r="E50" s="100">
+        <v>13</v>
+      </c>
+      <c r="F50" s="101">
+        <v>52915</v>
+      </c>
+      <c r="G50" s="100">
+        <v>26</v>
+      </c>
+      <c r="H50" s="101">
+        <v>105613</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="93" t="s">
+        <v>463</v>
+      </c>
+      <c r="B51" s="100">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
+      <c r="C51" s="100">
+        <v>72</v>
+      </c>
+      <c r="D51" s="101">
+        <v>820910</v>
+      </c>
+      <c r="E51" s="100">
+        <v>16</v>
+      </c>
+      <c r="F51" s="101">
+        <v>177259</v>
+      </c>
+      <c r="G51" s="100">
+        <v>28</v>
+      </c>
+      <c r="H51" s="101">
+        <v>313349</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="93" t="s">
+        <v>465</v>
+      </c>
+      <c r="B52" s="100">
+        <f t="shared" si="0"/>
+        <v>113</v>
+      </c>
+      <c r="C52" s="100">
+        <v>74</v>
+      </c>
+      <c r="D52" s="101">
+        <v>12079</v>
+      </c>
+      <c r="E52" s="100">
+        <v>13</v>
+      </c>
+      <c r="F52" s="101">
+        <v>2093</v>
+      </c>
+      <c r="G52" s="100">
+        <v>26</v>
+      </c>
+      <c r="H52" s="101">
+        <v>4178</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="93" t="s">
+        <v>467</v>
+      </c>
+      <c r="B53" s="100">
+        <f t="shared" si="0"/>
+        <v>134</v>
+      </c>
+      <c r="C53" s="100">
+        <v>95</v>
+      </c>
+      <c r="D53" s="101">
+        <v>113306</v>
+      </c>
+      <c r="E53" s="100">
+        <v>13</v>
+      </c>
+      <c r="F53" s="101">
+        <v>15356</v>
+      </c>
+      <c r="G53" s="100">
+        <v>26</v>
+      </c>
+      <c r="H53" s="101">
+        <v>30649</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="93" t="s">
+        <v>469</v>
+      </c>
+      <c r="B54" s="100">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="C54" s="100">
+        <v>70</v>
+      </c>
+      <c r="D54" s="101">
+        <v>746840</v>
+      </c>
+      <c r="E54" s="100">
+        <v>13</v>
+      </c>
+      <c r="F54" s="101">
+        <v>136943</v>
+      </c>
+      <c r="G54" s="100">
+        <v>26</v>
+      </c>
+      <c r="H54" s="101">
+        <v>273327</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="93" t="s">
+        <v>471</v>
+      </c>
+      <c r="B55" s="100">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="C55" s="100">
+        <v>81</v>
+      </c>
+      <c r="D55" s="101">
+        <v>2070528</v>
+      </c>
+      <c r="E55" s="100">
+        <v>16</v>
+      </c>
+      <c r="F55" s="101">
+        <v>401425</v>
+      </c>
+      <c r="G55" s="100">
+        <v>28</v>
+      </c>
+      <c r="H55" s="101">
+        <v>709621</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="93" t="s">
+        <v>473</v>
+      </c>
+      <c r="B56" s="100">
+        <f t="shared" si="0"/>
+        <v>147</v>
+      </c>
+      <c r="C56" s="100">
+        <v>103</v>
+      </c>
+      <c r="D56" s="101">
+        <v>8912903</v>
+      </c>
+      <c r="E56" s="100">
+        <v>16</v>
+      </c>
+      <c r="F56" s="101">
+        <v>1357425</v>
+      </c>
+      <c r="G56" s="100">
+        <v>28</v>
+      </c>
+      <c r="H56" s="101">
+        <v>2399593</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="93" t="s">
+        <v>475</v>
+      </c>
+      <c r="B57" s="100">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="C57" s="100">
+        <v>81</v>
+      </c>
+      <c r="D57" s="101">
+        <v>469449</v>
+      </c>
+      <c r="E57" s="100">
+        <v>30</v>
+      </c>
+      <c r="F57" s="101">
+        <v>172003</v>
+      </c>
+      <c r="G57" s="100">
+        <v>21</v>
+      </c>
+      <c r="H57" s="101">
+        <v>119134</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="93" t="s">
+        <v>478</v>
+      </c>
+      <c r="B58" s="100">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="C58" s="100">
+        <v>100</v>
+      </c>
+      <c r="D58" s="101">
+        <v>96962</v>
+      </c>
+      <c r="E58" s="100">
+        <v>16</v>
+      </c>
+      <c r="F58" s="101">
+        <v>15227</v>
+      </c>
+      <c r="G58" s="100">
+        <v>28</v>
+      </c>
+      <c r="H58" s="101">
+        <v>26918</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="93" t="s">
+        <v>480</v>
+      </c>
+      <c r="B59" s="100">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
+      <c r="C59" s="100">
+        <v>72</v>
+      </c>
+      <c r="D59" s="101">
+        <v>5201</v>
+      </c>
+      <c r="E59" s="100">
+        <v>16</v>
+      </c>
+      <c r="F59" s="101">
+        <v>1123</v>
+      </c>
+      <c r="G59" s="100">
+        <v>28</v>
+      </c>
+      <c r="H59" s="101">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="93" t="s">
+        <v>482</v>
+      </c>
+      <c r="B60" s="100">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
+      <c r="C60" s="100">
+        <v>72</v>
+      </c>
+      <c r="D60" s="101">
+        <v>777849</v>
+      </c>
+      <c r="E60" s="100">
+        <v>16</v>
+      </c>
+      <c r="F60" s="101">
+        <v>167960</v>
+      </c>
+      <c r="G60" s="100">
+        <v>28</v>
+      </c>
+      <c r="H60" s="101">
+        <v>296913</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="93" t="s">
+        <v>484</v>
+      </c>
+      <c r="B61" s="100">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
+      <c r="C61" s="100">
+        <v>72</v>
+      </c>
+      <c r="D61" s="101">
+        <v>1258415</v>
+      </c>
+      <c r="E61" s="100">
+        <v>16</v>
+      </c>
+      <c r="F61" s="101">
+        <v>271729</v>
+      </c>
+      <c r="G61" s="100">
+        <v>28</v>
+      </c>
+      <c r="H61" s="101">
+        <v>480349</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="93" t="s">
+        <v>486</v>
+      </c>
+      <c r="B62" s="100">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="C62" s="100">
+        <v>91</v>
+      </c>
+      <c r="D62" s="101">
+        <v>9136941</v>
+      </c>
+      <c r="E62" s="100">
+        <v>16</v>
+      </c>
+      <c r="F62" s="101">
+        <v>1570093</v>
+      </c>
+      <c r="G62" s="100">
+        <v>28</v>
+      </c>
+      <c r="H62" s="101">
+        <v>2775538</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="93" t="s">
+        <v>488</v>
+      </c>
+      <c r="B63" s="100">
+        <f t="shared" si="0"/>
+        <v>124</v>
+      </c>
+      <c r="C63" s="100">
+        <v>80</v>
+      </c>
+      <c r="D63" s="101">
+        <v>516828</v>
+      </c>
+      <c r="E63" s="100">
+        <v>16</v>
+      </c>
+      <c r="F63" s="101">
+        <v>100936</v>
+      </c>
+      <c r="G63" s="100">
+        <v>28</v>
+      </c>
+      <c r="H63" s="101">
+        <v>178430</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="93" t="s">
+        <v>490</v>
+      </c>
+      <c r="B64" s="100">
+        <f t="shared" si="0"/>
+        <v>136</v>
+      </c>
+      <c r="C64" s="100">
+        <v>92</v>
+      </c>
+      <c r="D64" s="101">
+        <v>124670</v>
+      </c>
+      <c r="E64" s="100">
+        <v>16</v>
+      </c>
+      <c r="F64" s="101">
+        <v>21208</v>
+      </c>
+      <c r="G64" s="100">
+        <v>28</v>
+      </c>
+      <c r="H64" s="101">
+        <v>37491</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="93" t="s">
+        <v>492</v>
+      </c>
+      <c r="B65" s="100">
+        <f t="shared" si="0"/>
+        <v>147</v>
+      </c>
+      <c r="C65" s="100">
+        <v>103</v>
+      </c>
+      <c r="D65" s="101">
+        <v>359132</v>
+      </c>
+      <c r="E65" s="100">
+        <v>16</v>
+      </c>
+      <c r="F65" s="101">
+        <v>54695</v>
+      </c>
+      <c r="G65" s="100">
+        <v>28</v>
+      </c>
+      <c r="H65" s="101">
+        <v>96688</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="93" t="s">
+        <v>494</v>
+      </c>
+      <c r="B66" s="100">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C66" s="100">
+        <v>78</v>
+      </c>
+      <c r="D66" s="101">
+        <v>102743</v>
+      </c>
+      <c r="E66" s="100">
+        <v>5</v>
+      </c>
+      <c r="F66" s="101">
+        <v>6243</v>
+      </c>
+      <c r="G66" s="100">
+        <v>17</v>
+      </c>
+      <c r="H66" s="101">
+        <v>22013</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="93" t="s">
+        <v>496</v>
+      </c>
+      <c r="B67" s="100">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="C67" s="100">
+        <v>100</v>
+      </c>
+      <c r="D67" s="101">
+        <v>114341</v>
+      </c>
+      <c r="E67" s="100">
+        <v>16</v>
+      </c>
+      <c r="F67" s="101">
+        <v>17957</v>
+      </c>
+      <c r="G67" s="100">
+        <v>28</v>
+      </c>
+      <c r="H67" s="101">
+        <v>31743</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="93" t="s">
+        <v>498</v>
+      </c>
+      <c r="B68" s="100">
+        <f t="shared" si="0"/>
+        <v>136</v>
+      </c>
+      <c r="C68" s="100">
+        <v>92</v>
+      </c>
+      <c r="D68" s="101">
+        <v>10327236</v>
+      </c>
+      <c r="E68" s="100">
+        <v>16</v>
+      </c>
+      <c r="F68" s="101">
+        <v>1752936</v>
+      </c>
+      <c r="G68" s="100">
+        <v>28</v>
+      </c>
+      <c r="H68" s="101">
+        <v>3098760</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="93" t="s">
+        <v>500</v>
+      </c>
+      <c r="B69" s="100">
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+      <c r="C69" s="100">
+        <v>76</v>
+      </c>
+      <c r="D69" s="101">
+        <v>3710</v>
+      </c>
+      <c r="E69" s="100">
+        <v>13</v>
+      </c>
+      <c r="F69" s="101">
+        <v>624</v>
+      </c>
+      <c r="G69" s="100">
+        <v>26</v>
+      </c>
+      <c r="H69" s="101">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="93" t="s">
+        <v>502</v>
+      </c>
+      <c r="B70" s="100">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="C70" s="100">
+        <v>76</v>
+      </c>
+      <c r="D70" s="101">
+        <v>67385</v>
+      </c>
+      <c r="E70" s="100">
+        <v>16</v>
+      </c>
+      <c r="F70" s="101">
+        <v>13920</v>
+      </c>
+      <c r="G70" s="100">
+        <v>28</v>
+      </c>
+      <c r="H70" s="101">
+        <v>24607</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="93" t="s">
+        <v>505</v>
+      </c>
+      <c r="B71" s="100">
+        <f t="shared" si="0"/>
+        <v>101</v>
+      </c>
+      <c r="C71" s="100">
+        <v>65</v>
+      </c>
+      <c r="D71" s="101">
+        <v>361937</v>
+      </c>
+      <c r="E71" s="100">
+        <v>13</v>
+      </c>
+      <c r="F71" s="101">
+        <v>70875</v>
+      </c>
+      <c r="G71" s="100">
+        <v>23</v>
+      </c>
+      <c r="H71" s="101">
+        <v>128927</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="93" t="s">
+        <v>240</v>
+      </c>
+      <c r="B72" s="100">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="C72" s="100">
+        <v>85</v>
+      </c>
+      <c r="D72" s="101">
+        <v>5522358</v>
+      </c>
+      <c r="E72" s="100">
+        <v>26</v>
+      </c>
+      <c r="F72" s="101">
+        <v>1667568</v>
+      </c>
+      <c r="G72" s="100">
+        <v>24</v>
+      </c>
+      <c r="H72" s="101">
+        <v>1594579</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="93" t="s">
+        <v>508</v>
+      </c>
+      <c r="B73" s="100">
+        <f t="shared" si="0"/>
+        <v>118</v>
+      </c>
+      <c r="C73" s="100">
+        <v>79</v>
+      </c>
+      <c r="D73" s="101">
+        <v>21978</v>
+      </c>
+      <c r="E73" s="100">
+        <v>13</v>
+      </c>
+      <c r="F73" s="101">
+        <v>3578</v>
+      </c>
+      <c r="G73" s="100">
+        <v>26</v>
+      </c>
+      <c r="H73" s="101">
+        <v>7142</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="93" t="s">
+        <v>511</v>
+      </c>
+      <c r="B74" s="100">
+        <f t="shared" si="0"/>
+        <v>136</v>
+      </c>
+      <c r="C74" s="100">
+        <v>92</v>
+      </c>
+      <c r="D74" s="101">
+        <v>199748</v>
+      </c>
+      <c r="E74" s="100">
+        <v>16</v>
+      </c>
+      <c r="F74" s="101">
+        <v>33980</v>
+      </c>
+      <c r="G74" s="100">
+        <v>28</v>
+      </c>
+      <c r="H74" s="101">
+        <v>60068</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="93" t="s">
+        <v>513</v>
+      </c>
+      <c r="B75" s="100">
+        <f t="shared" si="0"/>
+        <v>147</v>
+      </c>
+      <c r="C75" s="100">
+        <v>103</v>
+      </c>
+      <c r="D75" s="101">
+        <v>241095</v>
+      </c>
+      <c r="E75" s="100">
+        <v>16</v>
+      </c>
+      <c r="F75" s="101">
+        <v>36719</v>
+      </c>
+      <c r="G75" s="100">
+        <v>28</v>
+      </c>
+      <c r="H75" s="101">
+        <v>64909</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="93" t="s">
+        <v>515</v>
+      </c>
+      <c r="B76" s="100">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+      <c r="C76" s="100">
+        <v>101</v>
+      </c>
+      <c r="D76" s="101">
+        <v>403573</v>
+      </c>
+      <c r="E76" s="100">
+        <v>16</v>
+      </c>
+      <c r="F76" s="101">
+        <v>62511</v>
+      </c>
+      <c r="G76" s="100">
+        <v>28</v>
+      </c>
+      <c r="H76" s="101">
+        <v>110504</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="93" t="s">
+        <v>301</v>
+      </c>
+      <c r="B77" s="100">
+        <f t="shared" si="0"/>
+        <v>102</v>
+      </c>
+      <c r="C77" s="100">
+        <v>75</v>
+      </c>
+      <c r="D77" s="101">
+        <v>6263775</v>
+      </c>
+      <c r="E77" s="100">
+        <v>6</v>
+      </c>
+      <c r="F77" s="101">
+        <v>498244</v>
+      </c>
+      <c r="G77" s="100">
+        <v>21</v>
+      </c>
+      <c r="H77" s="101">
+        <v>1718433</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="93" t="s">
+        <v>518</v>
+      </c>
+      <c r="B78" s="100">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="C78" s="100">
+        <v>84</v>
+      </c>
+      <c r="D78" s="101">
+        <v>2555332</v>
+      </c>
+      <c r="E78" s="100">
+        <v>16</v>
+      </c>
+      <c r="F78" s="101">
+        <v>475743</v>
+      </c>
+      <c r="G78" s="100">
+        <v>28</v>
+      </c>
+      <c r="H78" s="101">
+        <v>840996</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="93" t="s">
+        <v>520</v>
+      </c>
+      <c r="B79" s="100">
+        <f t="shared" si="0"/>
+        <v>123</v>
+      </c>
+      <c r="C79" s="100">
+        <v>84</v>
+      </c>
+      <c r="D79" s="101">
+        <v>2840</v>
+      </c>
+      <c r="E79" s="100">
+        <v>13</v>
+      </c>
+      <c r="F79" s="101">
+        <v>432</v>
+      </c>
+      <c r="G79" s="100">
+        <v>26</v>
+      </c>
+      <c r="H79" s="101">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="93" t="s">
+        <v>522</v>
+      </c>
+      <c r="B80" s="100">
+        <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
+      <c r="C80" s="100">
+        <v>142</v>
+      </c>
+      <c r="D80" s="101">
+        <v>1483996</v>
+      </c>
+      <c r="E80" s="100">
+        <v>7</v>
+      </c>
+      <c r="F80" s="101">
+        <v>77332</v>
+      </c>
+      <c r="G80" s="100">
+        <v>26</v>
+      </c>
+      <c r="H80" s="101">
+        <v>267812</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="93" t="s">
+        <v>524</v>
+      </c>
+      <c r="B81" s="100">
+        <f t="shared" si="0"/>
+        <v>113</v>
+      </c>
+      <c r="C81" s="100">
+        <v>74</v>
+      </c>
+      <c r="D81" s="101">
+        <v>4178</v>
+      </c>
+      <c r="E81" s="100">
+        <v>13</v>
+      </c>
+      <c r="F81" s="101">
+        <v>726</v>
+      </c>
+      <c r="G81" s="100">
+        <v>26</v>
+      </c>
+      <c r="H81" s="101">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="93" t="s">
+        <v>526</v>
+      </c>
+      <c r="B82" s="100">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
+      <c r="C82" s="100">
+        <v>72</v>
+      </c>
+      <c r="D82" s="101">
+        <v>8112</v>
+      </c>
+      <c r="E82" s="100">
+        <v>16</v>
+      </c>
+      <c r="F82" s="101">
+        <v>1752</v>
+      </c>
+      <c r="G82" s="100">
+        <v>28</v>
+      </c>
+      <c r="H82" s="101">
+        <v>3097</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="93" t="s">
+        <v>528</v>
+      </c>
+      <c r="B83" s="100">
+        <f t="shared" si="0"/>
+        <v>118</v>
+      </c>
+      <c r="C83" s="100">
+        <v>79</v>
+      </c>
+      <c r="D83" s="101">
+        <v>13165</v>
+      </c>
+      <c r="E83" s="100">
+        <v>13</v>
+      </c>
+      <c r="F83" s="101">
+        <v>2143</v>
+      </c>
+      <c r="G83" s="100">
+        <v>26</v>
+      </c>
+      <c r="H83" s="101">
+        <v>4278</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="93" t="s">
+        <v>531</v>
+      </c>
+      <c r="B84" s="100">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
+      <c r="C84" s="100">
+        <v>72</v>
+      </c>
+      <c r="D84" s="101">
+        <v>1273466</v>
+      </c>
+      <c r="E84" s="100">
+        <v>16</v>
+      </c>
+      <c r="F84" s="101">
+        <v>274979</v>
+      </c>
+      <c r="G84" s="100">
+        <v>28</v>
+      </c>
+      <c r="H84" s="101">
+        <v>486095</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="93" t="s">
+        <v>533</v>
+      </c>
+      <c r="B85" s="100">
+        <f t="shared" si="0"/>
+        <v>147</v>
+      </c>
+      <c r="C85" s="100">
+        <v>103</v>
+      </c>
+      <c r="D85" s="101">
+        <v>1311530</v>
+      </c>
+      <c r="E85" s="100">
+        <v>16</v>
+      </c>
+      <c r="F85" s="101">
+        <v>199744</v>
+      </c>
+      <c r="G85" s="100">
+        <v>28</v>
+      </c>
+      <c r="H85" s="101">
+        <v>353099</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="93" t="s">
+        <v>535</v>
+      </c>
+      <c r="B86" s="100">
+        <f t="shared" si="0"/>
+        <v>147</v>
+      </c>
+      <c r="C86" s="100">
+        <v>103</v>
+      </c>
+      <c r="D86" s="101">
+        <v>197266</v>
+      </c>
+      <c r="E86" s="100">
+        <v>16</v>
+      </c>
+      <c r="F86" s="101">
+        <v>30043</v>
+      </c>
+      <c r="G86" s="100">
+        <v>28</v>
+      </c>
+      <c r="H86" s="101">
+        <v>53109</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="93" t="s">
+        <v>537</v>
+      </c>
+      <c r="B87" s="100">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
+      <c r="C87" s="100">
+        <v>72</v>
+      </c>
+      <c r="D87" s="101">
+        <v>56700</v>
+      </c>
+      <c r="E87" s="100">
+        <v>16</v>
+      </c>
+      <c r="F87" s="101">
+        <v>12243</v>
+      </c>
+      <c r="G87" s="100">
+        <v>28</v>
+      </c>
+      <c r="H87" s="101">
+        <v>21643</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="93" t="s">
+        <v>539</v>
+      </c>
+      <c r="B88" s="100">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="C88" s="100">
+        <v>83</v>
+      </c>
+      <c r="D88" s="101">
+        <v>936940</v>
+      </c>
+      <c r="E88" s="100">
+        <v>16</v>
+      </c>
+      <c r="F88" s="101">
+        <v>176157</v>
+      </c>
+      <c r="G88" s="100">
+        <v>28</v>
+      </c>
+      <c r="H88" s="101">
+        <v>311403</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="93" t="s">
+        <v>541</v>
+      </c>
+      <c r="B89" s="100">
+        <f t="shared" si="0"/>
+        <v>124</v>
+      </c>
+      <c r="C89" s="100">
+        <v>80</v>
+      </c>
+      <c r="D89" s="101">
+        <v>780504</v>
+      </c>
+      <c r="E89" s="100">
+        <v>16</v>
+      </c>
+      <c r="F89" s="101">
+        <v>152431</v>
+      </c>
+      <c r="G89" s="100">
+        <v>28</v>
+      </c>
+      <c r="H89" s="101">
+        <v>269461</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="93" t="s">
+        <v>543</v>
+      </c>
+      <c r="B90" s="100">
+        <f t="shared" si="0"/>
+        <v>133</v>
+      </c>
+      <c r="C90" s="100">
+        <v>94</v>
+      </c>
+      <c r="D90" s="101">
+        <v>908669</v>
+      </c>
+      <c r="E90" s="100">
+        <v>13</v>
+      </c>
+      <c r="F90" s="101">
+        <v>124074</v>
+      </c>
+      <c r="G90" s="100">
+        <v>26</v>
+      </c>
+      <c r="H90" s="101">
+        <v>247642</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="93" t="s">
+        <v>545</v>
+      </c>
+      <c r="B91" s="100">
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+      <c r="C91" s="100">
+        <v>76</v>
+      </c>
+      <c r="D91" s="101">
+        <v>25827</v>
+      </c>
+      <c r="E91" s="100">
+        <v>13</v>
+      </c>
+      <c r="F91" s="101">
+        <v>4343</v>
+      </c>
+      <c r="G91" s="100">
+        <v>26</v>
+      </c>
+      <c r="H91" s="101">
+        <v>8668</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="93" t="s">
+        <v>294</v>
+      </c>
+      <c r="B92" s="100">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="C92" s="100">
+        <v>50</v>
+      </c>
+      <c r="D92" s="101">
+        <v>68760163</v>
+      </c>
+      <c r="E92" s="100">
+        <v>16</v>
+      </c>
+      <c r="F92" s="101">
+        <v>21371087</v>
+      </c>
+      <c r="G92" s="100">
+        <v>28</v>
+      </c>
+      <c r="H92" s="101">
+        <v>37778821</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="93" t="s">
+        <v>299</v>
+      </c>
+      <c r="B93" s="100">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+      <c r="C93" s="100">
+        <v>77</v>
+      </c>
+      <c r="D93" s="101">
+        <v>20938252</v>
+      </c>
+      <c r="E93" s="100">
+        <v>16</v>
+      </c>
+      <c r="F93" s="101">
+        <v>4232646</v>
+      </c>
+      <c r="G93" s="100">
+        <v>28</v>
+      </c>
+      <c r="H93" s="101">
+        <v>7482277</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="93" t="s">
+        <v>549</v>
+      </c>
+      <c r="B94" s="100">
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+      <c r="C94" s="100">
+        <v>71</v>
+      </c>
+      <c r="D94" s="101">
+        <v>5884842</v>
+      </c>
+      <c r="E94" s="100">
+        <v>16</v>
+      </c>
+      <c r="F94" s="101">
+        <v>1296792</v>
+      </c>
+      <c r="G94" s="100">
+        <v>28</v>
+      </c>
+      <c r="H94" s="101">
+        <v>2292410</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="93" t="s">
+        <v>551</v>
+      </c>
+      <c r="B95" s="100">
+        <f t="shared" si="0"/>
+        <v>164</v>
+      </c>
+      <c r="C95" s="100">
+        <v>120</v>
+      </c>
+      <c r="D95" s="101">
+        <v>4734434</v>
+      </c>
+      <c r="E95" s="100">
+        <v>16</v>
+      </c>
+      <c r="F95" s="101">
+        <v>614814</v>
+      </c>
+      <c r="G95" s="100">
+        <v>28</v>
+      </c>
+      <c r="H95" s="101">
+        <v>1086840</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="93" t="s">
+        <v>553</v>
+      </c>
+      <c r="B96" s="100">
+        <f t="shared" si="0"/>
+        <v>124</v>
+      </c>
+      <c r="C96" s="100">
+        <v>55</v>
+      </c>
+      <c r="D96" s="101">
+        <v>267073</v>
+      </c>
+      <c r="E96" s="100">
+        <v>13</v>
+      </c>
+      <c r="F96" s="101">
+        <v>62551</v>
+      </c>
+      <c r="G96" s="100">
+        <v>56</v>
+      </c>
+      <c r="H96" s="101">
+        <v>274135</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="93" t="s">
+        <v>555</v>
+      </c>
+      <c r="B97" s="100">
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+      <c r="C97" s="100">
+        <v>76</v>
+      </c>
+      <c r="D97" s="101">
+        <v>6445</v>
+      </c>
+      <c r="E97" s="100">
+        <v>13</v>
+      </c>
+      <c r="F97" s="101">
+        <v>1084</v>
+      </c>
+      <c r="G97" s="100">
+        <v>26</v>
+      </c>
+      <c r="H97" s="101">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="93" t="s">
+        <v>557</v>
+      </c>
+      <c r="B98" s="100">
+        <f t="shared" si="0"/>
+        <v>178</v>
+      </c>
+      <c r="C98" s="100">
+        <v>100</v>
+      </c>
+      <c r="D98" s="101">
+        <v>848395</v>
+      </c>
+      <c r="E98" s="100">
+        <v>51</v>
+      </c>
+      <c r="F98" s="101">
+        <v>437997</v>
+      </c>
+      <c r="G98" s="100">
+        <v>27</v>
+      </c>
+      <c r="H98" s="101">
+        <v>233752</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="93" t="s">
+        <v>559</v>
+      </c>
+      <c r="B99" s="100">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="C99" s="100">
+        <v>67</v>
+      </c>
+      <c r="D99" s="101">
+        <v>4059806</v>
+      </c>
+      <c r="E99" s="100">
+        <v>4</v>
+      </c>
+      <c r="F99" s="101">
+        <v>219552</v>
+      </c>
+      <c r="G99" s="100">
+        <v>26</v>
+      </c>
+      <c r="H99" s="101">
+        <v>1548291</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="93" t="s">
+        <v>561</v>
+      </c>
+      <c r="B100" s="100">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
+      <c r="C100" s="100">
+        <v>72</v>
+      </c>
+      <c r="D100" s="101">
+        <v>213552</v>
+      </c>
+      <c r="E100" s="100">
+        <v>16</v>
+      </c>
+      <c r="F100" s="101">
+        <v>46112</v>
+      </c>
+      <c r="G100" s="100">
+        <v>28</v>
+      </c>
+      <c r="H100" s="101">
+        <v>81515</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="93" t="s">
+        <v>297</v>
+      </c>
+      <c r="B101" s="100">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="C101" s="100">
+        <v>64</v>
+      </c>
+      <c r="D101" s="101">
+        <v>8159891</v>
+      </c>
+      <c r="E101" s="100">
+        <v>9</v>
+      </c>
+      <c r="F101" s="101">
+        <v>1095308</v>
+      </c>
+      <c r="G101" s="100">
+        <v>15</v>
+      </c>
+      <c r="H101" s="101">
+        <v>1870735</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="93" t="s">
+        <v>564</v>
+      </c>
+      <c r="B102" s="100">
+        <f t="shared" si="0"/>
+        <v>137</v>
+      </c>
+      <c r="C102" s="100">
+        <v>93</v>
+      </c>
+      <c r="D102" s="101">
+        <v>939897</v>
+      </c>
+      <c r="E102" s="100">
+        <v>16</v>
+      </c>
+      <c r="F102" s="101">
+        <v>157993</v>
+      </c>
+      <c r="G102" s="100">
+        <v>28</v>
+      </c>
+      <c r="H102" s="101">
+        <v>279293</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="93" t="s">
+        <v>566</v>
+      </c>
+      <c r="B103" s="100">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="C103" s="100">
+        <v>76</v>
+      </c>
+      <c r="D103" s="101">
+        <v>1404584</v>
+      </c>
+      <c r="E103" s="100">
+        <v>16</v>
+      </c>
+      <c r="F103" s="101">
+        <v>290148</v>
+      </c>
+      <c r="G103" s="100">
+        <v>28</v>
+      </c>
+      <c r="H103" s="101">
+        <v>512910</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="93" t="s">
+        <v>569</v>
+      </c>
+      <c r="B104" s="100">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="C104" s="100">
+        <v>99</v>
+      </c>
+      <c r="D104" s="101">
+        <v>5217367</v>
+      </c>
+      <c r="E104" s="100">
+        <v>11</v>
+      </c>
+      <c r="F104" s="101">
+        <v>576411</v>
+      </c>
+      <c r="G104" s="100">
+        <v>31</v>
+      </c>
+      <c r="H104" s="101">
+        <v>1637020</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="93" t="s">
+        <v>571</v>
+      </c>
+      <c r="B105" s="100">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="C105" s="100">
+        <v>91</v>
+      </c>
+      <c r="D105" s="101">
+        <v>10704</v>
+      </c>
+      <c r="E105" s="100">
+        <v>16</v>
+      </c>
+      <c r="F105" s="101">
+        <v>1839</v>
+      </c>
+      <c r="G105" s="100">
+        <v>28</v>
+      </c>
+      <c r="H105" s="101">
+        <v>3251</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="93" t="s">
+        <v>573</v>
+      </c>
+      <c r="B106" s="100">
+        <f t="shared" si="0"/>
+        <v>134</v>
+      </c>
+      <c r="C106" s="100">
+        <v>95</v>
+      </c>
+      <c r="D106" s="101">
+        <v>397706</v>
+      </c>
+      <c r="E106" s="100">
+        <v>13</v>
+      </c>
+      <c r="F106" s="101">
+        <v>53898</v>
+      </c>
+      <c r="G106" s="100">
+        <v>26</v>
+      </c>
+      <c r="H106" s="101">
+        <v>107577</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="93" t="s">
+        <v>575</v>
+      </c>
+      <c r="B107" s="100">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="C107" s="100">
+        <v>91</v>
+      </c>
+      <c r="D107" s="101">
+        <v>583951</v>
+      </c>
+      <c r="E107" s="100">
+        <v>16</v>
+      </c>
+      <c r="F107" s="101">
+        <v>100346</v>
+      </c>
+      <c r="G107" s="100">
+        <v>28</v>
+      </c>
+      <c r="H107" s="101">
+        <v>177387</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="93" t="s">
+        <v>577</v>
+      </c>
+      <c r="B108" s="100">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="C108" s="100">
+        <v>86</v>
+      </c>
+      <c r="D108" s="101">
+        <v>618994</v>
+      </c>
+      <c r="E108" s="100">
+        <v>16</v>
+      </c>
+      <c r="F108" s="101">
+        <v>112133</v>
+      </c>
+      <c r="G108" s="100">
+        <v>28</v>
+      </c>
+      <c r="H108" s="101">
+        <v>198223</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="93" t="s">
+        <v>579</v>
+      </c>
+      <c r="B109" s="100">
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+      <c r="C109" s="100">
+        <v>76</v>
+      </c>
+      <c r="D109" s="101">
+        <v>145263</v>
+      </c>
+      <c r="E109" s="100">
+        <v>13</v>
+      </c>
+      <c r="F109" s="101">
+        <v>24427</v>
+      </c>
+      <c r="G109" s="100">
+        <v>26</v>
+      </c>
+      <c r="H109" s="101">
+        <v>48755</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="93" t="s">
+        <v>581</v>
+      </c>
+      <c r="B110" s="100">
+        <f t="shared" si="0"/>
+        <v>149</v>
+      </c>
+      <c r="C110" s="100">
+        <v>105</v>
+      </c>
+      <c r="D110" s="101">
+        <v>717491</v>
+      </c>
+      <c r="E110" s="100">
+        <v>16</v>
+      </c>
+      <c r="F110" s="101">
+        <v>107225</v>
+      </c>
+      <c r="G110" s="100">
+        <v>28</v>
+      </c>
+      <c r="H110" s="101">
+        <v>189547</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="93" t="s">
+        <v>583</v>
+      </c>
+      <c r="B111" s="100">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="C111" s="100">
+        <v>100</v>
+      </c>
+      <c r="D111" s="101">
+        <v>211661</v>
+      </c>
+      <c r="E111" s="100">
+        <v>16</v>
+      </c>
+      <c r="F111" s="101">
+        <v>33240</v>
+      </c>
+      <c r="G111" s="100">
+        <v>28</v>
+      </c>
+      <c r="H111" s="101">
+        <v>58760</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="93" t="s">
+        <v>585</v>
+      </c>
+      <c r="B112" s="100">
+        <f t="shared" si="0"/>
+        <v>147</v>
+      </c>
+      <c r="C112" s="100">
+        <v>103</v>
+      </c>
+      <c r="D112" s="101">
+        <v>507043</v>
+      </c>
+      <c r="E112" s="100">
+        <v>16</v>
+      </c>
+      <c r="F112" s="101">
+        <v>77222</v>
+      </c>
+      <c r="G112" s="100">
+        <v>28</v>
+      </c>
+      <c r="H112" s="101">
+        <v>136510</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="93" t="s">
+        <v>587</v>
+      </c>
+      <c r="B113" s="100">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="C113" s="100">
+        <v>76</v>
+      </c>
+      <c r="D113" s="101">
+        <v>513146</v>
+      </c>
+      <c r="E113" s="100">
+        <v>16</v>
+      </c>
+      <c r="F113" s="101">
+        <v>106002</v>
+      </c>
+      <c r="G113" s="100">
+        <v>28</v>
+      </c>
+      <c r="H113" s="101">
+        <v>187385</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="93" t="s">
+        <v>589</v>
+      </c>
+      <c r="B114" s="100">
+        <f t="shared" si="0"/>
+        <v>111</v>
+      </c>
+      <c r="C114" s="100">
+        <v>72</v>
+      </c>
+      <c r="D114" s="101">
+        <v>2724</v>
+      </c>
+      <c r="E114" s="100">
+        <v>13</v>
+      </c>
+      <c r="F114" s="101">
+        <v>487</v>
+      </c>
+      <c r="G114" s="100">
+        <v>26</v>
+      </c>
+      <c r="H114" s="101">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="93" t="s">
+        <v>591</v>
+      </c>
+      <c r="B115" s="100">
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+      <c r="C115" s="100">
+        <v>76</v>
+      </c>
+      <c r="D115" s="101">
+        <v>210241</v>
+      </c>
+      <c r="E115" s="100">
+        <v>13</v>
+      </c>
+      <c r="F115" s="101">
+        <v>35354</v>
+      </c>
+      <c r="G115" s="100">
+        <v>26</v>
+      </c>
+      <c r="H115" s="101">
+        <v>70564</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="93" t="s">
+        <v>593</v>
+      </c>
+      <c r="B116" s="100">
+        <f t="shared" si="0"/>
+        <v>117</v>
+      </c>
+      <c r="C116" s="100">
+        <v>89</v>
+      </c>
+      <c r="D116" s="101">
+        <v>54951</v>
+      </c>
+      <c r="E116" s="100">
+        <v>7</v>
+      </c>
+      <c r="F116" s="101">
+        <v>4433</v>
+      </c>
+      <c r="G116" s="100">
+        <v>21</v>
+      </c>
+      <c r="H116" s="101">
+        <v>12868</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="93" t="s">
+        <v>595</v>
+      </c>
+      <c r="B117" s="100">
+        <f t="shared" si="0"/>
+        <v>147</v>
+      </c>
+      <c r="C117" s="100">
+        <v>103</v>
+      </c>
+      <c r="D117" s="101">
+        <v>2769594</v>
+      </c>
+      <c r="E117" s="100">
+        <v>16</v>
+      </c>
+      <c r="F117" s="101">
+        <v>421806</v>
+      </c>
+      <c r="G117" s="100">
+        <v>28</v>
+      </c>
+      <c r="H117" s="101">
+        <v>745649</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="93" t="s">
+        <v>597</v>
+      </c>
+      <c r="B118" s="100">
+        <f t="shared" si="0"/>
+        <v>147</v>
+      </c>
+      <c r="C118" s="100">
+        <v>103</v>
+      </c>
+      <c r="D118" s="101">
+        <v>1913062</v>
+      </c>
+      <c r="E118" s="100">
+        <v>16</v>
+      </c>
+      <c r="F118" s="101">
+        <v>291357</v>
+      </c>
+      <c r="G118" s="100">
+        <v>28</v>
+      </c>
+      <c r="H118" s="101">
+        <v>515048</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="93" t="s">
+        <v>599</v>
+      </c>
+      <c r="B119" s="100">
+        <f t="shared" si="0"/>
+        <v>260</v>
+      </c>
+      <c r="C119" s="100">
+        <v>91</v>
+      </c>
+      <c r="D119" s="101">
+        <v>2921577</v>
+      </c>
+      <c r="E119" s="100">
+        <v>79</v>
+      </c>
+      <c r="F119" s="101">
+        <v>2518199</v>
+      </c>
+      <c r="G119" s="100">
+        <v>90</v>
+      </c>
+      <c r="H119" s="101">
+        <v>2861537</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="93" t="s">
+        <v>601</v>
+      </c>
+      <c r="B120" s="100">
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+      <c r="C120" s="100">
+        <v>71</v>
+      </c>
+      <c r="D120" s="101">
+        <v>37688</v>
+      </c>
+      <c r="E120" s="100">
+        <v>16</v>
+      </c>
+      <c r="F120" s="101">
+        <v>8305</v>
+      </c>
+      <c r="G120" s="100">
+        <v>28</v>
+      </c>
+      <c r="H120" s="101">
+        <v>14681</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="93" t="s">
+        <v>603</v>
+      </c>
+      <c r="B121" s="100">
+        <f t="shared" si="0"/>
+        <v>147</v>
+      </c>
+      <c r="C121" s="100">
+        <v>103</v>
+      </c>
+      <c r="D121" s="101">
+        <v>2018765</v>
+      </c>
+      <c r="E121" s="100">
+        <v>16</v>
+      </c>
+      <c r="F121" s="101">
+        <v>307456</v>
+      </c>
+      <c r="G121" s="100">
+        <v>28</v>
+      </c>
+      <c r="H121" s="101">
+        <v>543506</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="93" t="s">
+        <v>605</v>
+      </c>
+      <c r="B122" s="100">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+      <c r="C122" s="100">
+        <v>129</v>
+      </c>
+      <c r="D122" s="101">
+        <v>56812</v>
+      </c>
+      <c r="E122" s="100">
+        <v>13</v>
+      </c>
+      <c r="F122" s="101">
+        <v>5642</v>
+      </c>
+      <c r="G122" s="100">
+        <v>26</v>
+      </c>
+      <c r="H122" s="101">
+        <v>11261</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="93" t="s">
+        <v>607</v>
+      </c>
+      <c r="B123" s="100">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="C123" s="100">
+        <v>76</v>
+      </c>
+      <c r="D123" s="101">
+        <v>4452</v>
+      </c>
+      <c r="E123" s="100">
+        <v>16</v>
+      </c>
+      <c r="F123" s="101">
+        <v>920</v>
+      </c>
+      <c r="G123" s="100">
+        <v>28</v>
+      </c>
+      <c r="H123" s="101">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="93" t="s">
+        <v>609</v>
+      </c>
+      <c r="B124" s="100">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="C124" s="100">
+        <v>100</v>
+      </c>
+      <c r="D124" s="101">
+        <v>450720</v>
+      </c>
+      <c r="E124" s="100">
+        <v>16</v>
+      </c>
+      <c r="F124" s="101">
+        <v>70783</v>
+      </c>
+      <c r="G124" s="100">
+        <v>28</v>
+      </c>
+      <c r="H124" s="101">
+        <v>125127</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="93" t="s">
+        <v>611</v>
+      </c>
+      <c r="B125" s="100">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="C125" s="100">
+        <v>93</v>
+      </c>
+      <c r="D125" s="101">
+        <v>118626</v>
+      </c>
+      <c r="E125" s="100">
+        <v>13</v>
+      </c>
+      <c r="F125" s="101">
+        <v>16267</v>
+      </c>
+      <c r="G125" s="100">
+        <v>26</v>
+      </c>
+      <c r="H125" s="101">
+        <v>32467</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="93" t="s">
+        <v>304</v>
+      </c>
+      <c r="B126" s="100">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="C126" s="100">
+        <v>94</v>
+      </c>
+      <c r="D126" s="101">
+        <v>11979364</v>
+      </c>
+      <c r="E126" s="100">
+        <v>16</v>
+      </c>
+      <c r="F126" s="101">
+        <v>1995310</v>
+      </c>
+      <c r="G126" s="100">
+        <v>28</v>
+      </c>
+      <c r="H126" s="101">
+        <v>3527217</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="93" t="s">
+        <v>614</v>
+      </c>
+      <c r="B127" s="100">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="C127" s="100">
+        <v>91</v>
+      </c>
+      <c r="D127" s="101">
+        <v>10358</v>
+      </c>
+      <c r="E127" s="100">
+        <v>16</v>
+      </c>
+      <c r="F127" s="101">
+        <v>1780</v>
+      </c>
+      <c r="G127" s="100">
+        <v>28</v>
+      </c>
+      <c r="H127" s="101">
+        <v>3146</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="93" t="s">
+        <v>616</v>
+      </c>
+      <c r="B128" s="100">
+        <f t="shared" si="0"/>
+        <v>111</v>
+      </c>
+      <c r="C128" s="100">
+        <v>72</v>
+      </c>
+      <c r="D128" s="101">
+        <v>2795</v>
+      </c>
+      <c r="E128" s="100">
+        <v>13</v>
+      </c>
+      <c r="F128" s="101">
+        <v>500</v>
+      </c>
+      <c r="G128" s="100">
+        <v>26</v>
+      </c>
+      <c r="H128" s="101">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" s="93" t="s">
+        <v>618</v>
+      </c>
+      <c r="B129" s="100">
+        <f t="shared" si="0"/>
+        <v>122</v>
+      </c>
+      <c r="C129" s="100">
+        <v>78</v>
+      </c>
+      <c r="D129" s="101">
+        <v>250173</v>
+      </c>
+      <c r="E129" s="100">
+        <v>16</v>
+      </c>
+      <c r="F129" s="101">
+        <v>50443</v>
+      </c>
+      <c r="G129" s="100">
+        <v>28</v>
+      </c>
+      <c r="H129" s="101">
+        <v>89171</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="93" t="s">
+        <v>620</v>
+      </c>
+      <c r="B130" s="100">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="C130" s="100">
+        <v>83</v>
+      </c>
+      <c r="D130" s="101">
+        <v>51988</v>
+      </c>
+      <c r="E130" s="100">
+        <v>16</v>
+      </c>
+      <c r="F130" s="101">
+        <v>9822</v>
+      </c>
+      <c r="G130" s="100">
+        <v>28</v>
+      </c>
+      <c r="H130" s="101">
+        <v>17363</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="93" t="s">
+        <v>622</v>
+      </c>
+      <c r="B131" s="100">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="C131" s="100">
+        <v>91</v>
+      </c>
+      <c r="D131" s="101">
+        <v>3319524</v>
+      </c>
+      <c r="E131" s="100">
+        <v>16</v>
+      </c>
+      <c r="F131" s="101">
+        <v>570427</v>
+      </c>
+      <c r="G131" s="100">
+        <v>28</v>
+      </c>
+      <c r="H131" s="101">
+        <v>1008375</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" s="93" t="s">
+        <v>624</v>
+      </c>
+      <c r="B132" s="100">
+        <f t="shared" si="0"/>
+        <v>147</v>
+      </c>
+      <c r="C132" s="100">
+        <v>103</v>
+      </c>
+      <c r="D132" s="101">
+        <v>3118416</v>
+      </c>
+      <c r="E132" s="100">
+        <v>16</v>
+      </c>
+      <c r="F132" s="101">
+        <v>474931</v>
+      </c>
+      <c r="G132" s="100">
+        <v>28</v>
+      </c>
+      <c r="H132" s="101">
+        <v>839561</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" s="93" t="s">
+        <v>626</v>
+      </c>
+      <c r="B133" s="100">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="C133" s="100">
+        <v>86</v>
+      </c>
+      <c r="D133" s="101">
+        <v>4666125</v>
+      </c>
+      <c r="E133" s="100">
+        <v>16</v>
+      </c>
+      <c r="F133" s="101">
+        <v>845282</v>
+      </c>
+      <c r="G133" s="100">
+        <v>28</v>
+      </c>
+      <c r="H133" s="101">
+        <v>1494251</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="93" t="s">
+        <v>628</v>
+      </c>
+      <c r="B134" s="100">
+        <f t="shared" si="0"/>
+        <v>136</v>
+      </c>
+      <c r="C134" s="100">
+        <v>92</v>
+      </c>
+      <c r="D134" s="101">
+        <v>229344</v>
+      </c>
+      <c r="E134" s="100">
+        <v>16</v>
+      </c>
+      <c r="F134" s="101">
+        <v>39015</v>
+      </c>
+      <c r="G134" s="100">
+        <v>28</v>
+      </c>
+      <c r="H134" s="101">
+        <v>68968</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="93" t="s">
+        <v>630</v>
+      </c>
+      <c r="B135" s="100">
+        <f t="shared" si="0"/>
+        <v>118</v>
+      </c>
+      <c r="C135" s="100">
+        <v>79</v>
+      </c>
+      <c r="D135" s="101">
+        <v>850</v>
+      </c>
+      <c r="E135" s="100">
+        <v>13</v>
+      </c>
+      <c r="F135" s="101">
+        <v>138</v>
+      </c>
+      <c r="G135" s="100">
+        <v>26</v>
+      </c>
+      <c r="H135" s="101">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" s="93" t="s">
+        <v>632</v>
+      </c>
+      <c r="B136" s="100">
+        <f t="shared" si="0"/>
+        <v>123</v>
+      </c>
+      <c r="C136" s="100">
+        <v>79</v>
+      </c>
+      <c r="D136" s="101">
+        <v>2249412</v>
+      </c>
+      <c r="E136" s="100">
+        <v>16</v>
+      </c>
+      <c r="F136" s="101">
+        <v>447447</v>
+      </c>
+      <c r="G136" s="100">
+        <v>28</v>
+      </c>
+      <c r="H136" s="101">
+        <v>790975</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" s="93" t="s">
+        <v>634</v>
+      </c>
+      <c r="B137" s="100">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="C137" s="100">
+        <v>50</v>
+      </c>
+      <c r="D137" s="101">
+        <v>854855</v>
+      </c>
+      <c r="E137" s="100">
+        <v>11</v>
+      </c>
+      <c r="F137" s="101">
+        <v>188068</v>
+      </c>
+      <c r="G137" s="100">
+        <v>26</v>
+      </c>
+      <c r="H137" s="101">
+        <v>437180</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" s="93" t="s">
+        <v>636</v>
+      </c>
+      <c r="B138" s="100">
+        <f t="shared" si="0"/>
+        <v>118</v>
+      </c>
+      <c r="C138" s="100">
+        <v>79</v>
+      </c>
+      <c r="D138" s="101">
+        <v>22254</v>
+      </c>
+      <c r="E138" s="100">
+        <v>13</v>
+      </c>
+      <c r="F138" s="101">
+        <v>3623</v>
+      </c>
+      <c r="G138" s="100">
+        <v>26</v>
+      </c>
+      <c r="H138" s="101">
+        <v>7231</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" s="93" t="s">
+        <v>638</v>
+      </c>
+      <c r="B139" s="100">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="C139" s="100">
+        <v>61</v>
+      </c>
+      <c r="D139" s="101">
+        <v>291769</v>
+      </c>
+      <c r="E139" s="100">
+        <v>3</v>
+      </c>
+      <c r="F139" s="101">
+        <v>14923</v>
+      </c>
+      <c r="G139" s="100">
+        <v>26</v>
+      </c>
+      <c r="H139" s="101">
+        <v>122306</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="93" t="s">
+        <v>640</v>
+      </c>
+      <c r="B140" s="100">
+        <f t="shared" si="0"/>
+        <v>124</v>
+      </c>
+      <c r="C140" s="100">
+        <v>80</v>
+      </c>
+      <c r="D140" s="101">
+        <v>524188</v>
+      </c>
+      <c r="E140" s="100">
+        <v>16</v>
+      </c>
+      <c r="F140" s="101">
+        <v>102373</v>
+      </c>
+      <c r="G140" s="100">
+        <v>28</v>
+      </c>
+      <c r="H140" s="101">
+        <v>180970</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" s="93" t="s">
+        <v>642</v>
+      </c>
+      <c r="B141" s="100">
+        <f t="shared" si="0"/>
+        <v>147</v>
+      </c>
+      <c r="C141" s="100">
+        <v>103</v>
+      </c>
+      <c r="D141" s="101">
+        <v>2393877</v>
+      </c>
+      <c r="E141" s="100">
+        <v>16</v>
+      </c>
+      <c r="F141" s="101">
+        <v>364585</v>
+      </c>
+      <c r="G141" s="100">
+        <v>28</v>
+      </c>
+      <c r="H141" s="101">
+        <v>644496</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" s="93" t="s">
+        <v>644</v>
+      </c>
+      <c r="B142" s="100">
+        <f t="shared" si="0"/>
+        <v>233</v>
+      </c>
+      <c r="C142" s="100">
+        <v>189</v>
+      </c>
+      <c r="D142" s="101">
+        <v>37941470</v>
+      </c>
+      <c r="E142" s="100">
+        <v>16</v>
+      </c>
+      <c r="F142" s="101">
+        <v>3143117</v>
+      </c>
+      <c r="G142" s="100">
+        <v>28</v>
+      </c>
+      <c r="H142" s="101">
+        <v>5556257</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" s="93" t="s">
+        <v>646</v>
+      </c>
+      <c r="B143" s="100">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="C143" s="100">
+        <v>83</v>
+      </c>
+      <c r="D143" s="101">
+        <v>172480</v>
+      </c>
+      <c r="E143" s="100">
+        <v>16</v>
+      </c>
+      <c r="F143" s="101">
+        <v>32586</v>
+      </c>
+      <c r="G143" s="100">
+        <v>28</v>
+      </c>
+      <c r="H143" s="101">
+        <v>57605</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" s="93" t="s">
+        <v>648</v>
+      </c>
+      <c r="B144" s="100">
+        <f t="shared" si="0"/>
+        <v>118</v>
+      </c>
+      <c r="C144" s="100">
+        <v>79</v>
+      </c>
+      <c r="D144" s="101">
+        <v>4501</v>
+      </c>
+      <c r="E144" s="100">
+        <v>13</v>
+      </c>
+      <c r="F144" s="101">
+        <v>733</v>
+      </c>
+      <c r="G144" s="100">
+        <v>26</v>
+      </c>
+      <c r="H144" s="101">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" s="93" t="s">
+        <v>650</v>
+      </c>
+      <c r="B145" s="100">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="C145" s="100">
+        <v>79</v>
+      </c>
+      <c r="D145" s="101">
+        <v>423857</v>
+      </c>
+      <c r="E145" s="100">
+        <v>14</v>
+      </c>
+      <c r="F145" s="101">
+        <v>74088</v>
+      </c>
+      <c r="G145" s="100">
+        <v>5</v>
+      </c>
+      <c r="H145" s="101">
+        <v>26685</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" s="93" t="s">
+        <v>652</v>
+      </c>
+      <c r="B146" s="100">
+        <f t="shared" si="0"/>
+        <v>134</v>
+      </c>
+      <c r="C146" s="100">
+        <v>95</v>
+      </c>
+      <c r="D146" s="101">
+        <v>470297</v>
+      </c>
+      <c r="E146" s="100">
+        <v>13</v>
+      </c>
+      <c r="F146" s="101">
+        <v>63736</v>
+      </c>
+      <c r="G146" s="100">
+        <v>26</v>
+      </c>
+      <c r="H146" s="101">
+        <v>127213</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" s="93" t="s">
+        <v>654</v>
+      </c>
+      <c r="B147" s="100">
+        <f t="shared" si="0"/>
+        <v>118</v>
+      </c>
+      <c r="C147" s="100">
+        <v>74</v>
+      </c>
+      <c r="D147" s="101">
+        <v>15947645</v>
+      </c>
+      <c r="E147" s="100">
+        <v>16</v>
+      </c>
+      <c r="F147" s="101">
+        <v>3387131</v>
+      </c>
+      <c r="G147" s="100">
+        <v>28</v>
+      </c>
+      <c r="H147" s="101">
+        <v>5987614</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" s="93" t="s">
+        <v>656</v>
+      </c>
+      <c r="B148" s="100">
+        <f t="shared" si="0"/>
+        <v>118</v>
+      </c>
+      <c r="C148" s="100">
+        <v>79</v>
+      </c>
+      <c r="D148" s="101">
+        <v>1416</v>
+      </c>
+      <c r="E148" s="100">
+        <v>13</v>
+      </c>
+      <c r="F148" s="101">
+        <v>231</v>
+      </c>
+      <c r="G148" s="100">
+        <v>26</v>
+      </c>
+      <c r="H148" s="101">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149" s="93" t="s">
+        <v>658</v>
+      </c>
+      <c r="B149" s="100">
+        <f t="shared" si="0"/>
+        <v>113</v>
+      </c>
+      <c r="C149" s="100">
+        <v>74</v>
+      </c>
+      <c r="D149" s="101">
+        <v>313897</v>
+      </c>
+      <c r="E149" s="100">
+        <v>13</v>
+      </c>
+      <c r="F149" s="101">
+        <v>54402</v>
+      </c>
+      <c r="G149" s="100">
+        <v>26</v>
+      </c>
+      <c r="H149" s="101">
+        <v>108582</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150" s="93" t="s">
+        <v>660</v>
+      </c>
+      <c r="B150" s="100">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="C150" s="100">
+        <v>91</v>
+      </c>
+      <c r="D150" s="101">
+        <v>798767</v>
+      </c>
+      <c r="E150" s="100">
+        <v>16</v>
+      </c>
+      <c r="F150" s="101">
+        <v>137260</v>
+      </c>
+      <c r="G150" s="100">
+        <v>28</v>
+      </c>
+      <c r="H150" s="101">
+        <v>242642</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" s="93" t="s">
+        <v>662</v>
+      </c>
+      <c r="B151" s="100">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
+      <c r="C151" s="100">
+        <v>72</v>
+      </c>
+      <c r="D151" s="101">
+        <v>510256</v>
+      </c>
+      <c r="E151" s="100">
+        <v>16</v>
+      </c>
+      <c r="F151" s="101">
+        <v>110179</v>
+      </c>
+      <c r="G151" s="100">
+        <v>28</v>
+      </c>
+      <c r="H151" s="101">
+        <v>194770</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152" s="93" t="s">
+        <v>664</v>
+      </c>
+      <c r="B152" s="100">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
+      <c r="C152" s="100">
+        <v>72</v>
+      </c>
+      <c r="D152" s="101">
+        <v>2354806</v>
+      </c>
+      <c r="E152" s="100">
+        <v>16</v>
+      </c>
+      <c r="F152" s="101">
+        <v>508472</v>
+      </c>
+      <c r="G152" s="100">
+        <v>28</v>
+      </c>
+      <c r="H152" s="101">
+        <v>898853</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153" s="93" t="s">
+        <v>666</v>
+      </c>
+      <c r="B153" s="100">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="C153" s="100">
+        <v>86</v>
+      </c>
+      <c r="D153" s="101">
+        <v>9334477</v>
+      </c>
+      <c r="E153" s="100">
+        <v>16</v>
+      </c>
+      <c r="F153" s="101">
+        <v>1690968</v>
+      </c>
+      <c r="G153" s="100">
+        <v>28</v>
+      </c>
+      <c r="H153" s="101">
+        <v>2989216</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" s="93" t="s">
+        <v>668</v>
+      </c>
+      <c r="B154" s="100">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="C154" s="100">
+        <v>56</v>
+      </c>
+      <c r="D154" s="101">
+        <v>2119455</v>
+      </c>
+      <c r="E154" s="100">
+        <v>13</v>
+      </c>
+      <c r="F154" s="101">
+        <v>485392</v>
+      </c>
+      <c r="G154" s="100">
+        <v>26</v>
+      </c>
+      <c r="H154" s="101">
+        <v>968807</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155" s="93" t="s">
+        <v>670</v>
+      </c>
+      <c r="B155" s="100">
+        <f t="shared" si="0"/>
+        <v>123</v>
+      </c>
+      <c r="C155" s="100">
+        <v>84</v>
+      </c>
+      <c r="D155" s="101">
+        <v>861786</v>
+      </c>
+      <c r="E155" s="100">
+        <v>13</v>
+      </c>
+      <c r="F155" s="101">
+        <v>131011</v>
+      </c>
+      <c r="G155" s="100">
+        <v>26</v>
+      </c>
+      <c r="H155" s="101">
+        <v>261488</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156" s="93" t="s">
+        <v>672</v>
+      </c>
+      <c r="B156" s="100">
+        <f t="shared" si="0"/>
+        <v>113</v>
+      </c>
+      <c r="C156" s="100">
+        <v>74</v>
+      </c>
+      <c r="D156" s="101">
+        <v>216839</v>
+      </c>
+      <c r="E156" s="100">
+        <v>13</v>
+      </c>
+      <c r="F156" s="101">
+        <v>37581</v>
+      </c>
+      <c r="G156" s="100">
+        <v>26</v>
+      </c>
+      <c r="H156" s="101">
+        <v>75008</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157" s="93" t="s">
+        <v>674</v>
+      </c>
+      <c r="B157" s="100">
+        <f t="shared" si="0"/>
+        <v>134</v>
+      </c>
+      <c r="C157" s="100">
+        <v>95</v>
+      </c>
+      <c r="D157" s="101">
+        <v>267724</v>
+      </c>
+      <c r="E157" s="100">
+        <v>13</v>
+      </c>
+      <c r="F157" s="101">
+        <v>36283</v>
+      </c>
+      <c r="G157" s="100">
+        <v>26</v>
+      </c>
+      <c r="H157" s="101">
+        <v>72418</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158" s="93" t="s">
+        <v>676</v>
+      </c>
+      <c r="B158" s="100">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="C158" s="100">
+        <v>71</v>
+      </c>
+      <c r="D158" s="101">
+        <v>3657764</v>
+      </c>
+      <c r="E158" s="100">
+        <v>13</v>
+      </c>
+      <c r="F158" s="101">
+        <v>656263</v>
+      </c>
+      <c r="G158" s="100">
+        <v>26</v>
+      </c>
+      <c r="H158" s="101">
+        <v>1309852</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" s="93" t="s">
+        <v>678</v>
+      </c>
+      <c r="B159" s="100">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="C159" s="100">
+        <v>76</v>
+      </c>
+      <c r="D159" s="101">
+        <v>307419</v>
+      </c>
+      <c r="E159" s="100">
+        <v>16</v>
+      </c>
+      <c r="F159" s="101">
+        <v>63238</v>
+      </c>
+      <c r="G159" s="100">
+        <v>28</v>
+      </c>
+      <c r="H159" s="101">
+        <v>111789</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160" s="93" t="s">
+        <v>680</v>
+      </c>
+      <c r="B160" s="100">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="C160" s="100">
+        <v>70</v>
+      </c>
+      <c r="D160" s="101">
+        <v>1352979</v>
+      </c>
+      <c r="E160" s="100">
+        <v>13</v>
+      </c>
+      <c r="F160" s="101">
+        <v>248086</v>
+      </c>
+      <c r="G160" s="100">
+        <v>26</v>
+      </c>
+      <c r="H160" s="101">
+        <v>495161</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" s="93" t="s">
+        <v>682</v>
+      </c>
+      <c r="B161" s="100">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="C161" s="100">
+        <v>33</v>
+      </c>
+      <c r="D161" s="101">
+        <v>4868564</v>
+      </c>
+      <c r="E161" s="100">
+        <v>14</v>
+      </c>
+      <c r="F161" s="101">
+        <v>2001062</v>
+      </c>
+      <c r="G161" s="100">
+        <v>28</v>
+      </c>
+      <c r="H161" s="101">
+        <v>4033088</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" s="93" t="s">
+        <v>684</v>
+      </c>
+      <c r="B162" s="100">
+        <f t="shared" si="0"/>
+        <v>208</v>
+      </c>
+      <c r="C162" s="100">
+        <v>164</v>
+      </c>
+      <c r="D162" s="101">
+        <v>2075405</v>
+      </c>
+      <c r="E162" s="100">
+        <v>16</v>
+      </c>
+      <c r="F162" s="101">
+        <v>197489</v>
+      </c>
+      <c r="G162" s="100">
+        <v>28</v>
+      </c>
+      <c r="H162" s="101">
+        <v>349112</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" s="93" t="s">
+        <v>686</v>
+      </c>
+      <c r="B163" s="100">
+        <f t="shared" si="0"/>
+        <v>113</v>
+      </c>
+      <c r="C163" s="100">
+        <v>74</v>
+      </c>
+      <c r="D163" s="101">
+        <v>3903</v>
+      </c>
+      <c r="E163" s="100">
+        <v>13</v>
+      </c>
+      <c r="F163" s="101">
+        <v>676</v>
+      </c>
+      <c r="G163" s="100">
+        <v>26</v>
+      </c>
+      <c r="H163" s="101">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" s="93" t="s">
+        <v>688</v>
+      </c>
+      <c r="B164" s="100">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
+      <c r="C164" s="100">
+        <v>72</v>
+      </c>
+      <c r="D164" s="101">
+        <v>13241</v>
+      </c>
+      <c r="E164" s="100">
+        <v>16</v>
+      </c>
+      <c r="F164" s="101">
+        <v>2859</v>
+      </c>
+      <c r="G164" s="100">
+        <v>28</v>
+      </c>
+      <c r="H164" s="101">
+        <v>5054</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" s="93" t="s">
+        <v>690</v>
+      </c>
+      <c r="B165" s="100">
+        <f t="shared" si="0"/>
+        <v>113</v>
+      </c>
+      <c r="C165" s="100">
+        <v>74</v>
+      </c>
+      <c r="D165" s="101">
+        <v>2809</v>
+      </c>
+      <c r="E165" s="100">
+        <v>13</v>
+      </c>
+      <c r="F165" s="101">
+        <v>487</v>
+      </c>
+      <c r="G165" s="100">
+        <v>26</v>
+      </c>
+      <c r="H165" s="101">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" s="93" t="s">
+        <v>692</v>
+      </c>
+      <c r="B166" s="100">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
+      <c r="C166" s="100">
+        <v>72</v>
+      </c>
+      <c r="D166" s="101">
+        <v>8011</v>
+      </c>
+      <c r="E166" s="100">
+        <v>16</v>
+      </c>
+      <c r="F166" s="101">
+        <v>1730</v>
+      </c>
+      <c r="G166" s="100">
+        <v>28</v>
+      </c>
+      <c r="H166" s="101">
+        <v>3058</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" s="93" t="s">
+        <v>694</v>
+      </c>
+      <c r="B167" s="100">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="C167" s="100">
+        <v>76</v>
+      </c>
+      <c r="D167" s="101">
+        <v>14923</v>
+      </c>
+      <c r="E167" s="100">
+        <v>16</v>
+      </c>
+      <c r="F167" s="101">
+        <v>3083</v>
+      </c>
+      <c r="G167" s="100">
+        <v>28</v>
+      </c>
+      <c r="H167" s="101">
+        <v>5449</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" s="93" t="s">
+        <v>696</v>
+      </c>
+      <c r="B168" s="100">
+        <f t="shared" si="0"/>
+        <v>123</v>
+      </c>
+      <c r="C168" s="100">
+        <v>84</v>
+      </c>
+      <c r="D168" s="101">
+        <v>2857</v>
+      </c>
+      <c r="E168" s="100">
+        <v>13</v>
+      </c>
+      <c r="F168" s="101">
+        <v>434</v>
+      </c>
+      <c r="G168" s="100">
+        <v>26</v>
+      </c>
+      <c r="H168" s="101">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" s="93" t="s">
+        <v>698</v>
+      </c>
+      <c r="B169" s="100">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="C169" s="100">
+        <v>100</v>
+      </c>
+      <c r="D169" s="101">
+        <v>21422</v>
+      </c>
+      <c r="E169" s="100">
+        <v>16</v>
+      </c>
+      <c r="F169" s="101">
+        <v>3364</v>
+      </c>
+      <c r="G169" s="100">
+        <v>28</v>
+      </c>
+      <c r="H169" s="101">
+        <v>5947</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170" s="93" t="s">
+        <v>305</v>
+      </c>
+      <c r="B170" s="100">
+        <f t="shared" si="0"/>
+        <v>151</v>
+      </c>
+      <c r="C170" s="100">
+        <v>105</v>
+      </c>
+      <c r="D170" s="101">
+        <v>3594080</v>
+      </c>
+      <c r="E170" s="100">
+        <v>20</v>
+      </c>
+      <c r="F170" s="101">
+        <v>673502</v>
+      </c>
+      <c r="G170" s="100">
+        <v>26</v>
+      </c>
+      <c r="H170" s="101">
+        <v>876260</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171" s="93" t="s">
+        <v>701</v>
+      </c>
+      <c r="B171" s="100">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="C171" s="100">
+        <v>100</v>
+      </c>
+      <c r="D171" s="101">
+        <v>1622980</v>
+      </c>
+      <c r="E171" s="100">
+        <v>16</v>
+      </c>
+      <c r="F171" s="101">
+        <v>254879</v>
+      </c>
+      <c r="G171" s="100">
+        <v>28</v>
+      </c>
+      <c r="H171" s="101">
+        <v>450564</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172" s="93" t="s">
+        <v>703</v>
+      </c>
+      <c r="B172" s="100">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="C172" s="100">
+        <v>83</v>
+      </c>
+      <c r="D172" s="101">
+        <v>726196</v>
+      </c>
+      <c r="E172" s="100">
+        <v>16</v>
+      </c>
+      <c r="F172" s="101">
+        <v>137199</v>
+      </c>
+      <c r="G172" s="100">
+        <v>6</v>
+      </c>
+      <c r="H172" s="101">
+        <v>52633</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173" s="93" t="s">
+        <v>705</v>
+      </c>
+      <c r="B173" s="100">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="C173" s="100">
+        <v>93</v>
+      </c>
+      <c r="D173" s="101">
+        <v>9128</v>
+      </c>
+      <c r="E173" s="100">
+        <v>13</v>
+      </c>
+      <c r="F173" s="101">
+        <v>1252</v>
+      </c>
+      <c r="G173" s="100">
+        <v>26</v>
+      </c>
+      <c r="H173" s="101">
+        <v>2498</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174" s="93" t="s">
+        <v>707</v>
+      </c>
+      <c r="B174" s="100">
+        <f t="shared" si="0"/>
+        <v>147</v>
+      </c>
+      <c r="C174" s="100">
+        <v>103</v>
+      </c>
+      <c r="D174" s="101">
+        <v>802371</v>
+      </c>
+      <c r="E174" s="100">
+        <v>16</v>
+      </c>
+      <c r="F174" s="101">
+        <v>122200</v>
+      </c>
+      <c r="G174" s="100">
+        <v>28</v>
+      </c>
+      <c r="H174" s="101">
+        <v>216020</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" s="93" t="s">
+        <v>709</v>
+      </c>
+      <c r="B175" s="100">
+        <f t="shared" si="0"/>
+        <v>119</v>
+      </c>
+      <c r="C175" s="100">
+        <v>80</v>
+      </c>
+      <c r="D175" s="101">
+        <v>465355</v>
+      </c>
+      <c r="E175" s="100">
+        <v>13</v>
+      </c>
+      <c r="F175" s="101">
+        <v>74361</v>
+      </c>
+      <c r="G175" s="100">
+        <v>26</v>
+      </c>
+      <c r="H175" s="101">
+        <v>148418</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176" s="93" t="s">
+        <v>711</v>
+      </c>
+      <c r="B176" s="100">
+        <f t="shared" si="0"/>
+        <v>113</v>
+      </c>
+      <c r="C176" s="100">
+        <v>74</v>
+      </c>
+      <c r="D176" s="101">
+        <v>3134</v>
+      </c>
+      <c r="E176" s="100">
+        <v>13</v>
+      </c>
+      <c r="F176" s="101">
+        <v>543</v>
+      </c>
+      <c r="G176" s="100">
+        <v>26</v>
+      </c>
+      <c r="H176" s="101">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177" s="93" t="s">
+        <v>713</v>
+      </c>
+      <c r="B177" s="100">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="C177" s="100">
+        <v>70</v>
+      </c>
+      <c r="D177" s="101">
+        <v>381273</v>
+      </c>
+      <c r="E177" s="100">
+        <v>13</v>
+      </c>
+      <c r="F177" s="101">
+        <v>69911</v>
+      </c>
+      <c r="G177" s="100">
+        <v>26</v>
+      </c>
+      <c r="H177" s="101">
+        <v>139538</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178" s="93" t="s">
+        <v>715</v>
+      </c>
+      <c r="B178" s="100">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="C178" s="100">
+        <v>34</v>
+      </c>
+      <c r="D178" s="101">
+        <v>71107</v>
+      </c>
+      <c r="E178" s="100">
+        <v>7</v>
+      </c>
+      <c r="F178" s="101">
+        <v>13910</v>
+      </c>
+      <c r="G178" s="100">
+        <v>20</v>
+      </c>
+      <c r="H178" s="101">
+        <v>41741</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179" s="93" t="s">
+        <v>717</v>
+      </c>
+      <c r="B179" s="100">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="C179" s="100">
+        <v>91</v>
+      </c>
+      <c r="D179" s="101">
+        <v>60963</v>
+      </c>
+      <c r="E179" s="100">
+        <v>16</v>
+      </c>
+      <c r="F179" s="101">
+        <v>10476</v>
+      </c>
+      <c r="G179" s="100">
+        <v>28</v>
+      </c>
+      <c r="H179" s="101">
+        <v>18519</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="A180" s="93" t="s">
+        <v>719</v>
+      </c>
+      <c r="B180" s="100">
+        <f t="shared" si="0"/>
+        <v>147</v>
+      </c>
+      <c r="C180" s="100">
+        <v>103</v>
+      </c>
+      <c r="D180" s="101">
+        <v>1585898</v>
+      </c>
+      <c r="E180" s="100">
+        <v>16</v>
+      </c>
+      <c r="F180" s="101">
+        <v>241530</v>
+      </c>
+      <c r="G180" s="100">
+        <v>28</v>
+      </c>
+      <c r="H180" s="101">
+        <v>426966</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181" s="93" t="s">
+        <v>721</v>
+      </c>
+      <c r="B181" s="100">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="C181" s="100">
+        <v>40</v>
+      </c>
+      <c r="D181" s="101">
+        <v>2329228</v>
+      </c>
+      <c r="E181" s="100">
+        <v>16</v>
+      </c>
+      <c r="F181" s="101">
+        <v>915865</v>
+      </c>
+      <c r="G181" s="100">
+        <v>28</v>
+      </c>
+      <c r="H181" s="101">
+        <v>1619024</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="A182" s="93" t="s">
+        <v>723</v>
+      </c>
+      <c r="B182" s="100">
+        <f t="shared" si="0"/>
+        <v>147</v>
+      </c>
+      <c r="C182" s="100">
+        <v>103</v>
+      </c>
+      <c r="D182" s="101">
+        <v>1136015</v>
+      </c>
+      <c r="E182" s="100">
+        <v>16</v>
+      </c>
+      <c r="F182" s="101">
+        <v>173014</v>
+      </c>
+      <c r="G182" s="100">
+        <v>28</v>
+      </c>
+      <c r="H182" s="101">
+        <v>305846</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="A183" s="93" t="s">
+        <v>725</v>
+      </c>
+      <c r="B183" s="100">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
+      <c r="C183" s="100">
+        <v>77</v>
+      </c>
+      <c r="D183" s="101">
+        <v>3613954</v>
+      </c>
+      <c r="E183" s="100">
+        <v>13</v>
+      </c>
+      <c r="F183" s="101">
+        <v>598760</v>
+      </c>
+      <c r="G183" s="100">
+        <v>26</v>
+      </c>
+      <c r="H183" s="101">
+        <v>1195080</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184" s="93" t="s">
+        <v>727</v>
+      </c>
+      <c r="B184" s="100">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="C184" s="100">
+        <v>76</v>
+      </c>
+      <c r="D184" s="101">
+        <v>1617738</v>
+      </c>
+      <c r="E184" s="100">
+        <v>16</v>
+      </c>
+      <c r="F184" s="101">
+        <v>333508</v>
+      </c>
+      <c r="G184" s="100">
+        <v>28</v>
+      </c>
+      <c r="H184" s="101">
+        <v>589559</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185" s="93" t="s">
+        <v>729</v>
+      </c>
+      <c r="B185" s="100">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+      <c r="C185" s="100">
+        <v>101</v>
+      </c>
+      <c r="D185" s="101">
+        <v>501602</v>
+      </c>
+      <c r="E185" s="100">
+        <v>16</v>
+      </c>
+      <c r="F185" s="101">
+        <v>77910</v>
+      </c>
+      <c r="G185" s="100">
+        <v>28</v>
+      </c>
+      <c r="H185" s="101">
+        <v>137726</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
+      <c r="A186" s="93" t="s">
+        <v>731</v>
+      </c>
+      <c r="B186" s="100">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="C186" s="100">
+        <v>97</v>
+      </c>
+      <c r="D186" s="101">
+        <v>4162396</v>
+      </c>
+      <c r="E186" s="100">
+        <v>16</v>
+      </c>
+      <c r="F186" s="101">
+        <v>669608</v>
+      </c>
+      <c r="G186" s="100">
+        <v>28</v>
+      </c>
+      <c r="H186" s="101">
+        <v>1183703</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="A187" s="93" t="s">
+        <v>733</v>
+      </c>
+      <c r="B187" s="100">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
+      <c r="C187" s="100">
+        <v>72</v>
+      </c>
+      <c r="D187" s="101">
+        <v>42112</v>
+      </c>
+      <c r="E187" s="100">
+        <v>16</v>
+      </c>
+      <c r="F187" s="101">
+        <v>9093</v>
+      </c>
+      <c r="G187" s="100">
+        <v>28</v>
+      </c>
+      <c r="H187" s="101">
+        <v>16075</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188" s="93" t="s">
+        <v>735</v>
+      </c>
+      <c r="B188" s="100">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+      <c r="C188" s="100">
+        <v>81</v>
+      </c>
+      <c r="D188" s="101">
+        <v>812948</v>
+      </c>
+      <c r="E188" s="100">
+        <v>10</v>
+      </c>
+      <c r="F188" s="101">
+        <v>100364</v>
+      </c>
+      <c r="G188" s="100">
+        <v>21</v>
+      </c>
+      <c r="H188" s="101">
+        <v>205746</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="A189" s="93" t="s">
+        <v>737</v>
+      </c>
+      <c r="B189" s="100">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="C189" s="100">
+        <v>72</v>
+      </c>
+      <c r="D189" s="101">
+        <v>615790</v>
+      </c>
+      <c r="E189" s="100">
+        <v>13</v>
+      </c>
+      <c r="F189" s="101">
+        <v>110067</v>
+      </c>
+      <c r="G189" s="100">
+        <v>40</v>
+      </c>
+      <c r="H189" s="101">
+        <v>343656</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
+      <c r="A190" s="93" t="s">
+        <v>739</v>
+      </c>
+      <c r="B190" s="100">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+      <c r="C190" s="100">
+        <v>104</v>
+      </c>
+      <c r="D190" s="101">
+        <v>1771842</v>
+      </c>
+      <c r="E190" s="100">
+        <v>16</v>
+      </c>
+      <c r="F190" s="101">
+        <v>266980</v>
+      </c>
+      <c r="G190" s="100">
+        <v>28</v>
+      </c>
+      <c r="H190" s="101">
+        <v>471955</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
+      <c r="A191" s="93" t="s">
+        <v>741</v>
+      </c>
+      <c r="B191" s="100">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="C191" s="100">
+        <v>97</v>
+      </c>
+      <c r="D191" s="101">
+        <v>906209</v>
+      </c>
+      <c r="E191" s="100">
+        <v>16</v>
+      </c>
+      <c r="F191" s="101">
+        <v>145783</v>
+      </c>
+      <c r="G191" s="100">
+        <v>28</v>
+      </c>
+      <c r="H191" s="101">
+        <v>257708</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
+      <c r="A192" s="93" t="s">
+        <v>743</v>
+      </c>
+      <c r="B192" s="100">
+        <f t="shared" si="0"/>
+        <v>123</v>
+      </c>
+      <c r="C192" s="100">
+        <v>79</v>
+      </c>
+      <c r="D192" s="101">
+        <v>5478532</v>
+      </c>
+      <c r="E192" s="100">
+        <v>16</v>
+      </c>
+      <c r="F192" s="101">
+        <v>1088960</v>
+      </c>
+      <c r="G192" s="100">
+        <v>28</v>
+      </c>
+      <c r="H192" s="101">
+        <v>1925014</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
+      <c r="A193" s="93" t="s">
+        <v>745</v>
+      </c>
+      <c r="B193" s="100">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="C193" s="100">
+        <v>86</v>
+      </c>
+      <c r="D193" s="101">
+        <v>111643</v>
+      </c>
+      <c r="E193" s="100">
+        <v>16</v>
+      </c>
+      <c r="F193" s="101">
+        <v>20224</v>
+      </c>
+      <c r="G193" s="100">
+        <v>28</v>
+      </c>
+      <c r="H193" s="101">
+        <v>35752</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="A194" s="93" t="s">
+        <v>747</v>
+      </c>
+      <c r="B194" s="100">
+        <f t="shared" si="0"/>
+        <v>147</v>
+      </c>
+      <c r="C194" s="100">
+        <v>103</v>
+      </c>
+      <c r="D194" s="101">
+        <v>830017</v>
+      </c>
+      <c r="E194" s="100">
+        <v>16</v>
+      </c>
+      <c r="F194" s="101">
+        <v>126411</v>
+      </c>
+      <c r="G194" s="100">
+        <v>28</v>
+      </c>
+      <c r="H194" s="101">
+        <v>223463</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
+      <c r="A195" s="93" t="s">
+        <v>749</v>
+      </c>
+      <c r="B195" s="100">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="C195" s="100">
+        <v>76</v>
+      </c>
+      <c r="D195" s="101">
+        <v>7912</v>
+      </c>
+      <c r="E195" s="100">
+        <v>16</v>
+      </c>
+      <c r="F195" s="101">
+        <v>1634</v>
+      </c>
+      <c r="G195" s="100">
+        <v>28</v>
+      </c>
+      <c r="H195" s="101">
+        <v>2889</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="A196" s="93" t="s">
+        <v>751</v>
+      </c>
+      <c r="B196" s="100">
+        <f t="shared" si="0"/>
+        <v>113</v>
+      </c>
+      <c r="C196" s="100">
+        <v>74</v>
+      </c>
+      <c r="D196" s="101">
+        <v>103119</v>
+      </c>
+      <c r="E196" s="100">
+        <v>13</v>
+      </c>
+      <c r="F196" s="101">
+        <v>17872</v>
+      </c>
+      <c r="G196" s="100">
+        <v>26</v>
+      </c>
+      <c r="H196" s="101">
+        <v>35671</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
+      <c r="A197" s="93" t="s">
+        <v>753</v>
+      </c>
+      <c r="B197" s="100">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="C197" s="100">
+        <v>91</v>
+      </c>
+      <c r="D197" s="101">
+        <v>1064407</v>
+      </c>
+      <c r="E197" s="100">
+        <v>16</v>
+      </c>
+      <c r="F197" s="101">
+        <v>182908</v>
+      </c>
+      <c r="G197" s="100">
+        <v>28</v>
+      </c>
+      <c r="H197" s="101">
+        <v>323336</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="A198" s="93" t="s">
+        <v>308</v>
+      </c>
+      <c r="B198" s="100">
+        <f t="shared" si="0"/>
+        <v>137</v>
+      </c>
+      <c r="C198" s="100">
+        <v>93</v>
+      </c>
+      <c r="D198" s="101">
+        <v>7762575</v>
+      </c>
+      <c r="E198" s="100">
+        <v>16</v>
+      </c>
+      <c r="F198" s="101">
+        <v>1304858</v>
+      </c>
+      <c r="G198" s="100">
+        <v>28</v>
+      </c>
+      <c r="H198" s="101">
+        <v>2306668</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
+      <c r="A199" s="93" t="s">
+        <v>756</v>
+      </c>
+      <c r="B199" s="100">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="C199" s="100">
+        <v>76</v>
+      </c>
+      <c r="D199" s="101">
+        <v>449895</v>
+      </c>
+      <c r="E199" s="100">
+        <v>16</v>
+      </c>
+      <c r="F199" s="101">
+        <v>92936</v>
+      </c>
+      <c r="G199" s="100">
+        <v>28</v>
+      </c>
+      <c r="H199" s="101">
+        <v>164288</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
+      <c r="A200" s="93" t="s">
+        <v>758</v>
+      </c>
+      <c r="B200" s="100">
+        <f t="shared" si="0"/>
+        <v>113</v>
+      </c>
+      <c r="C200" s="100">
+        <v>74</v>
+      </c>
+      <c r="D200" s="101">
+        <v>2824</v>
+      </c>
+      <c r="E200" s="100">
+        <v>13</v>
+      </c>
+      <c r="F200" s="101">
+        <v>489</v>
+      </c>
+      <c r="G200" s="100">
+        <v>26</v>
+      </c>
+      <c r="H200" s="101">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
+      <c r="A201" s="93" t="s">
+        <v>760</v>
+      </c>
+      <c r="B201" s="100">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="C201" s="100">
+        <v>76</v>
+      </c>
+      <c r="D201" s="101">
+        <v>878</v>
+      </c>
+      <c r="E201" s="100">
+        <v>16</v>
+      </c>
+      <c r="F201" s="101">
+        <v>181</v>
+      </c>
+      <c r="G201" s="100">
+        <v>28</v>
+      </c>
+      <c r="H201" s="101">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
+      <c r="A202" s="93" t="s">
+        <v>762</v>
+      </c>
+      <c r="B202" s="100">
+        <f t="shared" si="0"/>
+        <v>147</v>
+      </c>
+      <c r="C202" s="100">
+        <v>103</v>
+      </c>
+      <c r="D202" s="101">
+        <v>4546237</v>
+      </c>
+      <c r="E202" s="100">
+        <v>16</v>
+      </c>
+      <c r="F202" s="101">
+        <v>692387</v>
+      </c>
+      <c r="G202" s="100">
+        <v>28</v>
+      </c>
+      <c r="H202" s="101">
+        <v>1223969</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="A203" s="93" t="s">
+        <v>764</v>
+      </c>
+      <c r="B203" s="100">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="C203" s="100">
+        <v>76</v>
+      </c>
+      <c r="D203" s="101">
+        <v>3344904</v>
+      </c>
+      <c r="E203" s="100">
+        <v>16</v>
+      </c>
+      <c r="F203" s="101">
+        <v>688070</v>
+      </c>
+      <c r="G203" s="100">
+        <v>28</v>
+      </c>
+      <c r="H203" s="101">
+        <v>1216338</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
+      <c r="A204" s="93" t="s">
+        <v>766</v>
+      </c>
+      <c r="B204" s="100">
+        <f t="shared" si="0"/>
+        <v>134</v>
+      </c>
+      <c r="C204" s="100">
+        <v>95</v>
+      </c>
+      <c r="D204" s="101">
+        <v>923625</v>
+      </c>
+      <c r="E204" s="100">
+        <v>13</v>
+      </c>
+      <c r="F204" s="101">
+        <v>125173</v>
+      </c>
+      <c r="G204" s="100">
+        <v>26</v>
+      </c>
+      <c r="H204" s="101">
+        <v>249836</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
+      <c r="A205" s="108" t="s">
+        <v>768</v>
+      </c>
+      <c r="B205" s="107">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="C205" s="107">
+        <v>77</v>
+      </c>
+      <c r="D205" s="105">
+        <v>5199825</v>
+      </c>
+      <c r="E205" s="107">
+        <v>4</v>
+      </c>
+      <c r="F205" s="105">
+        <v>283627</v>
+      </c>
+      <c r="G205" s="107">
+        <v>17</v>
+      </c>
+      <c r="H205" s="105">
+        <v>1114248</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
+      <c r="A206" s="93" t="s">
+        <v>770</v>
+      </c>
+      <c r="B206" s="100">
+        <f t="shared" si="0"/>
+        <v>163</v>
+      </c>
+      <c r="C206" s="100">
+        <v>119</v>
+      </c>
+      <c r="D206" s="101">
+        <v>6907649</v>
+      </c>
+      <c r="E206" s="100">
+        <v>16</v>
+      </c>
+      <c r="F206" s="101">
+        <v>907219</v>
+      </c>
+      <c r="G206" s="100">
+        <v>28</v>
+      </c>
+      <c r="H206" s="101">
+        <v>1603740</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
+      <c r="A207" s="93" t="s">
+        <v>772</v>
+      </c>
+      <c r="B207" s="100">
+        <f t="shared" si="0"/>
+        <v>139</v>
+      </c>
+      <c r="C207" s="100">
+        <v>59</v>
+      </c>
+      <c r="D207" s="101">
+        <v>19359951</v>
+      </c>
+      <c r="E207" s="100">
+        <v>16</v>
+      </c>
+      <c r="F207" s="101">
+        <v>5151313</v>
+      </c>
+      <c r="G207" s="100">
+        <v>64</v>
+      </c>
+      <c r="H207" s="101">
+        <v>20934827</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
+      <c r="A208" s="93" t="s">
+        <v>774</v>
+      </c>
+      <c r="B208" s="100">
+        <f t="shared" si="0"/>
+        <v>113</v>
+      </c>
+      <c r="C208" s="100">
+        <v>74</v>
+      </c>
+      <c r="D208" s="101">
+        <v>7732</v>
+      </c>
+      <c r="E208" s="100">
+        <v>13</v>
+      </c>
+      <c r="F208" s="101">
+        <v>1340</v>
+      </c>
+      <c r="G208" s="100">
+        <v>26</v>
+      </c>
+      <c r="H208" s="101">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
+      <c r="A209" s="93" t="s">
+        <v>776</v>
+      </c>
+      <c r="B209" s="100">
+        <f t="shared" si="0"/>
+        <v>113</v>
+      </c>
+      <c r="C209" s="100">
+        <v>74</v>
+      </c>
+      <c r="D209" s="101">
+        <v>255892</v>
+      </c>
+      <c r="E209" s="100">
+        <v>13</v>
+      </c>
+      <c r="F209" s="101">
+        <v>44349</v>
+      </c>
+      <c r="G209" s="100">
+        <v>26</v>
+      </c>
+      <c r="H209" s="101">
+        <v>88517</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
+      <c r="A210" s="93" t="s">
+        <v>778</v>
+      </c>
+      <c r="B210" s="100">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="C210" s="100">
+        <v>91</v>
+      </c>
+      <c r="D210" s="101">
+        <v>3001868</v>
+      </c>
+      <c r="E210" s="100">
+        <v>16</v>
+      </c>
+      <c r="F210" s="101">
+        <v>515841</v>
+      </c>
+      <c r="G210" s="100">
+        <v>28</v>
+      </c>
+      <c r="H210" s="101">
+        <v>911881</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
+      <c r="A211" s="93" t="s">
+        <v>780</v>
+      </c>
+      <c r="B211" s="100">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="C211" s="100">
+        <v>91</v>
+      </c>
+      <c r="D211" s="101">
+        <v>27296</v>
+      </c>
+      <c r="E211" s="100">
+        <v>16</v>
+      </c>
+      <c r="F211" s="101">
+        <v>4691</v>
+      </c>
+      <c r="G211" s="100">
+        <v>28</v>
+      </c>
+      <c r="H211" s="101">
+        <v>8292</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
+      <c r="A212" s="93" t="s">
+        <v>782</v>
+      </c>
+      <c r="B212" s="100">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
+      <c r="C212" s="100">
+        <v>72</v>
+      </c>
+      <c r="D212" s="101">
+        <v>2065461</v>
+      </c>
+      <c r="E212" s="100">
+        <v>16</v>
+      </c>
+      <c r="F212" s="101">
+        <v>445994</v>
+      </c>
+      <c r="G212" s="100">
+        <v>28</v>
+      </c>
+      <c r="H212" s="101">
+        <v>788407</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
+      <c r="A213" s="93" t="s">
+        <v>784</v>
+      </c>
+      <c r="B213" s="100">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="C213" s="100">
+        <v>76</v>
+      </c>
+      <c r="D213" s="101">
+        <v>7346717</v>
+      </c>
+      <c r="E213" s="100">
+        <v>16</v>
+      </c>
+      <c r="F213" s="101">
+        <v>1508689</v>
+      </c>
+      <c r="G213" s="100">
+        <v>28</v>
+      </c>
+      <c r="H213" s="101">
+        <v>2666991</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
+      <c r="A214" s="93" t="s">
+        <v>786</v>
+      </c>
+      <c r="B214" s="100">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+      <c r="C214" s="100">
+        <v>104</v>
+      </c>
+      <c r="D214" s="101">
+        <v>3026946</v>
+      </c>
+      <c r="E214" s="100">
+        <v>16</v>
+      </c>
+      <c r="F214" s="101">
+        <v>456099</v>
+      </c>
+      <c r="G214" s="100">
+        <v>28</v>
+      </c>
+      <c r="H214" s="101">
+        <v>806270</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
+      <c r="A215" s="93" t="s">
+        <v>788</v>
+      </c>
+      <c r="B215" s="100">
+        <f t="shared" si="0"/>
+        <v>122</v>
+      </c>
+      <c r="C215" s="100">
+        <v>78</v>
+      </c>
+      <c r="D215" s="101">
+        <v>1391729</v>
+      </c>
+      <c r="E215" s="100">
+        <v>16</v>
+      </c>
+      <c r="F215" s="101">
+        <v>279350</v>
+      </c>
+      <c r="G215" s="100">
+        <v>28</v>
+      </c>
+      <c r="H215" s="101">
+        <v>493822</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
+      <c r="A216" s="93" t="s">
+        <v>790</v>
+      </c>
+      <c r="B216" s="100">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="C216" s="100">
+        <v>100</v>
+      </c>
+      <c r="D216" s="101">
+        <v>1458564</v>
+      </c>
+      <c r="E216" s="100">
+        <v>16</v>
+      </c>
+      <c r="F216" s="101">
+        <v>229059</v>
+      </c>
+      <c r="G216" s="100">
+        <v>28</v>
+      </c>
+      <c r="H216" s="101">
+        <v>404920</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>